--- a/response.xlsx
+++ b/response.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,11 @@
           <t>ver2</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ver3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -460,6 +465,11 @@
           <t>CK Hutchison operates in several key sectors, including infrastructure investments, telecommunications, and finance &amp; investments. Its infrastructure portfolio includes companies such as Northumbrian Water and Australian Gas Networks. In telecommunications, CK Hutchison Group Telecom consolidates its European operations under the 3 Group Europe brand and holds a significant stake in Hutchison Telecommunications Hong Kong Holdings. Additionally, the finance and investments segment encompasses a diverse range of interests, including a majority stake in Hutchison Telecommunications (Australia) Limited and various associated companies. The company is strategically diversified across these sectors, enhancing its overall market presence.</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CK Hutchison operates in various sectors including telecommunications, e-commerce, infrastructure, and healthcare. Its telecommunications division includes CK Hutchison Group Telecom, which consolidates several businesses in Europe and holds a significant interest in Hutchison Telecommunications Hong Kong Holdings. The group also engages in e-commerce through Hutchison E-Commerce and has a presence in retail with the Marionnaud business. In infrastructure, it is involved in investments such as Northumbrian Water and Australian Gas Networks. Additionally, it has interests in healthcare through Hutchison China MediTech and investments in liquid assets.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -472,6 +482,11 @@
           <t>CK Hutchison categorizes its revenue-generating segments into various operating segments, with a significant grouping labeled as "Finance &amp; Investments and Others." This category encompasses activities not presented separately, including interests in companies such as Hutchison Telecommunications (Australia) Limited and TPG Telecom Limited. The Group emphasizes the importance of recurring and sustainable earnings, cash flow, and dividend growth as part of its corporate strategy. Additionally, disciplined management of revenue growth, margins, and costs is a focus, alongside strategic mergers and acquisitions. The Group also prioritizes technology transformation to enhance revenue opportunities across its businesses.</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CK Hutchison categorizes its revenue-generating segments primarily through its diverse business holdings, which include telecommunications, e-commerce, retail, and investments in listed companies. Key segments mentioned include Hutchison Whampoa (China), Hutchison E-Commerce, and associated companies like Hutchison China MediTech and Cenovus Energy. The Group focuses on maintaining its financial health and shareholder returns while managing market price risks associated with its listed debt and equity securities. Additionally, it emphasizes prudent financial, liquidity, and cash flow management as core priorities for sustaining its operations. Overall, the Group’s strategy is built on maintaining an agile financial approach across its varied business segments.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -484,6 +499,11 @@
           <t>The retail segment is significant within CK Hutchison's operations as it contributes to the overall diversification and stability of the Group's revenue streams. The company's retail activities, particularly through its associated ventures like Hutchison Asia Telecommunications and Marionnaud, enhance its market presence in both developed and developing regions. Despite some challenges, such as soft consumer demand outside ASEAN countries, the retail segment plays a crucial role in balancing the performance of other divisions like Ports and Infrastructure. The retail sector's ability to adapt and implement cost controls has also contributed positively to profitability, with a reported 22% increase in revenue in the first half of 2023. Overall, the retail segment remains a vital component of CK Hutchison's financial profile and strategic growth initiatives.</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>The retail segment is a crucial part of CK Hutchison's operations, contributing significantly to overall profitability despite facing challenges such as rising energy costs and soft consumer demand in certain regions. In the first half of 2024, the retail division experienced a revenue increase of 22%, showcasing effective cost controls amidst tough market conditions. This growth is key as it helps offset underperformance in other areas, such as container shipping. The positive demand outlook for the third quarter further emphasizes the retail segment's resilience and importance. Overall, it plays a vital role in maintaining CK Hutchison's strong underlying financial profile.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -496,6 +516,11 @@
           <t>CK Hutchison has a diverse ownership structure that includes both listed and non-listed entities. Notably, it holds a 66.09% interest in Hutchison Telecommunications Hong Kong Holdings, which is publicly traded. Additionally, the Group has an 87.87% stake in Hutchison Telecommunications (Australia) Limited, which is listed on the Australian Securities Exchange, and a 25.05% attributable interest in TPG Telecom Limited, also publicly listed. Non-listed interests include various businesses under "Finance &amp; Investments and Others," such as Hutchison Whampoa (China) and Hutchison E-Commerce. Overall, CK Hutchison's structure is characterized by significant stakes in both public and private ventures, reflecting a balanced investment strategy.</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CK Hutchison has a diverse ownership structure that includes both listed and non-listed entities. It holds an 87.87% interest in Hutchison Telecommunications (Australia) Limited, which in turn has a 25.05% stake in TPG Telecom Limited. Additionally, the Group's telecommunications division consolidates its 66.09% interest in Hutchison Telecommunications Hong Kong Holdings, which is also publicly listed. The Group's portfolio includes various associated companies such as Hutchison China MediTech, TOM Group, and Cenovus Energy, alongside its operations in infrastructure assets co-owned with CK Infrastructure Holdings Limited (CKI). Overall, CK Hutchison strategically leverages its holdings in both public and private sectors to enhance long-term stakeholder returns.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -508,6 +533,11 @@
           <t>Joint ventures and associates are integral to CK Hutchison's business model as they enhance diversification and expand the Group's operational footprint across various sectors, including infrastructure and telecommunications. For instance, CKI's investments in utilities like Northumbrian Water and Australian Gas Networks allow for stable cash flows and recurring earnings. In telecommunications, the consolidation of CK Hutchison Group Telecom strengthens market presence in Europe and Hong Kong, contributing to overall revenue growth. These partnerships enable access to new markets, technologies, and resources, which align with the Group's strategy of sustainable earnings and strategic growth. Additionally, these ventures support the Group's disciplined approach to capital management and investment, ensuring financial stability and returns for stakeholders.</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Joint ventures and associates are crucial components of CK Hutchison's business model, contributing to its diversified portfolio and risk management strategy. They allow the Group to enter new markets and leverage local expertise while sharing investment risks and resources. The Group's holdings in companies such as Hutchison China MediTech and Cenovus Energy enhance its financial performance and expand its operational capabilities. Additionally, these partnerships can create synergies and foster innovation, ultimately driving shareholder returns. Overall, joint ventures and associates play a significant role in strengthening CK Hutchison’s competitive position and financial resilience.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -520,6 +550,11 @@
           <t>CK Hutchison's total revenue for the Retail division increased by 3% year-on-year, amounting to HK$91,469 million at the end of June 2024. When adjusted for local currencies, the revenue growth was 5%. This growth was notable despite flat performance in EBITDA and EBIT, which remained at HK$7,089 million and HK$5,433 million, respectively. The increase in revenue indicates a positive trend in operations, particularly in most regions outside of non-ASEAN Asia, which have returned to or exceeded pre-pandemic performance levels. Overall, the financial results reflect a stable performance amidst varying market conditions.</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CK Hutchison's total revenue increased by 3% in reported currency, reaching HK$91,469 million compared to the same period last year. In local currencies, the total revenue growth was stronger at 5%. This growth was supported by an increase in operations outside of non-ASEAN Asia regions. Despite this revenue growth, EBITDA and EBIT remained flat at HK$7,089 million and HK$5,433 million respectively in reported currency. Overall, the financial performance indicates stable revenue generation amid mixed operational conditions.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -532,6 +567,11 @@
           <t>The business segment that contributes most to CK Hutchison's overall revenue appears to be the Finance &amp; Investments segment, particularly highlighted by the strong performance of Cenovus Energy. The Group's 17.1% share of Cenovus Energy reported significant increases in EBITDA (33%), EBIT (56%), and net earnings (46%) compared to the previous year, largely driven by improved commodity prices and production. In addition, Indosat Ooredoo Hutchison (IOH) also showed notable revenue growth, with an 18% increase in EBITDA. Overall, the Finance &amp; Investments segment's positive contributions, alongside the growth in other operations, led to a 3% total margin growth across the Group. Thus, this segment plays a crucial role in CK Hutchison's financial performance.</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>The business segment contributing the most to CK Hutchison's overall revenue appears to be the Finance &amp; Investments segment, particularly due to higher contributions from Cenovus Energy and Indosat Ooredoo Hutchison (IOH). In the first half of 2024, this segment reported favorable underlying performance compared to the same period last year. Specifically, Cenovus Energy contributed HK$5,504 million in post-IFRS 16 EBITDA, indicating a significant impact on overall revenue. Despite challenges like lower revenue from HutchMed and competitive pressures in Austria, the segment still managed a 3% growth in total margin. Overall, the energy and telecommunications sectors are pivotal for CK Hutchison's financial performance.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -544,6 +584,11 @@
           <t>The retail segment has shown a mixed performance across different regions. Sweden reported a 6% increase in total margin primarily due to customer base growth, with EBITDA and EBIT growing by 7% and 18%, respectively. In contrast, Italy experienced flat EBITDA, reflecting challenges from a lower customer base despite new revenue streams in cybersecurity and energy. The UK exhibited strong growth, with EBITDA and EBIT increasing by 31% and 61%, driven by a 9% increase in total margin and an expanding customer base. Overall, there was a 3% total margin growth across the group, indicating some positive momentum despite regional variances.</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>In the retail segment, there is a notable trend of revenue growth driven by new streams such as cybersecurity, energy, and insurance products, despite a lower customer base impacting net service margins. Operating expenses have decreased due to stringent cost control measures, which is a positive sign for profitability. EBITDA has shown an increase of 11% in local currency, indicating improved operational efficiency and margin performance. However, EBIT decreased by 8% due to higher depreciation and amortization. Overall, the demand outlook remains positive, with moderate volume growth expected in 2024, particularly in Asia.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -556,6 +601,11 @@
           <t>The telecommunications segment has shown varied performance compared to other segments within the company. Overall, there was a 3% total margin growth across operations, driven by improved MVNO performance and expansion into new revenue streams such as cybersecurity, energy, and insurance. In the UK, EBITDA and EBIT grew by 31% and 61%, respectively, indicating strong performance in telecommunications, bolstered by a 9% increase in total margin from an expanding customer base. Conversely, Italy's Wind Tre reported flat EBITDA, affected by a shrinking customer base despite cost control measures. This suggests that while telecommunications remains a critical revenue driver, diversification into additional services is increasingly important for overall growth.</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>The telecommunications segment has shown stable performance, with EBIT decreasing by 8% in the first half of 2024, primarily due to increased depreciation and amortization. While new revenue streams such as cybersecurity and energy helped offset some losses, the segment faced challenges from a lower customer base impacting net service margins. In contrast, the Ports and Related Services division experienced a 7% growth in TEU volumes and a significant increase in EBIT by 267%, indicating stronger performance compared to telecommunications. Overall, the telecommunications segment is stabilizing but is outpaced by growth in other segments, particularly in ports and services, which capitalized on rising domestic consumption. Thus, while telecommunications remains a crucial component, it currently lags behind the more robust growth seen in other operational areas.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -568,6 +618,11 @@
           <t>The revenue growth in the ports and related services segment was influenced by several key factors. Notably, there was a shift towards new revenue streams such as cybersecurity and insurance products, which helped to offset declines in customer service margins due to a reduced customer base. Additionally, growth in the total margin, particularly in Sweden where a 6% increase was reported, contributed positively, driven by customer base expansion. The overall improvement in MVNO performance and the expansion of revenue streams beyond traditional services also played a significant role. Furthermore, a 3% total margin growth across operations reflects the effectiveness of these initiatives despite challenges like increased operating costs and competition.</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Revenue growth in the ports and related services segment was influenced by several key factors. Firstly, surging US and EU export volumes through Yantian and Shanghai Ports significantly boosted throughput, which offset declines in local service revenue and hardware sales. Additionally, rising cargo activities, particularly in the UK and Barcelona, contributed positively, benefiting from redirected Red Sea transshipment traffic. Despite a drop in throughput volume from Rotterdam due to subdued consumer demand, the overall total margin remained stable because of a favorable margin mix. Moreover, the stringent cost containment measures implemented helped maintain profitability despite the challenges faced.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -580,6 +635,11 @@
           <t>CK Hutchison's geographic diversification positively impacts its overall performance by enabling risk mitigation and revenue stability across various markets. The group's investments span multiple sectors including infrastructure and telecommunications, with significant stakes in European and Asian markets. This broad exposure allows the company to capitalize on growth opportunities and hedge against regional economic downturns. Additionally, the focus on recurring earnings and cash flow from diverse operations supports financial strength and stability. Overall, this strategic diversification enhances long-term total return for stakeholders while enabling the group to leverage management experience across different geographies.</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CK Hutchison's geographic diversification enhances its overall performance by spreading risks across multiple markets, which can mitigate the impact of economic downturns in any single region. The group's operations span various sectors and countries, allowing it to leverage local expertise and adapt to specific market conditions. This strategy supports recurring and sustainable earnings while enabling the company to capitalize on growth opportunities where it has established management experience. Furthermore, geographic diversification contributes to financial stability, as cash flows from different regions can offset fluctuations in revenue. Overall, this approach reinforces CK Hutchison's goal of maintaining strong financial health and delivering shareholder returns.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -592,6 +652,11 @@
           <t>The company faces several challenges in the Chinese market, primarily stemming from reduced transhipment volumes in Hong Kong, which could impact overall throughput growth. Additionally, geopolitical tensions, such as conflicts in the Middle East and Ukraine, contribute to uncertainties that may affect trade and logistics operations. The ongoing tight monetary policies in the US and rising energy costs in Europe further complicate the economic landscape, potentially leading to decreased consumer demand. Moreover, the fragmented global financial conditions create a riskier environment for investments and operations. These factors collectively pose significant operational and financial risks for the company in navigating the Chinese market.</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The company faces significant challenges in the Chinese market, as evidenced by a 19% decline in comparable store sales for Health and Beauty China. This downturn is attributed to a combination of soft consumer demand and increased competition. Additionally, broader economic pressures, such as tight monetary policies and the strong US dollar, may be impacting consumer spending. The overall performance in China contrasts sharply with the growth seen in other regions, particularly in the ASEAN markets. Consequently, the company must navigate these challenges to improve its financial performance in China.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -604,6 +669,11 @@
           <t>The retrieved context does not provide specific details on the contribution of the European market to CK Hutchison's revenue. It mainly discusses the company's management structure and various interests, including telecommunications and investments. To accurately assess the European market's contribution, one would need financial reports or segment-specific performance data that highlight revenue sources by region. Typically, a multinational conglomerate like CK Hutchison would have diverse revenue streams across its various business segments, potentially including telecommunications, retail, and logistics in Europe. For precise statistics, reviewing the latest financial statements or segment disclosures would be necessary.</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific statistics on CK Hutchison's revenue contribution from the European market. However, it mentions that CKI, the largest publicly listed infrastructure company on the SEHK, operates in multiple regions, including the UK and Continental Europe. This suggests that the European market is a significant area for CK Hutchison's infrastructure investments and may contribute notably to its overall revenue. Additionally, the Group's strategy focuses on maintaining strong financial positions and shareholder returns, indicating that successful operations in Europe likely play a role in achieving these goals. For a precise breakdown of revenue contributions, further financial disclosures would be required.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -616,6 +686,11 @@
           <t>CK Hutchison's performance is influenced by several external factors, including regulatory changes, competitive dynamics, and economic conditions. For instance, the ongoing UK telecom merger is under review, with decisions impacting the company's strategic direction. Additionally, cost pressures and competition in the telecommunications sector may affect profitability and operational efficiency. Moreover, the company's commitment to reducing emissions aligns with growing environmental regulations and stakeholder expectations. Lastly, acquisitions like that of OpNet in Italy can enhance network capabilities but also introduce integration challenges.</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CK Hutchison's performance is influenced by several external factors, including regional economic conditions, regulatory environments, and market demand. The company anticipates moderate volume growth in 2024, particularly in Asia, Europe, and Latin America, indicating that economic recovery and consumer spending patterns in these regions will play a critical role. Additionally, the telecommunications and ports divisions are affected by advancements in technology and sustainability initiatives, such as the push for decarbonization and clean energy investments. Regulatory changes, particularly in corporate governance and environmental standards, further shape operational strategies and compliance costs. Overall, these external factors collectively contribute to CK Hutchison's strategic decisions and financial outcomes.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -628,6 +703,11 @@
           <t>Local consumer behavior significantly influences CK Hutchison's sales strategies by dictating product offerings, marketing approaches, and service delivery. For instance, in telecommunications, understanding regional preferences for mobile plans or data services allows CK Hutchison to tailor their offerings, ensuring they meet specific needs and enhance customer satisfaction. Additionally, fluctuations in consumer spending patterns can necessitate adjustments in pricing and promotions to remain competitive. The group's diversified investments, such as in infrastructure and telecommunications, also require them to be responsive to local economic conditions and regulatory environments, further shaping their sales strategies. Overall, a data-driven approach to analyzing local consumer trends plays a critical role in optimizing CK Hutchison's market presence.</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Local consumer behavior significantly influences CK Hutchison's sales strategies by necessitating a tailored approach to meet diverse market demands. Understanding regional preferences allows the Group to adapt its product offerings and marketing efforts, ensuring relevance and appeal to local audiences. Moreover, insights into consumer spending habits inform financial and liquidity management practices, optimizing cash flow. The Group’s agile financial strategy enables it to respond effectively to shifts in consumer behavior, enhancing overall shareholder returns. By aligning sales strategies with local trends, CK Hutchison can maintain a strong underlying financial position while fostering customer loyalty.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -640,6 +720,11 @@
           <t>EBITDA growth is a strong indicator of CK Hutchison's operational efficiency, as it reflects the company's ability to generate earnings before interest, taxes, depreciation, and amortization from its core operations. Consistent EBITDA growth suggests effective cost management, revenue enhancement strategies, and the potential for sustainable cash flow generation. This aligns with the company's corporate strategy, which emphasizes recurring earnings and disciplined capital management. By focusing on technology transformation and strategic mergers and acquisitions, CK Hutchison is positioned to capitalize on operational efficiencies and market opportunities. Overall, a positive trend in EBITDA growth indicates robust financial health and operational effectiveness.</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>The EBITDA growth of CK Hutchison indicates an improvement in the company's operational efficiency, reflecting its ability to generate higher earnings before interest, taxes, depreciation, and amortization relative to its revenue. This growth suggests effective cost management and disciplined revenue generation strategies, which are essential for sustaining cash flow and profitability. Additionally, consistent EBITDA growth highlights the company's focus on organic growth and successful merger and acquisition activities, further enhancing its financial strength. Overall, strong EBITDA performance signals that CK Hutchison is effectively leveraging its resources and expertise in its operational sectors.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -652,6 +737,11 @@
           <t>The segments that showed the most significant improvement in EBITDA are 3 Ireland, which reported an 11% increase, and Hutchison Telecommunications Hong Kong Holdings, with a 1% increase despite lower overall revenue. Sweden also demonstrated growth, with EBITDA increasing by 7% driven by higher total margin. Austria's EBITDA grew by 6%, attributed to robust MVNO performance. Overall, 3 Ireland's substantial growth stands out compared to the other segments.</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>The segment that showed the most significant improvement in EBITDA is the one reporting a 267% increase compared to the same period last year, primarily due to better total margin that outweighed higher operating expenses from a one-off redundancy provision. Additionally, another segment recorded an 11% increase in EBITDA in local currency, attributed to improved total margin despite some higher operating costs. Overall, the growth in EBITDA across these segments reflects effective cost control and new revenue streams. The specific figures highlight substantial operational efficiency and successful margin management.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -664,6 +754,11 @@
           <t>CK Hutchison's EBITDA structure showcases its diverse business operations across several sectors, including telecommunications, infrastructure, and finance. The telecommunications division, which includes CK Hutchison Group Telecom and Hutchison Telecommunications Hong Kong, contributes significantly to recurring earnings, reflecting strong market presence and customer base. Infrastructure investments, such as utilities and energy, add stable cash flows, while the finance and investments segment enhances overall financial strength. This diversified portfolio allows the Group to maintain a balance between growth and stability, with sustainable earnings and cash flow from various industries. Ultimately, the varied EBITDA contributions enable CK Hutchison to mitigate risks and capitalize on emerging opportunities across different markets.</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>The EBITDA structure of CK Hutchison reflects its diverse business operations by showcasing revenue contributions from various sectors, including telecommunications, retail, infrastructure, energy, and logistics. This diversity enables the Group to mitigate financial risks and stabilize cash flows across different market conditions. Additionally, the disciplined management of revenue growth, costs, and investments allows for sustainable earnings and margin enhancement, contributing to overall financial health. The Group’s focus on recurring cash flow and dividend growth further underscores its commitment to maintaining a robust EBITDA amidst varying economic landscapes. Overall, the multifaceted nature of its operations supports a resilient EBITDA profile that sustains shareholder returns.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -676,6 +771,11 @@
           <t>The increase in net profit, which rose by 55% to HK$5,511 million for the six months ended June 30, 2024, suggests that the company is experiencing robust financial health, likely leading to enhanced investment capacity. This positive trend may prompt the company to pursue further revenue initiatives and expand its customer base, particularly in high-growth segments like Fixed Wireless Access. Additionally, improved profitability may enable the company to reinvest in technology and innovation, fostering competitive advantages in the market. The financial strength also positions the company favorably to manage risks associated with interest and exchange rate fluctuations through its treasury management policies. Overall, the rise in net profit could lead to a more aggressive growth strategy, focusing on both organic expansion and potential acquisitions.</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>The company's net profit showed a positive trend, increasing by 22% and 33% in the first half, indicating effective revenue generation and cost control. This growth suggests that the company may pursue aggressive expansion strategies, particularly in the Asian market, where higher growth is expected. However, the subpar performance from an associated company in container shipping may prompt a reassessment of investments in that sector. The positive demand outlook for the third quarter suggests a strategic focus on capitalizing on current market conditions before a anticipated slowdown in the fourth quarter. Overall, the financial performance will likely guide the company to prioritize operational efficiencies and explore new revenue streams while cautiously managing risks associated with market fluctuations.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -688,6 +788,11 @@
           <t>Tax expenses can significantly impact CK Hutchison's profitability by reducing net income available to shareholders. Higher tax liabilities can lead to lower retained earnings, which in turn affect the company's ability to reinvest in growth opportunities. For organizations like CK Hutchison, which focus on sustainable earnings and dividend growth, elevated tax expenses can limit cash flow available for dividends and capital expenditures. Furthermore, effective tax management strategies may enhance profitability by optimizing tax liabilities, allowing for better resource allocation. Overall, a careful balance in managing tax expenses is crucial for maintaining CK Hutchison's financial strength and stability.</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Tax expenses can significantly impact CK Hutchison's profitability by reducing net income after taxes. The anticipated introduction of the Pillar Two Model Rules, expected to take effect in 2025 for the Group, could impose a global minimum tax, potentially altering the effective tax rate. Furthermore, with certain jurisdictions already implementing these rules in 2024, CK Hutchison may face increased tax liabilities that could constrain cash flow and reinvestment capacity. The adoption of HKFRS 16 also indicates that lease liabilities will be reflected in financial statements, affecting reported profitability metrics. Overall, the evolving tax landscape emphasizes the importance of effective tax planning for maintaining profitability.</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -700,6 +805,11 @@
           <t>The retrieved context does not provide specific figures or direct insights into CK Hutchison's free cash flow. However, it highlights overall growth in throughput across various segments, particularly a 14% increase in the Asia, Australia, and Others segment, which suggests a positive operational trend that could contribute to free cash flow improvements. The report mentions growth in European ports and Mainland China, indicating robust cargo activities that may enhance revenue. Additionally, the uplift in volume and higher storage income may further support cash flow generation. Overall, while specific free cash flow statistics are absent, operational growth trends appear favorable for cash flow potential.</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific data on CK Hutchison's free cash flow trends. However, it mentions an increase in directors’ emoluments from HK$21,650 million in 2023 to HK$22,809 million in 2024, which could indicate rising operational costs. Additionally, the employment figures show that the group employed 304,934 people, suggesting a stable workforce that may influence cash flow dynamics. Without explicit free cash flow figures, it’s challenging to determine a clear trend. For a comprehensive analysis, access to detailed financial statements would be necessary.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -712,6 +822,11 @@
           <t>The retrieved context does not provide specific statistics or figures regarding net debt changes. However, it mentions the company's focus on enhancing long-term total returns, disciplined management of revenue growth, and maintaining financial strength, which suggests a proactive approach to managing debt levels. A reduction in net debt would typically signify improved financial health and reduced risk, while an increase could indicate potential liquidity challenges or increased leverage. The emphasis on sustainable earnings and cash flow indicates the company is likely aiming to optimize its debt levels to support growth initiatives. Overall, without specific data, the implications of net debt changes cannot be quantified, but they are critical for assessing financial stability.</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific figures or statistics related to the company's net debt or any changes in that metric. However, it mentions ongoing revenue initiatives and disciplined cost management aimed at enhancing margins and reducing costs, suggesting a focus on improving financial performance. A decrease in net debt typically signifies improved financial health and reduced leverage, allowing for greater operational flexibility. Conversely, an increase in net debt could indicate potential liquidity risks or the need for careful financial management. Without concrete data, it's challenging to assess the exact implications for the company.</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -724,6 +839,11 @@
           <t>The increase in capital expenditures for CK Hutchison Holdings Limited can be attributed to a significant rise in profit before tax, which surged by 55% to HK$5,511 million in the first half of 2024 compared to the same period last year. This financial performance likely provided the company with greater resources and motivation to invest in growth opportunities. Additionally, the group's treasury management policies focus on mitigating financial risks, which may have allowed for more confident capital investments. The centralization of treasury functions aids in managing costs and funding needs efficiently, further supporting capital expenditure. Overall, enhanced profitability and effective financial risk management are key contributors to the changes in capital expenditures.</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>The changes in capital expenditures were influenced by several factors, including favorable working capital movements and a decrease in capital expenditures compared to the previous year. Specifically, there was a reported increase of 17% in outstanding balances with associated companies and joint ventures, rising to HK$8,904 million from HK$7,622 million. Additionally, lower proceeds from the disposal of subsidiaries and joint ventures, along with reduced loan repayments from associated entities, also impacted capital expenditures. The Group primarily funded its capital expenditures through cash generated from operations and available cash reserves. Overall, these dynamics reflect a strategic shift in resource allocation amid changing financial conditions.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -736,6 +856,11 @@
           <t>CK Hutchison manages its investment returns by focusing on recurring and sustainable earnings, cash flow, and dividend growth, while maintaining financial strength and stability. The Group employs disciplined management practices related to revenue growth, margins, and costs, as well as capital and investment return ratio targets. It also engages in earnings and cash flow accretive merger and acquisition activities, alongside organic growth in sectors where it has expertise. Technology transformation is a key initiative aimed at unlocking new cost and revenue opportunities across its businesses. This diversified approach allows CK Hutchison to optimize returns across its various segments, including infrastructure and telecommunications.</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CK Hutchison manages its investment returns through a disciplined approach that focuses on revenue growth, margin enhancement, and cost management across various segments. The Group aims for recurring and sustainable earnings, cash flow, and dividend growth while maintaining financial strength and stability. It employs a strategy of capital and investments to ensure that returns meet targeted ratios, alongside engaging in cash flow accretive merger and acquisition activities. By leveraging management experience and resources in specific sectors or geographies, CK Hutchison seeks to optimize its investment outcomes. Overall, the Group's agile financial strategy reflects its commitment to generating shareholder returns while ensuring a robust financial position.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -748,6 +873,11 @@
           <t>The debt-to-capital ratio is a critical indicator of CK Hutchison's financial health and risk management strategy. As of June 30, 2024, CKI reported a net debt to net total capital ratio of 9.8%, showcasing a strong financial position with minimal reliance on debt. When considering the infrastructure investment portfolio, the look-through net debt to net total capital ratio was an industry-low of 47.8%. This conservative approach enhances CK Hutchison’s creditworthiness, reflected in its “A/Stable” rating from Standard &amp; Poor’s, which ensures lower borrowing costs and greater financial flexibility. Overall, these ratios signify CK Hutchison's commitment to prudent financial management and its ability to weather economic uncertainties.</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>The debt-to-capital ratio is a critical indicator of CK Hutchison's financial health, reflecting its leverage and capital structure. As of 30 June 2024, the net debt to net total capital ratio stood at 9.8%, indicating a conservative level of debt relative to its total capital. This low ratio suggests that CK Hutchison maintains a strong balance sheet, which can enhance its creditworthiness, as evidenced by its “A/Stable” credit rating from Standard &amp; Poor’s. Additionally, the industry-low look-through net debt to net total capital ratio of 47.8% indicates effective management of its infrastructure investments. Overall, these metrics signal financial stability and a capacity for future growth or investment without excessive reliance on debt.</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -760,6 +890,11 @@
           <t>Management expects moderate volume growth in the telecommunications segment for 2024, with higher growth anticipated in Asia, Europe, and Latin America. They have noted an increase in active customer bases in the UK, Ireland, Sweden, and Denmark, contributing positively to business performance. However, Italy and Austria are experiencing declines in active customer numbers due to competitive pressures and tariff adjustments. Overall, the segment achieved a total margin growth of 3%, driven by improved performance and diversification of revenue streams. The outlook remains positive despite challenges, with expectations for steady contributions from various regions.</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Management expects moderate volume growth in the telecommunications segment during 2024, particularly with higher growth anticipated in Asia, Europe, and Latin America. Efforts will continue to enhance margins and reduce costs amid ongoing pressures on profitability due to competition and operational challenges. The UK and Ireland are expected to see continued growth in their active customer bases, while Italy and Austria may face challenges from customer management initiatives and competitive pressures. Overall, management aims to maintain a strong underlying financial profile despite the headwinds faced, such as rising energy costs and soft consumer demand in certain regions.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -772,6 +907,11 @@
           <t>Management’s forecasts for the retail segment indicate a focus on enhancing customer engagement and expanding the customer base, aligned with the overall market trend of increasing competition and customer churn. The growth in active customer bases in the UK and Ireland, along with steady contributions from second brands in Sweden and Denmark, reflects a broader market shift towards diversifying service offerings and improving customer retention strategies. In contrast, challenges faced in Italy and Austria due to tariff adjustments and keen competition highlight the necessity for adaptive pricing and value management initiatives. Overall, a reported 3% total margin growth and significant EBITDA and EBIT increases suggest that focusing on innovative revenue streams and cost management is crucial for sustaining profitability in a competitive landscape. This aligns with the group's strategy of pursuing organic growth and disciplined management of revenues and costs to ensure long-term financial stability.</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Management’s forecasts for the retail segment indicate a positive outlook, aligning with overall market trends of increased consumer demand and revenue growth. Specifically, the retail segment's performance is boosted by a 3% total margin growth driven by an expanding customer base and higher roaming income. The anticipated gradual slowdown in demand in the fourth quarter aligns with broader market patterns of frontloading cargo orders for the holiday season. Additionally, the positive demand outlook for the third quarter suggests ongoing robust consumption trends across various sectors. Overall, these factors indicate that the retail segment is well-positioned to navigate competitive pressures while capitalizing on favorable market conditions.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -784,6 +924,11 @@
           <t>The ports segment is experiencing a recovery, contributing positively to the overall financial performance of the Group. Key strategies include enhancing operational efficiency and optimizing revenue streams. The Group is also focusing on diversifying its offerings and leveraging synergies with other divisions, such as telecommunications. Additionally, investments in infrastructure improvements and technology upgrades are likely aimed at increasing capacity and service quality. Overall, these initiatives are driving a 5% increase in EBITDA and EBIT in reported currency for the segment.</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>To enhance performance in the ports segment, the Group is focusing on several key strategies. Firstly, they are capitalizing on rising cargo activities, particularly in the UK and Barcelona, which have benefitted from redirected transshipment traffic. Additionally, the Group is implementing stringent cost control measures to lower operating expenses, which has already shown positive results. They are also exploring new revenue streams such as cybersecurity, energy, and insurance products to diversify income. Finally, the emphasis on stabilizing energy costs while expanding network capabilities aims to optimize overall margins and improve profitability.</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -796,6 +941,11 @@
           <t>The retrieved context does not explicitly detail CK Hutchison's strategies for navigating challenges in the Chinese market. However, it indicates that the company operates as a multinational conglomerate with diverse businesses across approximately 50 countries, suggesting a broad strategic approach to risk management and market adaptation. Additionally, the separation of roles among senior management, with Mr. Victor T K Li as Chairman and Mr. Fok Kin Ning, Canning as Deputy Chairman, may enhance decision-making agility in response to market challenges. The diversified interests, including telecommunications and e-commerce, indicate a focus on leveraging existing assets to mitigate risks in specific markets. Therefore, while specific strategies for the Chinese market are not outlined, the company's organizational structure and diversification suggest a proactive approach to addressing market challenges.</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CK Hutchison emphasizes prudent financial, liquidity, and cash flow management as key strategies to navigate challenges in the Chinese market. The Group's agile financial strategy aims to generate shareholder returns while maintaining a strong underlying financial position. With operations spanning about 50 countries, including significant interests in infrastructure, CKI's diverse business model provides resilience against market fluctuations. The leadership structure, with shared responsibilities among Co-Managing Directors, ensures balanced decision-making and oversight. Additionally, the Board's experienced members actively monitor performance to adapt to market dynamics effectively.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -808,6 +958,11 @@
           <t>The management sees opportunities for growth in emerging markets primarily through organic growth in sectors where the Group has management experience and resources. They aim to enhance long-term returns by exploring in-market consolidation and forming strategic alliances with global technology partners. Additionally, technology transformation is highlighted as a key initiative to capture new cost and revenue opportunities. By managing financial risks effectively and maintaining strong liquidity, the Group positions itself to capitalize on these emerging market opportunities. Overall, the focus is on sustainable earnings and cash flow growth in these regions.</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>The Group identifies growth opportunities in emerging markets through organic growth strategies in sectors where it possesses management experience and resources. By focusing on disciplined revenue growth and cost management, the Group aims to enhance margins in these regions. Additionally, technology transformation is a key initiative to capture new cost and revenue opportunities, particularly in emerging market sectors. The Group's strategy also includes exploring merger and acquisition activities that could be accretive to earnings and cash flow in these markets. Overall, the emphasis is on sustainable growth while maintaining financial strength and stability.</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -820,6 +975,11 @@
           <t>The retrieved context does not provide explicit details regarding CK Hutchison's current market price in relation to its book value. However, it does mention that the Group's holdings of listed debt and equity securities represented approximately 8% of its liquid assets as of December 2023. This suggests that a portion of the Group's assets is tied to market valuations, indicating potential fluctuations in market price. To evaluate market price against book value accurately, one would typically look at the price-to-book (P/B) ratio, which is not provided here. Further financial statements or reports would be necessary for a precise analysis of the market price relative to book value.</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific information on CK Hutchison's current market price in relation to its book value. Typically, a financial analyst would evaluate this relationship by calculating the price-to-book (P/B) ratio, which compares the market price per share to the book value per share. A P/B ratio below 1 may indicate that the market values the company less than its book value, potentially signaling undervaluation. Conversely, a ratio above 1 suggests that the market values the company higher than its book value, which could imply overvaluation. Without specific figures from the context, a precise evaluation cannot be made.</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -832,6 +992,11 @@
           <t>The retrieved context does not provide specific information regarding the company's expected price-to-earnings (P/E) ratio. However, the interim dividend of HK$0.688 per share, which is lower than the previous year's HK$0.756, may indicate potential concerns regarding profitability or earnings stability. The Ports and Related Services division's 7% growth in TEU handling suggests strong operational performance, which could positively influence valuation. Conversely, the flat EBITDA and EBIT in the Retail division may indicate challenges in maintaining profit margins or growth. Overall, without a direct P/E ratio available, the company's valuation appears mixed, reflecting both growth in certain sectors and potential concerns in others.</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific information regarding the company's price-to-earnings (P/E) ratio or its earnings, making it difficult to draw direct conclusions about the company's valuation. However, the interim dividend of HK$0.688 per share, compared to HK$0.756 per share from the previous period, may indicate a slight decrease in profitability or cash flow. If the company's earnings are declining, this could lead to a higher P/E ratio, suggesting overvaluation relative to its earnings. Conversely, if earnings remain stable or grow, a lower dividend might suggest that the company is reinvesting in growth, potentially leading to a favorable valuation. Without the actual P/E ratio or earnings data, a precise assessment cannot be made.</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -844,6 +1009,11 @@
           <t>CK Hutchison's focus on sustainable earnings and cash flow growth is indicative of its commitment to maintaining financial stability, which directly impacts its dividend yield. A consistent and growing dividend yield suggests that the company generates sufficient profits to reward shareholders, reflecting a stable financial position. The Group's disciplined management of revenue and costs further supports this stability, allowing for reliable dividend payouts. Moreover, the absence of credit rating triggers and the use of hedging strategies to manage financial risks enhance its ability to sustain dividends amidst market fluctuations. Overall, a robust dividend yield is a sign of CK Hutchison's financial health and its ability to deliver returns to stakeholders.</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>The dividend yield of CK Hutchison Group Telecom indicates its financial stability by demonstrating the company's ability to generate consistent cash flow and return capital to shareholders. With a focus on achieving sustainable earnings and cash flow growth, the Group emphasizes disciplined management in revenue, costs, and investments, which supports dividend payments. A stable or increasing dividend yield reflects the company's strong underlying financial position and commitment to shareholder returns. Furthermore, the absence of credit rating triggers for borrowings suggests a prudent approach to debt management, further reinforcing financial stability. Overall, a reliable dividend yield serves as a signal of CK Hutchison's robust operational performance and sound financial practices.</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -856,6 +1026,11 @@
           <t>When evaluating CK Hutchison's stock, investors should consider its diversified portfolio, which includes significant infrastructure investments in utilities and telecommunications, potentially providing stable revenue streams. The company holds a 66.09% interest in Hutchison Telecommunications Hong Kong Holdings and has substantial stakes in various other telecom entities, contributing to its market presence. Investors should also assess the recent reclassification of its telecommunications operations, as this may impact financial reporting and performance metrics. Additionally, it's crucial to analyze the financial health indicated by interim statements and the group's compliance with Hong Kong Accounting Standards. Lastly, the potential for growth in its telecommunications and e-commerce sectors could drive future profitability, making it essential to monitor industry trends and competitive positioning.</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Investors evaluating CK Hutchison's stock should consider the company's interim financial statements, which are prepared in accordance with Hong Kong Accounting Standard 34, ensuring relevance and reasonableness in the estimates made. They should also assess the potential impact of judgements and assumptions on future performance, as actual results may differ from estimates. The review report indicates no significant concerns, but the scope of the review is less comprehensive than a full audit, which could affect the reliability of the findings. Additionally, understanding the nature of contract assets and liabilities will provide insights into cash flow dynamics and revenue recognition. Overall, a thorough analysis of financial health, market conditions, and management's transparency is essential for informed investment decisions.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -868,6 +1043,11 @@
           <t>CK Hutchison's valuation relative to its industry peers can be assessed through its diversified investments in infrastructure and telecommunications, which include significant holdings like Northumbrian Water and Hutchison Telecommunications. While specific valuation metrics (like P/E ratio or EV/EBITDA) for CK Hutchison compared to peers are not provided, its extensive portfolio suggests a robust asset base that may enhance its market value. Additionally, the company’s adherence to HKFRS 16 for lease accounting may affect perceived financial metrics, though it maintains a preference for the Pre-HKFRS 16 basis for operational performance assessment. This could indicate a conservative valuation approach compared to peers adopting newer standards. Overall, CK Hutchison's complex structure and diverse investments position it competitively, but precise comparisons would require specific financial ratios against its peers.</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific valuation metrics or comparisons to industry peers for CK Hutchison Holdings Limited. However, it mentions a focus on prudent financial management and maintaining a strong underlying financial position, which may imply a competitive stance in the industry. To assess CK Hutchison's valuation against peers, one would typically look at key financial ratios such as Price-to-Earnings (P/E), Price-to-Book (P/B), and Enterprise Value to EBITDA (EV/EBITDA). Without specific financial data or metrics in the provided context, a direct comparison cannot be made. For a comprehensive analysis, one would need to gather the latest financial reports and valuation metrics of CK Hutchison and its industry counterparts.</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -880,6 +1060,11 @@
           <t>Geopolitical factors that could impact CK Hutchison's business operations include regulatory changes in the countries where it operates, particularly in telecommunications and infrastructure sectors. Trade tensions and tariffs can affect cost structures and market access, especially for its investments in Europe and Asia. Political instability in regions hosting its infrastructure projects, such as Northumbrian Water or UK Rails, may disrupt operations or lead to increased operational risks. Additionally, shifts in government policies regarding foreign investments could influence CK Hutchison's strategic decisions and financial performance. Lastly, changes in international relations could impact supply chains and partnerships in their telecommunications and energy sectors.</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CK Hutchison's business operations could be impacted by several geopolitical factors. Firstly, trade tensions and tariffs between major economies, such as the U.S. and China, could affect supply chains and operational costs. Secondly, regulatory changes in countries where CK Hutchison operates, particularly in response to national security concerns, may restrict market access or increase compliance costs. Additionally, political instability in regions where the company has investments could disrupt operations and impact financial performance. Lastly, shifts in foreign policy and international relations could influence investment strategies and market opportunities for CK Hutchison.</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -892,6 +1077,11 @@
           <t>Currency fluctuations can significantly impact CK Hutchison's financial performance, particularly due to its diverse international operations. As the Group operates in multiple currencies across Europe, Asia, and Australia, changes in exchange rates can affect revenue, costs, and ultimately profit margins. For example, a stronger Hong Kong dollar may reduce the local currency value of earnings from overseas subsidiaries, negatively impacting overall financial results. Additionally, currency volatility can complicate financial reporting and forecasting, leading to potential misalignments in capital and investments. Overall, effective currency risk management strategies are essential for mitigating these impacts and ensuring stable financial performance.</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Currency fluctuations can significantly impact CK Hutchison's financial performance by affecting the value of its revenues, costs, and investments across its diverse international operations. As the Group operates in approximately 50 countries, changes in exchange rates can lead to variations in profit margins when foreign earnings are converted to the reporting currency. Additionally, the Group’s treasury function actively manages foreign exchange risk, which helps mitigate potential losses from adverse currency movements. However, if not effectively managed, such fluctuations could expose the Group to increased costs or reduced revenues, potentially impacting shareholder returns. Overall, maintaining a strong financial strategy is crucial for CK Hutchison to navigate these risks and preserve its underlying financial position.</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -904,6 +1094,11 @@
           <t>CK Hutchison faces several operational risks in its diverse markets, primarily related to regulatory compliance and varying market conditions across regions. The telecommunications sector, for example, is subject to stringent regulations that can impact operational flexibility and profitability. Additionally, infrastructure investments, such as in utilities and transportation, expose the Group to risks associated with project execution and management, which can affect cash flow and returns. Economic fluctuations in the markets where CK Hutchison operates may also influence demand and revenue stability. Lastly, technological changes pose risks to maintaining competitive advantages and could necessitate significant investment to adapt and innovate.</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CK Hutchison faces several operational risks across its diverse markets. The company is exposed to fluctuations in consumer demand, as evidenced by the 19% decline in comparable store sales in Health and Beauty China, which can significantly impact revenues. Additionally, changes in regulatory environments, particularly in telecommunications and e-commerce, pose risks to compliance and operational continuity. Supply chain disruptions, especially in the health and beauty sector, can affect inventory levels and service delivery. Lastly, the need for strategic alignment across various sectors can lead to challenges in maintaining consistent performance and managing capital investments effectively.</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -916,6 +1111,11 @@
           <t>Competition significantly influences CK Hutchison's market strategy by necessitating diversification and strategic partnerships across various sectors, including infrastructure and telecommunications. The presence of multiple players in these industries prompts CK Hutchison to innovate and improve service offerings to maintain market share. Additionally, competitive pressures lead to reorganization within the company, as seen with the restructuring of its telecommunications division to enhance operational efficiency. By consolidating its European telecom businesses and adjusting internal management reporting, CK Hutchison can better respond to market demands and competitive challenges. Overall, competition drives CK Hutchison to adopt a more agile and responsive business model, essential for sustaining growth in a dynamic market environment.</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Competition significantly influences CK Hutchison's market strategy by necessitating diversification and adaptation across its various sectors, including telecommunications, retail, and energy. The company's ownership of multiple businesses, such as Hutchison Whampoa and Hutchison China MediTech, allows it to leverage synergies and compete effectively by offering a broad range of products and services. Additionally, the separation of executive roles, with Mr. Victor T K Li as Chairman and other co-managing directors, suggests a strategic approach to leadership that fosters flexibility and responsiveness to market dynamics. The adoption of HKFRS 16 indicates a focus on transparent financial reporting, which can enhance investor confidence amid competitive pressures. Overall, CK Hutchison's strategy appears to be one of resilience and proactive engagement in a competitive landscape.</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -928,6 +1128,11 @@
           <t>The retrieved context does not provide specific information regarding trade tensions or their implications on CK Hutchison's supply chain. However, in general, trade tensions can lead to increased tariffs, which may raise costs for imports and exports, affecting the company's overall profitability. Additionally, disruptions in supply chains could occur due to stricter regulations or delays at borders, potentially impacting the timely delivery of goods and services. Companies may also need to diversify their supply sources to mitigate risks associated with geopolitical uncertainties. These factors could result in a reevaluation of CK Hutchison's operational strategies and financial forecasts.</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Trade tensions can significantly impact CK Hutchison's supply chain by introducing uncertainties and potential disruptions in the flow of goods and services. Increased tariffs and trade barriers may lead to higher costs for imported materials, affecting the pricing strategies and profitability of the Group's various businesses. Additionally, reliance on international markets, as evidenced by its interests in telecommunications and e-commerce, exposes the company to risks of supply chain interruptions. The need for diversification in suppliers and markets may arise to mitigate these risks, potentially altering existing relationships and operational strategies. Overall, trade tensions could necessitate a reevaluation of CK Hutchison's supply chain management to ensure resilience and adaptability in a volatile environment.</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -940,6 +1145,11 @@
           <t>CK Hutchison emphasizes transparency and consistency in its corporate governance by adopting the HKFRS 16 accounting standard for statutory reporting while maintaining its management reporting under the previous HKAS 17 standard. This dual approach allows the company to present financial metrics that management believes better reflect the underlying operational performance. The Group regularly reviews pre-HKFRS 16 basis metrics with its senior executives, ensuring that governance practices align with operational insights. Additionally, the Group employs significant judgements and assumptions in preparing financial statements, indicating a proactive stance on adapting to economic conditions. Overall, CK Hutchison's governance framework appears to prioritize both compliance and a nuanced understanding of financial performance.</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CK Hutchison emphasizes a robust corporate governance framework to enhance shareholder value. The company adopts principles that focus on a quality board of directors, effective risk management, and stringent disclosure practices. It prioritizes transparency and accountability, ensuring effective communication with shareholders and stakeholders. Additionally, CK Hutchison is committed to continuously improving its governance standards and practices. This approach reflects a dedication to maintaining high ethical standards and fostering trust among its investors.</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -952,6 +1162,11 @@
           <t>The annual report highlights the Group's commitment to sustainability, particularly in enabling the transition to a net-zero economy. It emphasizes the importance of prudent financial management while addressing social and environmental challenges. Additionally, the Group is proposing investments exceeding £4.5 billion over the next five years to upgrade the network, improve water quality, and enhance environmental performance. The report indicates that sustainability initiatives are detailed in the standalone Sustainability Report, which provides further insights into the Group's key relationships with stakeholders. Overall, the focus is on delivering business solutions that align with long-term sustainability goals.</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific details on the sustainability initiatives highlighted in the annual report of CK Hutchison Holdings Limited. However, it mentions that information regarding the Group's sustainability initiatives and key stakeholder relationships can be found in the standalone Sustainability Report. This indicates a separate, dedicated document that likely outlines various environmental, social, and governance (ESG) efforts undertaken by the Group. For specific statistics or examples of sustainability initiatives, one would need to refer directly to that Sustainability Report.</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -964,6 +1179,11 @@
           <t>CK Hutchison ensures compliance with regulatory standards by adhering to the Hong Kong Standard on Review Engagements (HKSAE) 2410 for its interim financial information. This involves conducting reviews that include inquiries with financial and accounting personnel and applying analytical procedures, which are less extensive than a full audit. The company’s financial statements are prepared in accordance with Hong Kong Accounting Standard 34, ensuring material compliance. Furthermore, changes in internal management reporting, such as the reclassification of telecommunications segments, reflect adherence to regulatory requirements. By maintaining transparency and consistency in reporting, CK Hutchison upholds regulatory compliance effectively.</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CK Hutchison ensures compliance with regulatory standards by preparing its Interim Financial Statements in accordance with Hong Kong Accounting Standard 34, which covers interim financial reporting. The group employs judgements, assumptions, and estimates based on current and future economic conditions to create accurate financial representations. Their review process, conducted under the Hong Kong Standard on Review, is thorough but acknowledges that it is less extensive than a full audit. PricewaterhouseCoopers, as the certified public accountants, conducts the review and issues a report confirming that nothing significant has come to their attention that would indicate non-compliance. This structured approach helps mitigate risks associated with financial reporting and regulatory adherence.</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -976,6 +1196,11 @@
           <t>Stakeholder engagement is crucial to CK Hutchison's strategy as it helps align corporate objectives with the interests of various parties, including investors, customers, and regulatory bodies. By actively involving stakeholders in decision-making processes, the company can enhance transparency and build trust, which is essential for sustained investment in infrastructure and telecommunications. The consolidation of its telecommunications division and reclassification of internal reports reflect a commitment to effective management and communication with stakeholders. Furthermore, CK Hutchison's diverse investments across sectors, such as utilities and telecommunications, underscore its strategy to address the varied interests of its stakeholders. Overall, engaging stakeholders is integral to CK Hutchison’s operational success and long-term growth.</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Stakeholder engagement is crucial in CK Hutchison's strategy as it fosters loyalty and professionalism among employees, which is acknowledged by the Chairman. By maintaining open communication with stakeholders, the Group ensures alignment with its financial and operational goals. This engagement helps in managing expectations and enhancing the Group's reputation, ultimately contributing to shareholder returns. Additionally, stakeholder feedback can inform the Group's agile financial strategy and decision-making processes. Overall, effective engagement supports the Group's strong underlying financial position and long-term sustainability.</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -988,6 +1213,11 @@
           <t>The retrieved context does not directly address employee welfare and corporate social responsibility (CSR) as specific aspects of CK Hutchison's operations. However, it emphasizes the company's principal objective of enhancing long-term total returns for stakeholders, which often includes considerations for employee welfare and CSR. The Group’s focus on sustainable earnings and cash flow growth suggests an underlying commitment to responsible business practices that can benefit employees and society. Additionally, the governance structure, with independent oversight and checks and balances, may contribute to ethical decision-making and accountability, indirectly supporting CSR initiatives. For more specific information, further context regarding CK Hutchison's CSR policies or employee programs would be needed.</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>The retrieved context does not explicitly mention employee welfare and corporate social responsibility (CSR) initiatives at CK Hutchison. However, it highlights the company's emphasis on corporate governance, which typically encompasses employee welfare and CSR practices. The acknowledgment of employees' loyalty and contributions suggests a commitment to fostering a supportive workplace culture. Moreover, maintaining a strong financial position and sustainable earnings may imply that the company is positioned to invest in community and employee initiatives. Overall, while specific CSR actions are not detailed, the company's focus on governance and employee acknowledgment indicates a foundational integration of these values into its operations.</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1000,6 +1230,11 @@
           <t>The retrieved context does not specifically mention any innovations or technological advancements. It primarily discusses the review of interim financial statements, the structure of the telecommunications division, and the preparation of financial statements on a going concern basis. While it references CK Hutchison Group Telecom and its European operations, there are no details provided about technological innovations associated with these entities. If you are looking for specific advancements or innovations, additional context or details would be necessary to provide an accurate response.</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>The report highlights the "Equipment Electrification Directive," which mandates that all new purchases or replacements of terminal equipment or trucks within the Ports division must be electricity powered, reflecting a significant move towards decarbonization. This directive is part of the division's broader strategy to achieve near-term and net-zero targets, recently validated by the Science Based Targets initiative. Additionally, the report suggests a focus on improving operational efficiency and sustainability through innovative technology in the telecommunications sector, particularly with Hutchison Telecommunications Hong Kong Holdings. While specific technological advancements are not detailed, the emphasis on electrification indicates a shift towards more sustainable and environmentally friendly technologies. Overall, these initiatives represent a commitment to integrating innovative practices in both telecommunications and port operations.</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1012,6 +1247,11 @@
           <t>CK Hutchison adapts to changing consumer preferences by diversifying its investments across various sectors, such as telecommunications, infrastructure, and finance. The consolidation of its telecommunications businesses under CK Hutchison Group Telecom allows for a streamlined approach to address consumer needs in Europe and Hong Kong. Additionally, the reclassification of Hutchison Asia Telecommunications into “Finance &amp; Investments and Others” shows a flexible internal management structure that can respond to market dynamics. By maintaining significant stakes in companies like TPG Telecom and actively participating in sectors like e-commerce and utilities, CK Hutchison positions itself to meet evolving consumer demands. Overall, this multi-faceted strategy ensures resilience and adaptability in a rapidly changing marketplace.</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CK Hutchison adapts to changing consumer preferences by maintaining a prudent financial strategy and focusing on agile financial management. This approach ensures the Group can quickly respond to market dynamics while generating shareholder returns. By prioritizing liquidity and cash flow management, they can invest in areas that reflect evolving consumer demands. Additionally, the company emphasizes strong underlying financial stability, which enables it to pivot and innovate in response to shifts in consumer behavior. Overall, these strategies help CK Hutchison remain competitive and responsive in a rapidly changing market environment.</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1024,6 +1264,11 @@
           <t>Management emphasizes the importance of disciplined management of revenue growth, margin, and costs as key lessons for future growth. They focus on achieving recurring and sustainable earnings, cash flow, and dividend growth while maintaining financial strength and stability. The Group also highlights the significance of strategic merger and acquisition activities and organic growth in familiar sectors or geographies. Additionally, technology transformation is identified as a critical initiative to capture new cost and revenue opportunities. Overall, adaptability to changing economic conditions and a commitment to long-term value creation are underscored for future success.</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Management emphasizes the importance of ongoing revenue initiatives and disciplined cost management as key lessons for future growth. They plan to focus on enhancing profit margins and reducing costs to improve financial performance despite ongoing cost pressures. The management also highlights the significance of effective capital spending management to stabilize depreciation. Additionally, the centralized treasury function is crucial for managing financial risks and ensuring cost-efficient funding. Overall, these strategies reflect a proactive approach to navigating financial uncertainties and optimizing operational efficiency.</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1036,6 +1281,11 @@
           <t>CK Hutchison maintains its competitive edge through strategic growth in throughput, particularly in high-demand regions such as Asia and Australia, where it achieved a 14% year-on-year increase. The company capitalizes on rising cargo activities and local consumption, benefiting from enhanced global freight handling. Additionally, it has managed to maintain a strong financial profile despite challenges like energy cost escalations and tight monetary policies, with EBITDA and EBIT both increasing by 5% in the first half of 2024. The diversified portfolio, including robust contributions from its Ports division and telecom operations, further strengthens its market position. Lastly, ongoing recovery and adaptability to geopolitical risks help CK Hutchison navigate uncertainties while sustaining profitability.</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CK Hutchison maintains its competitive edge through strategic diversification in cargo operations, particularly capitalizing on rising activities in key locations like the UK and Barcelona, which benefits from diverted traffic. The company managed to achieve a 4% growth in the Mainland China segment, driven by increased US and EU export volumes despite challenges from subdued consumer demand in other regions. Moreover, the group reported notable growth in EBITDA and EBIT, both increasing by 16% in local currencies, reflecting strong financial performance. By effectively navigating headwinds such as energy cost escalations and tight monetary policies, CK Hutchison has sustained a strong underlying financial profile. Overall, its proactive approach in adapting to market dynamics and maintaining profitability reinforces its competitive position.</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1046,6 +1296,11 @@
       <c r="B51" t="inlineStr">
         <is>
           <t>The overall sentiment expressed in the report regarding future business prospects is cautiously optimistic. Management assesses the Group's ability to continue as a going concern, indicating confidence in cash generation and liquidity. However, there is recognition of potential variability in actual results compared to estimates due to changing economic conditions. The report highlights that the results reported should not be seen as indicative of the entire year, suggesting some uncertainty. Overall, while there are positive indicators, the management acknowledges the possibility of differing outcomes.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>The overall sentiment expressed in the report regarding future business prospects is cautiously optimistic. The management has assessed the Group's potential cash generation, liquidity, and existing funding, concluding that the going concern basis of accounting is appropriate. However, it is noted that past performance is not indicative of future results, which introduces an element of uncertainty. The report highlights the importance of financial risk management and emphasizes the need for ongoing assessments of the Group’s financial health. Overall, while there is confidence in the Group's current standing, caution is advised due to the unpredictability of future performance.</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1429,6 +1684,11 @@
           <t>ver2</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ver3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1441,6 +1701,11 @@
           <t>The primary focus of Fortune REIT is the management and operation of real estate assets, ensuring compliance with applicable regulations and corporate governance standards. The REIT emphasizes accountability, transparency, and effective risk management through its structured governance framework, which includes regular Board meetings and various committees. Additionally, Fortune REIT adheres to the requirements of the REIT Code, the SFO, and the Listing Rules, ensuring that mandatory disclosure obligations are met. The organization aims to enhance its financial performance while managing significant acquisitions and disposals effectively. Overall, Fortune REIT's operations are geared towards maximizing shareholder value within a regulated and compliant environment.</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>The primary focus of Fortune REIT is to deliver regular and stable returns to its unitholders through proactive management of its portfolio of assets. This includes the acquisition of properties that provide long-term benefits to unitholders. The REIT is governed by a compliance manual that outlines key processes, systems, and corporate governance policies to ensure accountability and transparency. Additionally, the Board conducts quarterly meetings to review financial performance and significant strategic decisions. Overall, Fortune REIT aims to operate in compliance with relevant regulations while maximizing value for its investors.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1453,6 +1718,11 @@
           <t>Fortune REIT is managed by ESR Asset Management (Fortune) Limited, which is part of the ESR Group, a leading New Economy real asset manager in Asia-Pacific. Cheung Kong Holdings, a prominent investment company, holds a significant stake in Fortune REIT, owning approximately 33.34% of its total issued units. This stake positions Cheung Kong as a major stakeholder, influencing the strategic direction and management decisions of the REIT. The investment focus of Fortune REIT is primarily on retail properties, ensuring stable distributions and long-term growth in net asset value for unitholders. Overall, the governance structure is designed to align the interests of the management with those of the investors.</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fortune REIT is managed by a board that oversees its operations and strategies, ensuring effective governance through regular meetings and risk management processes. Cheung Kong Holdings, a significant stakeholder, holds a 33.3% ownership interest in Fortune REIT, making it a major player in the decision-making process. This substantial stake allows Cheung Kong to influence key management decisions and strategic direction for the REIT. The integration of management and governance structures aims to deliver stable returns to unitholders. Overall, the board's leadership, coupled with Cheung Kong's significant stake, plays a crucial role in steering Fortune REIT's performance and growth.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1465,6 +1735,11 @@
           <t>In the first half of 2024, Fortune REIT experienced a decline in gross revenue, reporting HK$871.8 million, which is a 4.1% decrease from HK$908.7 million in the same period of 2023. This revenue drop was primarily attributed to negative rental reversions, especially from real estate agencies and supermarkets, amidst challenging market conditions. Additionally, the net property income fell by 5.8% year-on-year, down to HK$633.1 million from HK$671.9 million. The cost-to-revenue ratio also increased to 25.1%, compared to 23.8% in the previous year. Overall, the retail market's slow recovery and changing consumption patterns significantly impacted Fortune REIT's financial performance.</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fortune REIT reported a gross revenue of HK$871.8 million for the first half of 2024, marking a decline of 4.1% compared to HK$908.7 million in the same period last year. This downward trend is attributed to negative rental reversions, particularly from real estate agencies and supermarkets. Additionally, the total retail sales value in Hong Kong for the first six months of 2024 decreased by 6.6% year-on-year, remaining 22.7% below the 2018 levels. Despite a significant increase in tourist arrivals by 64%, the strong Hong Kong dollar has negatively impacted consumer spending on discretionary goods. Overall, the financial performance reflects ongoing challenges in the retail sector amid changing market conditions.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1477,6 +1752,11 @@
           <t>Several factors contributed to changes in property income for Fortune Malls. Firstly, the overall rental performance varied across business sectors, with negative rental reversion primarily from real estate agencies and supermarkets, impacting revenue. Additionally, declining demand for kindergartens due to lower birth rates and competition faced by supermarkets from online channels and nearby cities further pressured rental income. While the occupancy rate rose slightly to 94.8%, the gross revenue decreased by 4.1% year-on-year to HK$871.8 million, reflecting these challenges. Increased property operating expenses, which rose by 1.4% to HK$219.1 million, also affected the net income from properties.</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Several factors contributed to changes in property income, notably significant rent reductions experienced by real estate agencies and supermarkets, which were adjusted to align with market levels. Additionally, a decline in demand for kindergartens was linked to decreasing birth rates, impacting overall rental performance. Supermarkets faced heightened competition from nearby cities and online channels, further suppressing income. The market yield, or capitalization rate, adjustments also played a role, as variations in these rates can lead to substantial changes in property valuations. Overall, these dynamics reflect a challenging environment for property income generation in the current market.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1489,6 +1769,11 @@
           <t>Fortune REIT defines Net Property Income (NPI) as the income generated from its retail properties after deducting property-related expenses. This financial metric reflects the profitability of the properties within its portfolio, excluding non-operational costs such as financing and tax. For the six months ended June 30, 2024, Fortune REIT reported a Net Property Income of HK$ 633.1 million, which represents a decline of 5.8% compared to HK$ 671.9 million for the same period in 2023. The focus on NPI highlights the trust's commitment to delivering stable returns to its unitholders through effective asset management.</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fortune REIT defines Net Property Income (NPI) as the total rental income generated from its portfolio of properties, minus property-related expenses. This metric is crucial as it reflects the income available to Unitholders after accounting for costs associated with property management and maintenance. The calculation emphasizes the performance of the properties by isolating income from operational expenses. NPI is a key indicator for assessing the profitability and financial health of a real estate investment trust.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1501,6 +1786,11 @@
           <t>The cost-to-income ratio is influenced by several key factors, primarily the performance of investment properties and associated revenues. A decline in total retail sales value by 6.6% in the first half of 2024 compared to the previous year negatively impacts rental income, thereby increasing the ratio. Additionally, the strength of the Hong Kong dollar has affected tourists' purchasing power, further reducing potential income from retail tenants. The steady capitalization rates of 4.3% suggest that property valuations remain stable, but any increases in these rates could lead to a significant decrease in fair value, influencing operational costs. Lastly, the movements in deferred tax liabilities indicate fluctuating financial obligations that could also affect the cost-to-income ratio.</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>The cost-to-income ratio in the Hong Kong retail market is primarily influenced by declining total retail sales, which fell by 6.6% in the first half of 2024 compared to the previous year, and remained 22.7% below pre-2018 levels. Additionally, the strong Hong Kong dollar has negatively impacted tourists' purchasing power, leading to reduced consumer spending on discretionary items. The negative rental reversion in the portfolio, particularly due to rent reductions in sectors like real estate, further exacerbates the cost pressures. Despite a slight increase in occupancy rates, stable leasing demand did not offset the overall decline in rental performance. Together, these factors contribute to a challenging environment for maintaining a favorable cost-to-income ratio.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1513,6 +1803,11 @@
           <t>The retrieved context does not provide specific statistics or detailed information about operating expenses directly impacting the financial performance of Fortune REIT. However, it mentions that the Board of Directors oversees financial performance, including the effectiveness of financial reporting systems and internal controls. The Audit Committee monitors financial integrity, which indirectly suggests that managing operating expenses is crucial for maintaining overall financial health. Compliance with the REIT Code and Corporate Governance Code indicates a focus on transparency, potentially leading to better management of expenses. Without specific data, it's difficult to quantify the exact impact but effective governance typically aims to minimize operating expenses to enhance profitability.</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific statistics or detailed figures related to operating expenses and their direct impact on financial performance. However, it highlights that the Board and the Audit Committee are actively monitoring financial performance, internal controls, and risk management systems, which are crucial for understanding operating expenses. Effective management of these expenses can enhance financial performance by ensuring the integrity of financial statements and efficient resource allocation. Furthermore, a focus on compliance with corporate governance standards suggests that any inefficiencies in operating expenses would likely be addressed promptly. Overall, while specific data is lacking, the governance framework implies a proactive approach to managing expenses and their influence on performance.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1525,6 +1820,11 @@
           <t>The interim dividend is significant for investors as it provides a regular return on their investment, reflecting the company's profitability and cash flow during the reporting period. It serves as an indicator of management's confidence in ongoing financial health and operational performance. A consistent or increasing interim dividend can enhance investor sentiment and contribute to a positive perception of the company’s stability and growth prospects. Additionally, dividends can attract income-focused investors, thereby potentially increasing demand for the company's shares. Overall, the interim dividend is a crucial metric that investors closely monitor when assessing the company's financial health and investment attractiveness.</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>The interim dividend represents a portion of the profits distributed to shareholders before the end of the financial year, providing a return on their investment. For investors, it signals the company's financial health and performance, as consistent or increasing dividends often reflect strong earnings. Additionally, the interim dividend can enhance investor confidence and attract new investments, indicating that the company is managing its cash flow effectively. It also serves as a key metric for income-focused investors who rely on dividend payments for regular income. Overall, the interim dividend is a crucial indicator of the company's commitment to shareholder returns and its operational stability.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1537,6 +1837,11 @@
           <t>Fortune REIT determines its dividend distribution policy primarily by focusing on generating stable returns for its unitholders through proactive asset management and property acquisitions. The objective is to achieve long-term growth in the net asset value per unit while ensuring regular distributions. The financial highlights indicate a revenue of HK$ 871.8 million and a net property income of HK$ 633.1 million for the six months ended 30 June 2024, reflecting a decrease of 4.1% and 5.8% respectively from the previous year. The REIT operates under the Code on Real Estate Investment Trusts, which governs its distribution practices. Ultimately, the policy aims to balance current income distribution with reinvestment for future growth.</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fortune REIT's dividend distribution policy is primarily aimed at delivering regular and stable returns to its unitholders through proactive management of its asset portfolio. The trust focuses on acquiring properties that provide long-term benefits, which contributes to consistent growth in dividends. Since its establishment in 2003, Fortune REIT's portfolio has expanded over tenfold to HK$ 38.7 billion, resulting in stable returns for unitholders. The strong balance sheet allows Fortune REIT to weather market challenges and ensure ongoing distributions. Compliance with the REIT Code and relevant regulations further supports its commitment to responsible dividend distribution.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1549,6 +1854,11 @@
           <t>The retrieved context does not provide specific details on the differences between distributable income and reported profit. Generally, distributable income refers to the income available for distribution to shareholders after accounting for necessary reserves and expenses, while reported profit reflects the total earnings of a company according to accounting standards before any distributions. Distributable income may exclude certain non-cash items, such as depreciation and amortization, which are included in reported profit. Additionally, reported profit may be influenced by accounting policies and adjustments that do not affect cash flow, affecting the calculation of distributable income. For precise figures or statistics, further financial data would be needed.</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>The retrieved context does not explicitly mention distributable income or reported profit. However, it does indicate that the profit for the six months ended June 30, 2023, was HK$279.1 million, calculated before transactions with unitholders. Distributable income typically excludes certain non-cash items and may adjust for reserves, while reported profit includes all income and expenses according to accounting standards. Therefore, the key differences likely lie in the treatment of non-cash items and reserves, which affect the amount available for distribution to unitholders. For precise figures and adjustments, further detailed financial statements would be necessary.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1561,6 +1871,11 @@
           <t>Fortune REIT manages its property portfolio through proactive management strategies aimed at delivering regular and stable returns to its unitholders. The management team, under ESR Asset Management, focuses on optimizing the performance of its 17 retail properties, which include 16 in Hong Kong and 1 in Singapore. This involves regular assessments of property performance and the acquisition of additional properties that can generate long-term benefits. The REIT's approach is also influenced by ESR's commitment to sustainable and impactful management practices. Overall, the goal is to ensure the portfolio thrives for generations while maximizing income.</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fortune REIT manages its property portfolio through proactive management and strategic acquisitions aimed at delivering regular and stable returns to its Unitholders. Established in 2003, it has significantly expanded its portfolio to HK$ 38.7 billion by holding 17 retail properties, including 16 in Hong Kong and one in Singapore, covering approximately 3 million square feet of retail space. The REIT focuses on both organic growth and acquisitions, with a recent addition being the Stars of Kovan Property in September 2022. Its strong balance sheet allows it to withstand market challenges and seize future growth opportunities. Overall, Fortune REIT aims to generate long-term benefits for its Unitholders while contributing to the communities it operates in.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1573,6 +1888,11 @@
           <t>The company has implemented several strategies to enhance property value, primarily through asset enhancement initiatives totaling HK$300 million for +WOO Phase 2, which were completed in July 2024. These improvements focused on refreshing the brand image and upgrading facilities, thereby attracting new tenants from diverse sectors, including lifestyle and entertainment. The occupancy rate of +WOO reached 93.4% as of 30 June 2024, indicating successful leasing efforts, with over 22,500 sq.ft. of leases secured in the renovated area. Furthermore, the company is strategically repositioning its tenant mix, reducing reliance on sectors like real estate agencies, and exploring opportunities for vacant spaces. Overall, these efforts have solidified +WOO's status as a leading shopping destination in Tin Shui Wai, contributing to the portfolio's growth to HK$38.7 billion.</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The company has implemented asset enhancement initiatives, notably investing HK$300 million in the revitalization of +WOO Phase 2, which was completed in July 2024. This project included refreshing the brand and improving amenities, resulting in the attraction of new tenants from diverse sectors. Additionally, the portfolio has been strategically repositioned by expanding food and beverage offerings and incorporating amenities like a gym, while scaling back on less profitable sectors like real estate agencies. The Manager has emphasized the importance of aggregating properties with similar economic characteristics to streamline operations and enhance performance. Overall, these proactive enhancements aim to enrich the vibrancy of the properties and solidify their positions as leading destinations.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1585,6 +1905,11 @@
           <t>The current trend in occupancy rates across the Fortune Malls portfolio is positive, with an increase to 94.8% as of 30 June 2024, up from 94.4% at the end of December 2023. This suggests stable leasing demand, supported by an 83% tenant retention rate. However, rental performance varies significantly across sectors, with certain areas like real estate agencies and kindergartens facing challenges due to market conditions. Despite this, other sectors, such as fast food and tutorial centers, have shown resilience, contributing to overall stability. The ongoing asset enhancement initiatives also aim to further improve the portfolio's attractiveness and performance.</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>As of 30 June 2024, the occupancy rate for the portfolio increased to 94.8%, up from 94.4% at the end of December 2023. This upward trend indicates a slight improvement in leasing demand within the portfolio, particularly in Fortune Malls where tenant retention is high at 83%. Despite negative rental reversion overall, certain sectors experienced a slight increase in rent upon lease renewal. The stable leasing demand remains a positive sign amidst challenging market conditions. Overall, the trend reflects a gradual recovery in occupancy rates across the portfolio.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1597,6 +1922,11 @@
           <t>Fortune REIT holds a portfolio of 17 retail properties, which includes 16 private housing estate retail properties located in Hong Kong and 1 neighborhood mall in Singapore. The total retail space managed by Fortune REIT is approximately 3 million square feet. Additionally, the portfolio comprises 2,793 car parking spaces. This diverse mix of properties aims to provide regular and stable returns to unitholders through proactive management.</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fortune REIT holds a portfolio of 17 retail properties, primarily consisting of 16 private housing estate retail properties located in Hong Kong and one neighborhood mall in Singapore. The total retail space managed by Fortune REIT is approximately 3 million square feet. Additionally, the portfolio includes 2,793 car parking spaces. This diverse set of properties allows Fortune REIT to cater to different market segments within the retail sector.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1609,6 +1939,11 @@
           <t>The tenant structure at +WOO has evolved to meet community needs by emphasizing lifestyle and entertainment, which aligns with current consumer preferences. The addition of a gym, cinema, and playhouses caters to a diverse demographic seeking recreational and leisure options. Furthermore, the expansion of food and beverage offerings with popular dining spots enhances the community's dining experience. By scaling back on sectors like real estate agencies and exploring new uses for vacant spaces, such as a kindergarten, the center is responding to the demand for family-oriented services. Overall, these strategic changes signify a commitment to enriching the community's vibrancy and lifestyle.</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>The tenant structure has been optimized to enhance community appeal by incorporating diverse offerings such as a gym, expanded food and beverage options, and family-friendly spaces like a kindergarten. This proactive approach addresses the community's evolving preferences, particularly in light of increased competition from online channels and nearby cities. Sectors like fast food and tutorial centers have shown resilience, indicating a demand for these services. By closely monitoring market trends, the management is committed to repositioning and reconfiguring tenants to align with customer needs. Overall, this strategy aims to enrich the mall's vibrancy and ensure its sustained relevance in the community.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1621,6 +1956,11 @@
           <t>The retail sector in Hong Kong is currently facing several challenges, including the impact of economic fluctuations and changing consumer behaviors influenced by the pandemic. Increased competition from online retail has pressured traditional brick-and-mortar stores, leading to a decline in foot traffic and sales. Additionally, there are ongoing concerns regarding rising operational costs, which can affect profit margins for retail businesses. The recent asset enhancement initiatives by Fortune REIT indicate a shift towards revitalizing retail spaces to attract diverse tenants; however, the overall market remains volatile. These challenges necessitate strategic repositioning and innovation to adapt to the evolving retail landscape.</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>The retail sector in Hong Kong is currently facing significant challenges due to the slow recovery of tourist arrivals and changing consumption patterns among both local customers and tourists. These factors have contributed to a decline in foot traffic and spending in retail spaces. As a result, retail properties, including those held by Fortune REIT, are experiencing pressure on revenue generation. The gross revenue reported by Fortune REIT for the first half of 2024 was HK$871.8 million, indicating the impact of these challenges. Overall, the market dynamics suggest a need for adaptation and strategic responses to these evolving consumer behaviors.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1633,6 +1973,11 @@
           <t>The competitive landscape has negatively impacted rental income, particularly in sectors such as real estate agencies and supermarkets, which have experienced significant rent reductions due to market adjustments and competition. The overall rental reversion for the portfolio was negative during the reporting period, reflecting these challenges. Additionally, the drop in demand for kindergartens, attributed to declining birth rates, further strained rental income. While some sectors, such as fast food and services, showed mild rental increases, they were not enough to counterbalance the losses from weaker sectors. Consequently, the diverse impacts of market conditions and consumer preferences have led to an uneven rental performance across Fortune Malls.</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>The competitive landscape has negatively impacted rental income, particularly for real estate agencies and supermarkets. Significant rent reductions have occurred over the past 18 months as leases adjusted to market levels. Supermarkets are facing fierce competition from nearby cities and online channels, further straining their rental performance. Additionally, declining demand for kindergartens due to lower birth rates has added pressure on rental income from that sector. Overall, these factors have contributed to a challenging environment for maintaining rental income stability.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1645,6 +1990,11 @@
           <t>The tenant renewal rate for Fortune Malls has been strong, with an impressive retention rate of 83%, indicating stable leasing demand. The occupancy rate has also shown improvement, rising to 94.8% as of June 30, 2024, up from 94.4% at the end of 2023. However, there are mixed results in rental performance across various sectors, with some experiencing negative rental reversion due to market adjustments. Certain sectors like real estate agencies and kindergartens have faced challenges, while others, including fast food and tutorial centers, have demonstrated resilience with mild rent increases. Overall, the trends suggest a stable tenant base despite varying sector performances.</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Tenant retention rates have remained high at 83%, indicating strong stability in leasing demand for the first half of 2024. Some sectors have even experienced a slight increase in rental rates during lease renewals. However, certain trades, like real estate agencies, have faced significant rent reductions over the past 18 months, leading to adjustments in lease agreements to align with market levels. Additionally, kindergartens have seen a decline in demand due to lower birth rates, while supermarkets are contending with intense competition. Overall, the leasing environment reflects a mix of stability and challenges across different sectors.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1657,6 +2007,11 @@
           <t>Post-pandemic, consumer behavior has shifted towards a preference for personalized and engaging experiences, as evidenced by the success of Fortune Malls' promotional campaigns that cater to families and children. Increased outbound travel has also influenced spending habits, leading to a decline in foot traffic in some retail spaces. Consumers now seek value through loyalty programs and promotions, such as free parking and spending rewards, to enhance their shopping experience. There is a notable trend towards supporting local and authentic dining options, illustrated by the popularity of specialty restaurants like Fung Bento and Mizi. Overall, maintaining a customer-centric approach has become crucial for businesses to adapt to these evolving consumer preferences.</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Post-pandemic consumer behavior has shifted towards a greater emphasis on experiential and family-oriented activities. Initiatives like the Family Carnival organized by Fortune REIT indicate a trend where families are seeking engaging experiences together. Additionally, promotional campaigns that incorporate interactive elements, such as photo opportunities with characters, reflect a desire for memorable outings. There is also a notable increase in demand for promotions and loyalty incentives, as consumers look for added value in their spending. Overall, consumers appear to prioritize activities that enhance family bonding and offer unique experiences.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1669,6 +2024,11 @@
           <t>In the retail market, several sectors have demonstrated resilience despite challenging conditions. Notably, fast food, tutorial centres, services, and wet markets experienced mild increases in rents. This resilience contrasts with sectors such as real estate agencies and kindergartens, which faced significant rent reductions and declining demand, respectively. The overall occupancy rate for Fortune Malls also indicates stable leasing demand, having increased to 94.8% as of June 2024. Such performance highlights the adaptability of certain retail segments in response to changing market dynamics.</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>In the retail market, sectors that have shown resilience include those related to essential goods and services, as indicated by stable leasing demand, with 424,000 sq.ft. leased in the first half of 2024. Tenant retention stood at a high level of 83%, suggesting that essential retail sectors are maintaining their presence effectively. Additionally, despite overall challenges, the performance on weekdays remained relatively stable, reflecting resilience in these sectors. Although footfall and carpark income experienced slight declines, the consistent demand for essential goods indicates a robust customer base, particularly among local residents. Overall, essential retail seems to be holding up better than discretionary sectors, which are more affected by changing consumer habits and tourist spending.</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1681,6 +2041,11 @@
           <t>Costs associated with property management typically include property and lease management fees, marketing service fees, and operational expenses related to property maintenance. For instance, during the six months ended 30 June 2024, the expenses included a property management and operations fee of HK$613,000 and a property and lease management fee of HK$320,000. Additionally, car park lease agency fees accounted for HK$5,148,000. These costs are essential for maintaining the functionality and appeal of the property, ensuring high occupancy rates and tenant satisfaction. Overall, effective management helps in optimizing rental income and maintaining property value.</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Costs associated with property management typically include property and lease management fees, marketing service fees, and operational expenses related to managing the properties. For instance, in the context provided, APM Property Management Pte. Ltd. charged HK$320,000 for property and lease management, while Citybase Property Management Limited incurred HK$613,000 for property management and operations. Additionally, car park management fees are also part of the expenses, as indicated by payments to E-Park Parking Management Limited. Other costs may include maintenance, utilities, and staff salaries, which are essential for the ongoing operation of the properties. Overall, these costs contribute to the effective management and enhancement of the property portfolio.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1693,6 +2058,11 @@
           <t>The retrieved context does not explicitly mention how the company addresses issues related to service personnel expenses. However, it indicates that the company has established various committees, such as the Audit Committee and Disclosures Committee, to oversee financial reporting and compliance matters, which may indirectly influence personnel expense management. The effectiveness of financial reporting systems and internal controls also suggests a structured approach to managing all expenses, including those related to personnel. Furthermore, adherence to corporate governance policies implies that there are measures in place to monitor and address any concerns regarding service personnel expenses. For specific statistics or detailed policies, further information from the company's financial reports would be necessary.</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific information regarding how the company addresses issues related to service personnel expenses. However, it does outline the governance structure, indicating that the Board meets quarterly to review key activities, including financial performance, which may encompass personnel-related expenses. The presence of a Compliance Manual suggests that there are established processes and measures for managing operational expenses. Furthermore, the company recognizes revenue based on services provided, which may indirectly relate to personnel costs. For detailed insights, one would need to refer to the full financial reports or governance documents mentioned.</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1705,6 +2075,11 @@
           <t>Lease agreements significantly impact operational performance by influencing cash flow, cost management, and overall profitability. The detailed accounting of expenses related to property management arrangements, as seen in the context, indicates that connected party transactions can lead to substantial costs, such as the HK$5,148,000 in car park lease agency fees. Additionally, effective lease management can enhance occupancy rates and tenant retention, which are critical to revenue stability. The integrity and transparency in reporting these agreements, as mandated by internal controls and audit functions, ensure that potential financial improprieties are minimized, thereby safeguarding operational efficiency. Overall, robust lease agreements and their management contribute to a stronger financial standing and better risk management for the organization.</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Lease agreements significantly impact the operational performance of real estate investment trusts (REITs) like Fortune REIT. They determine rental income stability and predictability, which are crucial for financial forecasting. Effective lease management can lead to higher occupancy rates and reduced turnover costs, enhancing overall profitability. Additionally, favorable lease terms can provide a competitive edge in managing operational expenses and capitalizing on market opportunities. Overall, strategic lease agreements contribute to robust financial performance and long-term sustainability of the REIT's portfolio.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1717,6 +2092,11 @@
           <t>Fortune REIT manages its cash and non-cash expenses through a structured approach to revenue recognition and expense management. Revenue from property rentals and services is recognized over time, which aligns cash inflows with ongoing operational expenses. The company also monitors trade receivables, noting a trade receivable balance of HK$37,350,000 as of June 30, 2024, which reflects its ability to collect cash from tenants. Additionally, the increase in the allowance for credit losses to HK$4,844,000 suggests a cautious approach to potential non-cash expenses related to credit risks. Overall, the REIT emphasizes cash generation from its properties, while accounting for potential non-cash impacts through careful receivable management.</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>The company manages its cash flow by balancing fixed rental income from leases, which typically span two to four years, against variable expenses such as building management costs and leasing commissions. For the first half of 2024, net property income decreased by 5.8% due to higher expenses, despite a slight increase in rental income, which rose by 1.4% year-on-year to HK$219.1 million. The absence of a credit period for rental billing ensures timely cash collection, while contingent rentals are dependent on sales performance, adding variability. Additionally, the company has recognized an increase in expected credit losses, which reflects its cautious approach to managing non-cash expenses. Overall, effective monitoring of rental income and cost management strategies are key to maintaining this balance.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1729,6 +2109,11 @@
           <t>To maintain property standards, the Group engages an independent qualified external valuer, such as Colliers International, to perform regular valuations, ensuring transparency and accuracy. The valuation process primarily utilizes the income capitalization approach, focusing on existing net rental incomes. Additionally, the Group emphasizes maintaining adequate accounting records and reviewing the effectiveness of financial reporting systems and internal controls. The Audit Committee monitors compliance and investigates any financial improprieties, while the Disclosures Committee oversees public announcements to ensure integrity. These measures collectively enhance the property’s appeal and ensure high standards are consistently upheld.</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>To maintain property standards, Fortune REIT implements a Compliance Manual that outlines key processes, systems, and corporate governance policies relevant to property management and operations. This framework ensures adherence to the REIT Code and regulatory requirements. Additionally, the properties are assessed for performance, with a focus on similar economic characteristics among retail tenants, which helps in standardizing maintenance and service quality. Regular external valuations by qualified professionals also contribute to maintaining property standards by ensuring that the properties are valued accurately and managed effectively. These measures collectively help in enriching the vibrancy and competitiveness of the portfolio.</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1741,6 +2126,11 @@
           <t>Moving forward, rental income for Fortune Malls is likely to face challenges due to negative rental reversions observed during the reporting period, particularly from sectors like real estate agencies and supermarkets. The overall occupancy rate remains relatively stable at 94.8%, indicating consistent leasing demand, but the varied performance across different business sectors suggests potential volatility. Sectors such as fast food, tutorial centers, and services have shown resilience, which could provide some support to rental income. However, the decline in demand for kindergartens and ongoing competition for supermarkets may continue to exert downward pressure on overall rental performance. With gross revenue decreasing by 4.1% in the first half of 2024, cautious optimism is warranted as the market adapts to changing consumer preferences and economic conditions.</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>The projected trends for rental income indicate a mixed outlook. While there was only a slight decline in footfall and hourly car park income of 1.4% and 2.2% respectively in the first half of 2024 compared to the previous period, challenges persist. Rent reductions for certain sectors, particularly real estate agencies and supermarkets, have negatively impacted overall performance, as these leases are being adjusted to market levels. Additionally, declining demand for kindergartens due to lower birth rates and competition from online channels for supermarkets may further strain rental income. Overall, the rental income landscape is expected to remain pressured, necessitating ongoing strategic adjustments by the management.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1753,6 +2143,11 @@
           <t>Fortune REIT responds to changing market conditions through regular quarterly board meetings where they review strategies, objectives, and financial performance. They are proactive in discussing significant acquisitions, disposals, and annual budgets, allowing them to adapt quickly to market shifts. The Board also evaluates risks to the REIT's assets and takes action based on auditor comments, ensuring they remain informed and responsive. Additionally, ad-hoc meetings are convened as necessary to address urgent issues, enhancing their agility in decision-making. Overall, the structured governance framework supports Fortune REIT's adaptability in a dynamic market landscape.</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fortune REIT aims to respond to changing market conditions by employing proactive management strategies to optimize its portfolio and pursue yield-accretive acquisitions. The organization’s Board meets quarterly to review financial performance, strategic objectives, and risk management, ensuring adaptability in its operations. In light of challenges such as slow tourist recovery and shifting consumer patterns, they focus on acquiring properties that promise long-term benefits for unitholders. The management emphasizes maintaining strong internal controls and risk management processes to navigate current market headwinds effectively. These strategies are designed to deliver stable returns to unitholders while positioning Fortune REIT for future growth opportunities.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1765,6 +2160,11 @@
           <t>The retrieved context does not explicitly mention any upcoming asset enhancement initiatives planned by Fortune Real Estate Investment Trust or ESR. However, it highlights the organization's focus on providing modern solutions for logistics, data centers, and infrastructure, which could imply ongoing enhancements in these areas. Additionally, the customer-centric approach and trade mix enhancement at Fortune Malls suggest potential initiatives aimed at improving customer experience and loyalty. For specific details on planned enhancements, further information would be needed from additional reports or official announcements.</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific details about upcoming asset enhancement initiatives planned by Fortune Real Estate Investment Trust. However, it does mention a focus on customer-centric approaches, including campaigns like the Family Carnival to attract families, which may indirectly suggest ongoing enhancements to improve customer experience. Additionally, the context highlights the importance of monitoring financial performance and corporate governance, indicating a commitment to continuous improvement. For detailed asset enhancement initiatives, further information from official reports or announcements would be necessary.</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1777,6 +2177,11 @@
           <t>The company is preparing for potential economic fluctuations by maintaining a strong balance sheet, which provides resilience against market challenges. They are focusing on strategic repositioning and asset enhancement initiatives, such as the HK$300 million investment in +WOO Phase 2, to attract new tenants and diversify their tenant portfolio. The retention rate of 83% and an occupancy rate increase to 94.8% reflect stable leasing demand, which helps mitigate risks. Additionally, they are adapting to changing market conditions by monitoring rental performance across different sectors and adjusting leases accordingly. Overall, these proactive measures aim to ensure stability and capitalize on future growth opportunities.</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>The company is preparing for potential economic fluctuations by focusing on strategic repositioning and asset enhancement initiatives to sustain its competitive edge. They have maintained a high tenant retention rate of 83%, indicating stability in leasing demand despite market challenges. During the first half of 2024, they signed leases for 424,000 sq.ft., which is 14% of their total portfolio area, showcasing active leasing management. Additionally, the company has sufficient working capital to meet its needs for the next year, ensuring its operations can continue smoothly. Overall, these measures reflect a proactive approach to navigate current economic uncertainties and seize future growth opportunities.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1789,6 +2194,11 @@
           <t>Interest rate changes can significantly impact the financing costs of the Group, particularly due to its reliance on unsecured term and revolving loans totaling approximately HK$9.7 billion as of June 30, 2024. An increase in interest rates may lead to higher borrowing costs, especially for the unsecured revolving loans, which are more sensitive to rate fluctuations. The Group has reported unamortised front-end fees of HK$47.6 million, indicating an additional cost burden that could be exacerbated by rising interest rates. Furthermore, the fair value of derivative financial instruments, which is influenced by market interest rates, reflects potential losses if rates increase, impacting overall financial performance. Overall, any substantial rise in interest rates could result in increased financial pressure due to higher interest expenses and potential losses from derivatives.</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Interest rate changes can significantly impact financing costs for the Group by affecting the cost of borrowing. As the Group's banking facilities are influenced by market interest rates, an increase in these rates could lead to higher interest expenses on outstanding debts. Conversely, if interest rates decline, the Group might benefit from reduced financing costs. The reference to "interest rates implied from observable market inputs" suggests that the Group closely monitors market trends to manage these costs effectively. Overall, maintaining adequate working capital and strategic asset management can help mitigate risks associated with fluctuating interest rates.</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1801,6 +2211,11 @@
           <t>Investors evaluating Fortune REIT should consider the composition and effectiveness of its Board, which consists of nine members, including four Independent Non-Executive Directors, ensuring a degree of independence and oversight. The segregation of duties between the Chairman and CEO enhances corporate governance. Regular quarterly meetings of the Board and various committees facilitate thorough review of financial performance, risk management, and strategic decisions. Additionally, the company’s adherence to International Accounting Standards (IAS 34) in its financial reporting is noteworthy, as it indicates a commitment to transparency and accuracy. Lastly, the company's established internal controls and risk management processes are critical for safeguarding assets and ensuring compliance.</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Investors evaluating Fortune REIT should consider the compliance with relevant regulations, as the Board confirms adherence to the REIT Code, SFO, and Listing Rules. The integrity of financial reporting is crucial, highlighted by the review from Deloitte Touche Tohmatsu, indicating that the financial statements are materially in accordance with IAS 34, albeit without an audit opinion. The effectiveness of internal controls and business risk management processes is another key factor, as outlined in their Compliance Manual. Additionally, the corporate governance culture, promoted by the Directors, may impact long-term performance and investor trust. Lastly, the overall economic environment and market trends in real estate investment should also be taken into account.</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1813,6 +2228,11 @@
           <t>The retrieved context does not provide specific information regarding the company's dividend yield or how it compares to industry standards. Without that data, it's impossible to make a direct comparison. Generally, to assess dividend yield, one would look at the company's annual dividend payout divided by its share price and compare it to the average yield of similar companies in the industry. If you have access to the company's latest financial statements or industry reports, that information could help in making a proper comparison.</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific figures for Fortune REIT's dividend yield or the industry standards for comparison. However, it highlights that the company aims to deliver regular and stable returns to its unitholders through proactive management of its asset portfolio. Fortune REIT has experienced significant portfolio growth, which could positively influence its dividend potential. To assess the dividend yield against industry standards, one would typically compare it to average yields of similar real estate investment trusts (REITs) in the market. For accurate analysis, one would need the latest dividend yield data for Fortune REIT and comparable industry figures.</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1825,6 +2245,11 @@
           <t>Investing in Fortune REIT carries several risks, primarily related to market volatility and economic conditions in Hong Kong and Singapore, where its properties are located. The performance of retail properties can be significantly impacted by changes in consumer behavior, competition from e-commerce, and local economic downturns. Additionally, regulatory risks may arise from changes in real estate laws or taxation policies that could affect property values and rental income. Operational risks include potential issues with property management and maintenance, which could lead to increased costs or reduced occupancy. Lastly, there is inherent liquidity risk associated with REIT investments, as market conditions can affect the ability to sell shares promptly at desired prices.</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Investing in Fortune REIT involves several risks, primarily market risk, which includes fluctuations in property values and rental income due to economic conditions. Additionally, there are regulatory risks associated with compliance to the REIT Code and other applicable laws, which could impact operations if not adhered to. Operational risks may arise from internal controls and business risk management processes, particularly if there are failures in governance or oversight by the Board. Liquidity risk is another consideration, as the ability to buy or sell shares may be affected by market conditions. Lastly, specific sector risks related to the real estate market, such as changes in demand for commercial properties, may impact the performance of Fortune REIT.</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1837,6 +2262,11 @@
           <t>The company communicates its financial health to stakeholders through regular financial reports, including interim and annual reports, which outline key performance metrics and financial statements. For example, the Interim Report 2024 provides a condensed consolidated statement of profit or loss, ensuring transparency in financial performance. Additionally, the company emphasizes its strong balance sheet and consistent growth, having increased its portfolio value to HK$38.7 billion since its establishment. The communications also highlight successful asset enhancement initiatives, such as the HK$300 million investment in +WOO Phase 2, which enhances tenant attraction and revenue stability. Overall, these practices foster stakeholder confidence in the company's financial stability and growth potential.</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>The company communicates its financial health to stakeholders through detailed financial reports, such as the condensed consolidated financial statements, which adhere to IAS 34 standards. In its Interim Report for 2024, Fortune REIT reported a gross revenue of HK$871.8 million, highlighting its growth despite challenges in the retail market. The report outlines the company's robust portfolio, now valued at HK$38.7 billion, showcasing more than tenfold growth since its inception in 2003. Additionally, the management discussion emphasizes strategic acquisitions and a strong balance sheet, reassuring stakeholders of the company's resilience and future growth potential. Overall, the consistent delivery of stable returns to unitholders further reinforces investor confidence in its financial health.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1849,6 +2279,11 @@
           <t>An increasing number of issued units can dilute the per-unit dividends paid to unitholders, as the total dividend pool is divided among a larger number of units. For example, if Fortune REIT issued 6,556,997 new units, and the total issued units rose to 2,021,226,559, the earnings per unit (EPU) may decrease unless the REIT generates sufficient additional earnings to offset the dilution. Additionally, if the REIT does not proportionally increase its distributable income, existing unitholders may receive lower dividends per unit. On the positive side, more issued units can also indicate potential growth opportunities, attracting more investment and possibly increasing overall returns in the long run. Therefore, the impact on dividends largely depends on the REIT's ability to generate additional income relative to the increase in units.</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>An increasing number of issued units typically dilutes the earnings per unit (EPU) for existing unitholders, which can lead to lower dividends if total earnings do not increase proportionately. As the total number of units rises, the amount of distributable income needs to be spread across more units, potentially reducing individual unitholder payouts. However, if the additional units are issued to raise capital for investments that generate higher returns, overall income may increase, potentially offsetting dilution effects. Additionally, the market perception of the REIT's growth and investment strategy can influence unit prices and demand, affecting dividend sustainability. Overall, the direct impact on dividends will depend on how the additional capital is utilized and the corresponding increase in net income.</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1861,6 +2296,11 @@
           <t>Fortune REIT positions itself within the community by emphasizing a strong commitment to corporate governance and social responsibility. The Board of Directors integrates environmental, social, and governance (ESG) factors into its operational strategy, reflecting a dedication to sustainability. Additionally, committees such as the Sustainability Committee are established to focus on enhancing community engagement and promoting responsible practices. The REIT actively adheres to compliance codes and regulations, demonstrating accountability and transparency to stakeholders. This holistic approach fosters trust and strengthens its reputation within the community.</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Fortune REIT positions itself within the community by emphasizing a strong culture of integrity, ethical conduct, and responsibility, as instilled by its Board and management. The establishment of working committees, such as the Sustainability Committee and Risk Management Committee, highlights its commitment to sustainability and effective risk management. The company actively engages with its stakeholders, ensuring compliance with necessary regulations and transparency through the Disclosures Committee. Regular Board meetings facilitate discussions on objectives, strategies, and community impact, reinforcing its accountability and responsiveness. Overall, Fortune REIT aims to foster trust and collaboration within the community while adhering to high governance standards.</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1873,6 +2313,11 @@
           <t>Community-related tenants play a crucial role in enhancing the tenant mix and overall appeal of the retail space. By focusing on lifestyle and entertainment, such as gyms, cinemas, and dining options, these tenants attract diverse customer segments, contributing to a vibrant shopping atmosphere. This strategy is reflected in the overall occupancy rate, which reached 93.4% as of June 30, 2024, with 22,500 sq.ft. of leases secured in renovated areas. Maintaining a balanced mix, while scaling back on less performing sectors like real estate agencies, helps to stabilize rental income and tenant retention, which stood at 83%. Overall, community-related tenants are key to driving foot traffic and sustaining the shopping destination's relevance in a competitive market.</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Community-related tenants play a vital role in maintaining customer engagement and enhancing the overall vibrancy of retail spaces, such as Fortune Malls. Their presence contributes to a diverse mix of offerings, attracting foot traffic and encouraging longer visits, which is essential for the mall's performance. The strategy involves expanding food and beverage options alongside community-oriented services, such as gyms and playhouses, to cater to evolving consumer preferences. Additionally, engaging with these tenants helps mitigate the impact of declining demand in sectors like real estate agencies and kindergartens. Overall, fostering relationships with community-related tenants supports resilience and appeal in a competitive market.</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1885,6 +2330,11 @@
           <t>The retrieved context does not explicitly mention how the company addresses the need for property renovations. However, it does imply a focus on maintaining leasing demand and tenant retention, as evidenced by the 83% tenant retention rate and the increase in occupancy to 94.8%. The company engages independent qualified external valuers, such as Colliers International, to assess the fair value of its investment properties, indicating a proactive approach to property management. Additionally, the varied rental performance across sectors suggests that the company may consider renovations or upgrades in response to market conditions and tenant needs. Overall, while specific renovation strategies are not detailed, the company's governance and valuation practices suggest a commitment to property upkeep and responsiveness to market dynamics.</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>The company addresses the need for property renovations by regularly assessing market rentals and the economic environment of its properties. This assessment includes evaluating rental contracts and the demand for space, particularly in sectors like real estate agencies and kindergartens that have seen fluctuations. By understanding the market dynamics, including competition from online channels, the company can prioritize renovations to maintain competitiveness. Additionally, the Board conducts regular reviews and meetings to discuss significant transactions, which may include renovation plans. Overall, the approach ensures that properties are aligned with current market conditions and tenant needs.</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1897,6 +2347,11 @@
           <t>The retrieved context does not provide specific information regarding the timeline for upcoming projects and initiatives related to Fortune Real Estate Investment Trust. It focuses primarily on the financial review process, corporate governance, and the roles of the board of directors. For details on future projects or initiatives, it would be necessary to consult additional sources or reports that outline strategic plans or timelines. As of the information available, no specific dates or timelines are mentioned.</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific details regarding the timeline for upcoming projects and initiatives for Fortune Real Estate Investment Trust. It focuses primarily on reviews of financial statements, internal controls, and corporate governance. For project timelines, it would be necessary to refer to other documents or reports released by the company that outline future plans and initiatives. Please check the latest management discussion or strategic planning documents for this information.</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1909,6 +2364,11 @@
           <t>The company measures the success of its strategic initiatives through its corporate governance framework and the Board of Directors' oversight on financial performance and risk management. Key performance indicators are likely established to monitor goal achievement, as all Board members participate in governance and operational matters. The financial health, as indicated by sufficient working capital for immediate needs, reflects effective management of resources. Additionally, adherence to International Financial Reporting Standards (IFRSs) provides a structured method for evaluating financial outcomes. Overall, the integration of ESG considerations also suggests a broader approach to assessing strategic success beyond just financial metrics.</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>The company measures the success of its strategic initiatives through key performance indicators related to leasing demand and tenant retention. For the first half of 2024, it reported stable leasing demand with 424,000 sq. ft. of leases signed, accounting for 14% of its total portfolio area. Additionally, the high tenant retention rate of 83% indicates effective management of tenant relationships and asset performance. The company also focuses on rental uplifts upon lease renewals as a sign of success in its leasing strategies. Overall, these metrics reflect the effectiveness of its strategic repositioning and asset enhancement initiatives.</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1921,6 +2381,11 @@
           <t>Fortune REIT engages with its investors through a structured approach that includes regular board meetings held quarterly to review key activities and performance. The Board, consisting of nine members with a strong emphasis on independent oversight, ensures transparency and accountability in management. Furthermore, Fortune REIT is managed by ESR Asset Management, which provides a robust framework of internal controls and risk management to enhance investor confidence. The trust's commitment to ethical and responsible operations is communicated effectively to stakeholders. Overall, these practices foster a culture of integrity and sustainable growth, aligning with investor interests.</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Fortune REIT engages with its investors primarily by delivering regular and stable returns through proactive management of its portfolio. The management emphasizes transparency and integrity, ensuring that the values of acting lawfully and responsibly are upheld. Additionally, the Board fosters a strong internal culture that prioritizes communication and supervision. They also highlight their growth achievements, such as the portfolio's increase to HK$38.7 billion since 2003, which reassures investors about the REIT's stability and future opportunities. Overall, Fortune REIT's strategic focus on enhancing value through acquisitions and risk management plays a crucial role in maintaining investor trust and engagement.</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1933,6 +2398,11 @@
           <t>The financial performance information provided to shareholders includes the condensed consolidated statement of profit or loss and other comprehensive income, which details the revenues, expenses, and net income for the six-month period. Additionally, the statement of changes in net assets attributable to unitholders reflects changes in equity, while the statement of cash flows outlines cash inflows and outflows during the period. The report complies with International Accounting Standard 34 and the relevant regulations from the Stock Exchange of Hong Kong, ensuring transparency and adherence to established standards. Furthermore, the manager assesses the group's financial position, confirming sufficient working capital for the next year based on the fair value of investment properties and available banking facilities. Overall, these reports provide a comprehensive overview of the financial health and operational efficiency of Fortune REIT.</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Shareholders receive regular updates on the financial performance of Fortune REIT through quarterly Board meetings, during which key activities, financial results, and significant acquisitions or disposals are discussed. The preparation of interim financial statements is done in compliance with International Accounting Standard 34, ensuring transparency and adherence to established accounting practices. Additionally, the Board reviews the annual budget and assesses risks associated with the REIT’s operations. This structured oversight aims to deliver stable returns to unitholders through proactive asset management. Overall, the financial highlights and performance metrics are made available to shareholders, reflecting the REIT’s commitment to accountability and growth.</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1945,6 +2415,11 @@
           <t>The retrieved context does not explicitly detail how the company handles feedback from tenants. However, it implies a responsiveness to market conditions and tenant needs, as evidenced by the retention rate of 83% and the proactive adjustments in tenant mix and offerings. The company has made strategic changes to attract new tenants, including expanding food and beverage options and enhancing facilities. Additionally, the focus on lifestyle and entertainment indicates an adaptation to consumer preferences. Overall, while specific feedback mechanisms are not mentioned, the company's actions reflect a commitment to addressing tenant and market dynamics.</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide explicit information on how the company handles feedback from tenants. However, it does mention that the company negotiates leases and charges fees for services, implying an ongoing communication process with tenants. Additionally, the mention of a customer-centric approach suggests that tenant feedback may be considered in their operational strategies. The overall stability in performance, despite challenges, indicates that the company likely values and responds to tenant needs to maintain a loyal customer base. For detailed procedures or formal feedback mechanisms, further information would be required.</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1957,6 +2432,11 @@
           <t>Transparency in financial reporting for Fortune REIT is crucial for maintaining investor confidence and compliance with regulatory requirements. It ensures that all financial data is presented accurately, allowing stakeholders to make informed decisions. Adherence to the Corporate Governance Code and mandatory disclosure requirements fosters accountability and trust in the management's operations. Furthermore, transparent reporting facilitates effective risk management and enhances the overall corporate governance framework of the REIT. Ultimately, it contributes to the long-term sustainability and performance of Fortune REIT in the competitive market.</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Transparency in financial reporting for Fortune REIT is crucial as it fosters trust among investors and stakeholders by providing a clear and accurate depiction of the company's financial health and compliance with regulations. This openness ensures that the Board can effectively oversee the management's activities and make informed decisions regarding acquisitions, budgets, and financial performance. By adhering to established accounting standards and regulatory requirements, Fortune REIT minimizes risks and promotes accountability within its operations. Furthermore, transparent reporting supports effective corporate governance and risk management, which are essential for maintaining investor confidence and securing additional funding. Overall, transparency plays a vital role in enhancing the reputation and operational integrity of Fortune REIT.</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1969,6 +2449,11 @@
           <t>The company manages relationships with service providers through a customer-centric approach and trade mix enhancement, fostering loyalty among its tenant base. By launching attractive promotional campaigns and introducing popular culinary brands, they drive traffic and spending, benefiting both tenants and service providers. Additionally, the revitalization of spaces like +WOO, which includes enhanced facilities and a diverse tenant mix, helps create a synergistic environment for service providers. Maintaining open communication and collaboration with tenants is likely a part of their strategy to ensure mutual growth and satisfaction. Overall, these strategies contribute to a stable and resilient market presence.</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>The retrieved context does not explicitly detail how the company manages relationships with service providers. However, it implies a focus on collaboration and enhancement of tenant mix, suggesting a proactive approach to engaging with service providers in the retail space. The introduction of popular culinary brands and expansion of food and beverage offerings indicate that the company values strong partnerships to drive traffic and spending. Additionally, the asset enhancement initiatives, like those for +WOO, suggest ongoing investment in service quality, which could positively impact relationships with providers. Overall, the company appears to prioritize effective partnerships to create appealing environments for tenants and customers alike.</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1981,6 +2466,11 @@
           <t>The financial analysis of Fortune Real Estate Investment Trust for the six months ended 30 June 2024 indicates a slight decline in revenue from HK$899.0 million in 2023 to HK$861.4 million in 2024, primarily from Hong Kong properties. In contrast, Singapore properties showed a slight increase in revenue from HK$9.7 million to HK$10.4 million. The total investment properties value decreased marginally from HK$38,439.0 million to HK$38,167.0 million. The Group maintains a single reportable segment for its retail shopping malls, reflecting similar economic characteristics across properties. Overall, the trust continues to operate on a going concern basis, indicating stability despite the observed revenue fluctuations.</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>The financial analysis indicates that the Group's properties, primarily retail shopping malls, share similar economic characteristics, allowing for aggregation into a single reportable segment. For the six months ending June 30, 2023, the profit before transactions with unitholders was HK$279.1 million, resulting in a basic earnings per unit of approximately HK$0.14, calculated using 1,997,979,803 units outstanding. There were no potential units in issue, meaning diluted earnings per unit is not applicable. The accounting policies remain consistent with previous periods, adhering to International Financial Reporting Standards (IFRS). Overall, the Group appears stable, with consistent income generation from its retail properties.</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1993,6 +2483,11 @@
           <t>Fortune REIT's performance shows a decline in key financial metrics for the six months ended June 30, 2024, with revenue dropping by 4.1% to HK$871.8 million and net property income decreasing by 5.8% to HK$633.1 million compared to the same period in 2023. While specific competitor performance data is not provided in the context, the decline suggests that Fortune REIT may be facing challenges in a competitive market. Competitors might be performing better if they are not experiencing similar declines in revenue or net income. Additionally, the performance of ESR Group, as a managing entity, may also impact comparisons, given its focus on diverse real asset investments. Overall, without direct competitor statistics, Fortune REIT's performance appears to be under pressure relative to its historical results.</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Fortune REIT has demonstrated significant growth since its establishment in 2003, with its portfolio expanding over tenfold to HK$ 38.7 billion. This growth has been driven by both organic development and strategic acquisitions, including recent properties like the Stars of Kovan in Singapore. While specific competitor comparisons are not detailed in the provided context, Fortune REIT's strong balance sheet positions it well against market challenges and opportunities, suggesting it may be more resilient than some competitors. The focus on delivering regular and stable returns to Unitholders also indicates a commitment to performance stability, which is crucial in the competitive REIT sector. Overall, Fortune REIT's proactive management and strategic growth initiatives appear to give it a competitive edge in the market.</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2005,6 +2500,11 @@
           <t>Key considerations for future investment in Fortune REIT include its adherence to a robust regulatory framework and corporate governance standards, ensuring accountability and transparency. Investors should note the REIT's compliance with the REIT Code, Listing Rules, and Corporate Governance Code, which are critical for maintaining investor confidence. The primary objective of Fortune REIT is to generate stable distributions and achieve long-term growth in net asset value, which is appealing for income-focused investors. Additionally, the performance of its retail shopping mall portfolio can significantly impact returns, so market trends in the retail sector should be monitored. Finally, potential investors should review the Compliance Manual and Corporate Governance Report for insights into management practices and regulatory compliance.</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Key considerations for future investment in Fortune REIT include its adherence to regulatory frameworks and corporate governance standards, as outlined in its Compliance Manual and Corporate Governance Report. The REIT's compliance with the REIT Code, Securities and Futures Ordinance (SFO), and Listing Rules indicates a strong commitment to transparency and accountability. Additionally, the Manager's assessment of sufficient working capital and available undrawn banking facilities suggests financial stability and capacity for growth. Investors should also consider the performance of the underlying real estate assets and market conditions in Hong Kong. Overall, these factors contribute to the investment attractiveness of Fortune REIT.</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2017,6 +2517,11 @@
           <t>The company plans to sustain long-term growth by proactively enhancing the vibrancy of +WOO, which has solidified its position as the leading shopping destination in Tin Shui Wai. They are focusing on leasing out the remaining space in the renovated area, aiming to increase occupancy rates, which stood at 93.4% as of June 30, 2024. Additionally, the tenant mix has been diversified to include lifestyle and entertainment options, with a heightened focus on food and beverage offerings. Government initiatives, such as the expansion of the Individual Visit Scheme and talent admission schemes, are expected to boost retail demand, further attracting new tenants. Overall, by adapting to market dynamics and maintaining stable leasing demand—with an occupancy rate of 94.8%—the company is positioning itself for sustained growth.</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>The company aims to sustain long-term growth by enhancing the vibrancy of +WOO, positioning it as the leading shopping destination in Tin Shui Wai. It plans to increase occupancy rates by leasing out the remaining renovated spaces, with expectations of further increases in the latter half of 2024. To address challenges in the Hong Kong retail market, the company is closely monitoring competition and adapting strategies as necessary. Additionally, the Audit and Disclosures Committees are actively involved in overseeing financial transactions and ensuring transparency with stakeholders. Overall, these proactive measures are designed to boost resilience against market fluctuations and consumer behavior changes.</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2027,6 +2532,11 @@
       <c r="B51" t="inlineStr">
         <is>
           <t>The current financial period highlights the importance of maintaining a robust working capital to support ongoing operations, ensuring the company remains a going concern. The adherence to International Financial Reporting Standards (IFRS) and the consistent application of accounting policies strengthens the reliability of financial statements. Additionally, the review process, while less extensive than an audit, emphasizes the need for thorough internal controls and oversight in financial reporting. Future reports should focus on transparency in financial disclosures and the implications of any amendments to accounting standards. Finally, regularly updating stakeholders on financial health and operational strategies may enhance trust and confidence.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>From the current financial period, it is evident that maintaining a consistent accounting policy is crucial for transparency and comparability in financial reporting. The emphasis on preparing statements on a historical cost basis, alongside fair value measurements for certain assets, underscores the importance of clarity in asset valuation methods. Moreover, the confirmation of sufficient working capital for the upcoming year highlights the need for ongoing liquidity assessments to ensure operational viability. The adherence to International Financial Reporting Standards (IFRS) and the review process under International Standard on Review Engagements reinforces the value of compliance and thoroughness in financial reporting. Finally, the issuance of new units suggests that monitoring capital structure and shareholder interest is essential for strategic growth and funding.</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2410,6 +2920,11 @@
           <t>ver2</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ver3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2422,6 +2937,11 @@
           <t>In the first half of 2024, the company's revenue trends were influenced by the overall stable growth of China's economy, which saw a 5.0% year-on-year increase in GDP. The recovery in demand and the growth in energy consumption positively contributed to revenue generation, particularly from manufacturing and consulting services related to renewable energy. Although specific revenue figures were not disclosed in the context, the emphasis on segment performance suggests that revenue allocation was based on sales generated by each segment. However, the report also indicated that domestic effective demand remains insufficient, which could impact future revenue growth. Overall, the operational environment appears conducive to revenue growth, but challenges in demand may need addressing.</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>The company's revenue trend in the recent reporting period indicates a stable economic environment, with the Gross Domestic Product (GDP) increasing by 5.0% year-on-year in the first half of 2024. However, the interim report did not provide specific revenue figures or growth rates for the company itself. Additionally, there has been no recommendation for an interim dividend, which may suggest cautious financial management amidst external complexities. The Group launched 47 new projects during this period, indicating a focus on growth and development. Overall, while the economic indicators are positive, the company’s specific revenue performance remains unclear without detailed financial data.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2434,6 +2954,11 @@
           <t>The company's electricity sales revenue is influenced by several key factors. Firstly, the introduction of the time-of-use electricity fee policy has created significant price fluctuations between peak and valley periods, potentially leading to lower overall prices. Secondly, the utilization rate for new energy sources is targeted to remain above 90%, but regional disparities in resource conditions may affect this, risking irrational development planning. Additionally, changes in ancillary service pricing mechanisms aim to prevent costs from exceeding generation values, impacting the profitability of new energy projects. Lastly, fluctuations in coal prices and freight rates, as the company procures various coal types, also play a critical role in determining the overall sales revenue from electricity.</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>The company's electricity sales revenue is primarily influenced by the implementation of the coal-fired power capacity tariff mechanism, which drives down new energy transaction prices. Additionally, the introduction of the time-of-use electricity fee policy has increased the price difference between peak and valley periods, further affecting revenue stability. Fluctuations in coal prices and freight rates also play a critical role in cost management and pricing strategies. Furthermore, the expansion of the energy market and the growth in grid-connection scale for new energy sources contribute to revenue opportunities. Lastly, regional climate variations and project development ratios may impact overall sales performance.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2446,6 +2971,11 @@
           <t>The retrieved context does not provide specific financial statistics or performance metrics to directly compare the company's performance against market expectations. However, it highlights a strategic focus on enhancing competitiveness through innovation, talent development, and new energy management. The emphasis on "high quality, high speed, and low cost" suggests an alignment with market demands for efficiency and sustainability. The company is also adopting new development patterns and committing to environmental and technological improvements, which may be positively viewed by the market. Overall, while specific performance data is absent, the strategic initiatives imply a proactive approach to meeting or exceeding market expectations.</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>The company's performance appears to align with market expectations, particularly regarding its strategic move to sell a 27% equity interest in Jiangyin Sulong for RMB1,319,150,070. This disposal indicates a shift in focus, as Jiangyin Sulong will no longer be part of the Group’s consolidated financial statements, potentially allowing for improved financial metrics. Additionally, the company's commitment to enhancing trading efficiency and adapting to market reforms suggests a proactive approach to navigating the evolving energy sector. The emphasis on new energy technology and digital transformation aligns with broader market trends, indicating a positive outlook for future performance. Overall, the company's strategic decisions and operational improvements may position it favorably in the market.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2458,6 +2988,11 @@
           <t>The company's revenue structure for the first half of 2024 included several key components: revenue from energy storage equipment rental, repair revenue, revenue from sales of commodity materials, and other income. While specific figures for each component are not provided, the overall operating profit for other segments reached RMB 101 million, showing a significant increase of RMB 93 million compared to the same period in 2023. This rise was primarily attributed to the growth in revenues from the aforementioned areas. The company also emphasized optimizing its financing structure to support these revenue-generating activities. Overall, the focus on diverse revenue streams contributed positively to the company's financial performance.</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific details about the company's revenue structure. However, it does mention capital commitments primarily related to the construction of new power projects and renovation of existing power plants, suggesting that energy generation and infrastructure development may be significant revenue sources. Additionally, the company's ability to issue corporate bonds indicates potential revenue from financing activities. The report also emphasizes the group's management of funds and financing through various channels, which could contribute to revenue generation. Overall, while specific revenue components are not detailed, the context implies a focus on energy production and financing activities.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2470,6 +3005,11 @@
           <t>The company's net profit performance can be assessed in light of China's stable economic growth, which saw a GDP increase of 5.0% year-on-year in the first half of 2024. This economic backdrop, characterized by recovery in demand and stable energy consumption, suggests a favorable environment for profitability. However, the acknowledgment of insufficient domestic demand and the need for a consolidated economic recovery indicates potential challenges ahead that could impact net profit. The company's strategic focus on building a world-class new energy asset management platform and enhancing global influence suggests a proactive approach to capitalize on emerging market opportunities. Overall, while the current economic conditions present growth potential, external complexities may influence the sustainability of net profit performance in the near term.</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>The company's net profit in the first half of 2024 was RMB4,692 million, indicating a significant decline of 19.6% compared to RMB5,837 million in the same period in 2023. This decrease suggests potential challenges in maintaining profitability amidst a complex external environment and insufficient domestic demand. The ongoing economic recovery is fragile, as highlighted by the need for enhanced effective demand and the acknowledgment of a complicated external landscape. The company is also undergoing structural changes, such as the disposal of its equity interest in Jiangyin Sulong, which may impact future financial performance. Overall, these factors indicate that while there may be growth opportunities, the company faces considerable headwinds that could hinder its profitability trajectory.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2482,6 +3022,11 @@
           <t>The retrieved context does not provide specific information regarding the company's total installed capacity. It primarily focuses on the financing structure, capital cost reduction, and various financial strategies implemented by the Group in the first half of 2024. For accurate details on total installed capacity, additional context or data would be required. You may want to consult recent financial reports or press releases from the company for that information.</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific information regarding the company's total installed capacity. Instead, it focuses on the sale of a 27% equity interest in Jiangyin Sulong Thermal Power Co., Ltd., financial strategies, and green power trading initiatives. To ascertain the current status of the company's total installed capacity, additional data or reports would be required. If available, financial statements or operational reports would typically include such metrics.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2494,6 +3039,11 @@
           <t>As of June 30, 2024, the Group's consolidated installed capacity reached 37,880.40 MW, reflecting growth from previous periods. During the first half of 2024, 47 new projects added a total of 2,286.73 MW, with 595.00 MW from wind power and 1,691.73 MW from photovoltaic projects. The wind power segment now accounts for 28,349.39 MW of the total capacity. This expansion demonstrates a significant investment in renewable energy infrastructure, particularly in photovoltaic technology. Overall, the increase in installed capacity indicates a positive trend towards enhancing energy production capabilities.</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific statistics regarding changes in installed capacity over the reporting period. However, it notes that photovoltaic power stations, which represent about 66% of total units in operation, have been active since 2010, indicating a long-term investment in renewable energy. There is mention of aging equipment leading to increased treatment costs and safety risks, suggesting that while capacity may have been stable, operational efficiency may be declining. The emphasis on safety management and green project construction indicates a focus on maintaining or improving existing capacity rather than expanding new installations. Overall, without specific numerical data, the changes in installed capacity remain unclear.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2506,6 +3056,11 @@
           <t>The company’s installed capacity is primarily contributed by wind energy and photovoltaic power. As of now, it operates nearly 10,000 units of wind turbines, which are predominantly of 1.5 MW capacity, accounting for approximately 66% of the total units in operation. Additionally, the company has 11 photovoltaic power stations that have been in operation for over a decade. The focus on integrating these renewable energy sources aligns with the regulatory push for green development and sustainable energy projects. Overall, the company is positioned to enhance its capacity through the promotion of wind energy and solar power, reflecting the increasing feasibility of these technologies.</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>The company's installed capacity is primarily contributed by wind energy and photovoltaics (solar energy). The recent initiatives highlight the full utilization of wind energy resources, particularly in rural areas, and the development of low wind speed power generation technology. Additionally, there is a focus on enhancing the capacity for green electricity trading and promoting clean energy substitution, indicating a broader commitment to non-fossil energy sources. The company is also exploring hydrogen energy as part of its strategy for sustainable energy development. Overall, wind power and solar energy are the key contributors, supported by emerging technologies in energy storage and hydrogen.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2518,6 +3073,11 @@
           <t>The company plans to expand its installed capacity by focusing on optimizing the management and efficiency of its existing energy production assets, particularly in wind and photovoltaic power. It will enhance the reliability and power generation capacity of its equipment while striving to maintain competitive pricing and increase overall output. The Group also aims to secure annual quotas for imported coal and diversify its energy sources, which will support capacity growth. Additionally, the company is leveraging green finance policies to optimize its financing structure, thereby reducing capital costs to fund expansion initiatives. Finally, the emphasis on innovation and design optimization is likely to facilitate the development of new energy projects and improve operational efficiency.</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>The company plans to expand its installed capacity by optimizing project layouts across 31 provincial-level regions in China, ensuring a balanced development ratio that accounts for varying climatic impacts. It aims to improve the reliability and power generation capacity of its existing equipment and enhance maintenance plans to mitigate shortages. Additionally, the company is focused on increasing the efficiency of its operations through better management practices. Further, it is exploring energy storage solutions to promote consumption and expand the share of green electricity. The strategic emphasis on cost reduction and increased investment in wind and photovoltaic projects will also support its capacity expansion goals.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2530,6 +3090,11 @@
           <t>Offshore wind projects are integral to the company's strategy, serving as a key component in its commitment to green development and low-carbon transition, aligning with its role as a “Main Force” in these areas. By enhancing new energy assets, the company aims to preserve and appreciate their value, contributing to overall value creation. Offshore wind projects also facilitate the exploration of new markets and the coordination of resources, which strengthens the company's global influence. The focus on integrating innovative technologies and fostering reform further supports the development of these projects. Overall, offshore wind initiatives are crucial for achieving the company's strategic goals in sustainability and energy efficiency.</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Offshore wind projects are integral to the company's strategy as they aim to enhance their new energy asset management and expand their global footprint. The company is focused on obtaining offshore project indicators, which signifies a commitment to developing large-scale offshore facilities. By prioritizing these projects, the company seeks to improve its overall value creation and ensure security and stability in energy supply. Additionally, offshore wind projects align with the company's goal of achieving low-carbon transitions and fostering green development. Overall, these initiatives are part of a broader strategy to establish the company as a world-class leader in new energy technology.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2542,6 +3107,11 @@
           <t>In the first half of 2024, the company's total electricity sales were 4,907,935 MWh, reflecting a decrease of 2.39% compared to the same period in 2023. This decline is attributed to the rapid growth of new energy capacity in the Jiangsu region, which has impacted coal power generation and distribution. Additionally, the average utilization hours for the coal power segment fell by 64 hours year-on-year, totaling 2,618 hours. Despite overall economic stability and growth in energy consumption, the shift towards new energy sources has intensified competition for coal power. These trends indicate a transitional phase in energy production, emphasizing the need for adaptation in response to changing market dynamics.</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific statistics or figures regarding total electricity sales of the company. However, it indicates that the implementation of the coal-fired power capacity tariff mechanism is driving down prices for new energy transactions. Additionally, the introduction of a time-of-use electricity fee policy has widened the price difference between peak and valley periods, potentially impacting sales revenue. The context suggests that these factors could contribute to a risk of continued decreases in electricity prices, which may influence overall sales trends negatively. Without specific sales data or trends, a detailed analysis cannot be provided.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2554,6 +3124,11 @@
           <t>The company's electricity sales volumes experienced a decline year-over-year in both wind and solar power generation. Specifically, on-grid wind power decreased by 103 hours compared to the previous year, totaling 1,134 hours. Solar power generation also saw a reduction, with a decrease of 32 hours, resulting in 626 hours of production. Despite these declines, the overall installed power generation capacity in the country increased by 14.1% year-on-year, indicating growth in other areas of energy production.</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>In 2023, Longyuan New Energy Development Company Limited reported a total electricity sales volume of 3.07 billion kW, marking a year-on-year increase of 14.1%. This growth was driven by significant increases in various energy sources: wind power sales rose by 19.9% to 470 million kW, solar power surged by 51.6% to 710 million kW, and hydroelectricity saw a modest increase of 2.2% to 430 million kW. The overall increase reflects the company's expanding capacity and operational efficiency. This positive trend in electricity sales indicates strong demand and effective management strategies within the renewable energy sector.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2566,6 +3141,11 @@
           <t>The average utilization hours for wind power in China decreased by 103 hours in the first half of 2024, reaching 1,134 hours compared to the previous year. Factors influencing this decline include the overall growth in energy consumption and supply, which may have led to an increased reliance on other energy sources. Additionally, fluctuations in wind availability and possibly operational or maintenance issues could have impacted generation efficiency. The establishment of a price mechanism for ancillary services aims to ensure that new energy consumption costs remain economically viable, which may indirectly affect utilization. Lastly, the competitive landscape of different renewable energy sources, such as solar power, could also play a role in the utilization hours of wind energy.</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The average utilization hours for wind power decreased by 101 hours in the first half of 2024 compared to the same period in 2023, primarily due to a reduction in wind resources. Specifically, the average wind speed dropped by 0.25 m/s, impacting energy generation. Additionally, the rapid growth of new energy installed capacity in the Jiangsu region limited the operational space for coal power generation, further affecting wind power utilization. These factors collectively contributed to lower power generation and utilization hours for wind energy.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2578,6 +3158,11 @@
           <t>The retrieved context does not provide specific statistics on the average electricity prices for different power sources. However, it mentions the establishment of a price mechanism for power ancillary services, aimed at ensuring that the consumption cost of new energy projects does not exceed their generation value. This indicates a regulatory effort to stabilize prices for renewable energy sources like wind and solar power, potentially preventing fluctuations that could harm operators. Additionally, the emphasis on promoting high-quality development of non-fossil energy suggests a focus on maintaining reasonable price levels for renewable sources amidst market changes. Overall, the context implies a controlled environment for electricity pricing in favor of renewable energy, but lacks specific data on price fluctuations.</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific statistics or data on the average electricity prices for different power sources. However, it indicates that a service price mechanism has been implemented to ensure that the consumption cost of new energy projects does not exceed their generation value. This aims to stabilize electricity prices for new energy sources, like wind and solar, by preventing costs from surpassing the revenue levels of these projects. Additionally, the emphasis on monitoring coal prices and freight rates suggests that fluctuations in fossil fuel prices could indirectly affect the overall electricity pricing landscape. Increased grid-connection scale and limited electricity demand growth may also influence pricing dynamics in the energy market.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2590,6 +3175,11 @@
           <t>Changes in electricity sales, particularly with the introduction of a time-of-use electricity fee policy, can lead to significant fluctuations in overall revenue for energy providers. The widened price difference between peak and valley periods may incentivize customers to shift their consumption to off-peak times, potentially reducing revenue during peak hours. Additionally, if the consumption cost for new energy projects exceeds the generation value, as noted in recent policy changes, it could further strain revenue streams for operators reliant on new energy sources. The risks associated with relaxing utilization rates, as stated in the May 2024 notice, might also lead to inefficient planning and increased operational costs, affecting profitability. Overall, these factors emphasize the need for energy providers to adapt their pricing strategies and operational efficiencies to maintain stable revenue in a changing market environment.</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Changes in electricity sales can significantly impact overall revenue, especially for new energy operators. If the consumption cost of new energy projects exceeds their generation value, it can lead to financial losses and reduced profitability. Conversely, stable or increasing electricity sales at reasonable prices can enhance revenue streams and support growth initiatives. The emphasis on reducing ancillary service costs further indicates a focus on improving profit margins. Overall, effective management of electricity sales and pricing mechanisms is crucial for maximizing revenue in the new energy sector.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2602,6 +3192,11 @@
           <t>In the first half of 2024, the accumulated power generation from wind power decreased by 4.60% year-on-year, amounting to 31,584,604 MWh. Despite the overall increase in the Group's power generation, this decline indicates a reduction in revenue potential from the wind power segment. The Group launched 7 new wind power projects with a consolidated installed capacity of 595.00 MW during this period, which may offset some of the decrease in revenue over time. However, the overall performance of the wind power segment suggests challenges in maintaining revenue growth. It is crucial for the Group to enhance operational efficiency and address the factors leading to the drop in wind power generation.</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>During the reporting period, revenue from the Group's wind power business exhibited seasonal fluctuations, generating more income in the first and fourth quarters compared to the second and third. In the first half of 2024, there was a decrease in power generation and utilization hours by 101 hours year-on-year, amounting to 1,170 hours, primarily due to reduced wind resources. Additionally, the average wind speed dropped by 0.25 m/s compared to the same period in 2023, impacting revenue potential. The rapid growth of new energy installed capacity in the Jiangsu region further constrained the generation capacity of existing coal power sources. Overall, these factors contributed to a decline in revenue for the wind power segment during this period.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2614,6 +3209,11 @@
           <t>The main drivers behind the revenue changes in the thermal power segment during the first half of 2024 included a slight decrease in operating revenue, which amounted to RMB4,050 million, reflecting a 1.3% decline compared to the previous year. This decline was primarily attributed to increased personnel costs that were expensed rather than capitalized, as more projects commenced operation. Additionally, a decrease in power generation due to varying climate conditions also contributed to the revenue reduction. Furthermore, material costs fell by 15.5%, decreasing from RMB58 million to RMB49 million, which may indicate reduced external procurement linked to lower generation levels. Overall, the combination of increased operating expenses and decreased procurement costs significantly impacted the thermal power revenue.</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>The main drivers behind the revenue changes in thermal power for China Longyuan Power Group in the first half of 2024 include a decrease in operating revenue from electricity sales and an increase in operating expenses, particularly depreciation and amortization in the wind power segment. Additionally, the rapid growth of new energy installed capacity in the Jiangsu region has resulted in reduced space for coal power generation, further impacting revenue. Repair and maintenance expenses rose by 17.6% to RMB 368 million, indicating increased operational costs. Moreover, lower power generation and utilization hours contributed to the overall decline in thermal power revenue. Overall, these factors reflect the challenges faced by the coal power segment amid a transition towards greener energy sources.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2626,6 +3226,11 @@
           <t>The retrieved context does not provide specific financial figures or revenue contributions from photovoltaic power compared to total revenue. However, it does highlight that in the first half of 2024, the Group launched 40 photovoltaic projects with a consolidated installed capacity of 1,691.73 MW, which indicates a strong emphasis on this energy source. The overall accumulated power generation of the Group was 40,081,845 MWh, with wind power generation decreasing by 4.60%, suggesting that photovoltaic may be playing an increasingly vital role. Without exact revenue data, it’s difficult to quantify the significance of photovoltaic power's contribution to total revenue. More detailed financial reports would be necessary to determine its exact impact.</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>In the first half of 2024, the photovoltaic power segment generated operating revenue of RMB 945 million, which is a substantial increase of 98.9% from RMB 475 million in the same period of 2023. Despite this growth, the total revenue from all segments shows that this increase is relatively minor compared to the wind power segment's revenue of RMB 13,781 million and coal power segment's revenue of RMB 4,050 million. Thus, while the photovoltaic segment is growing, its contribution to total revenue remains small, accounting for approximately 5.5% of the combined revenue from the wind and coal power segments. This highlights the photovoltaic segment's potential for growth but also indicates that it still has a long way to go to significantly impact overall revenues.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2638,6 +3243,11 @@
           <t>The company faced several challenges in maintaining revenue from its wind power segment, primarily due to the complex and volatile international situation that can affect project financing and execution. Additionally, the need to adapt to changing regulations and market dynamics, especially in overseas markets, adds a layer of uncertainty. The competition for resources and project opportunities, particularly in regions with rich wind resources, may also limit potential revenue growth. Furthermore, the company has to manage risks associated with overseas investments, which can impact revenue stability. Lastly, the ongoing transition towards larger capacity units necessitates significant capital investment and operational adjustments, which can strain financial resources.</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>The company faced several challenges in maintaining revenue from wind power, primarily due to seasonality in operations, as wind power generation typically peaks in the first and fourth quarters. This seasonal fluctuation can lead to inconsistent revenue streams, with reduced earnings during the second and third quarters when wind speeds are less favorable. Additionally, the growth in electricity demand is limited, and the grid structure in some areas is weak, resulting in insufficient capacity in main transformers and outgoing transmission lines. Furthermore, when wind and solar resources are highly synchronized in certain regions, it exacerbates the pressure on consumption, complicating revenue generation from new energy sources. These factors collectively hinder the company’s ability to stabilize and increase revenue from its wind power segment.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2650,6 +3260,11 @@
           <t>The retrieved context does not provide specific details on coal sales or direct thermal power revenue, focusing primarily on the performance of wind and photovoltaic projects. However, it mentions the accumulated power generation, with wind power generation experiencing a year-on-year decline of 4.60%. This decrease in wind power could imply a potential reliance on thermal power sources, such as coal, to maintain overall energy supply. Additionally, the overall increase in power generation of 0.84% suggests that despite challenges in wind generation, total output was sustained, possibly through coal. Without specific figures for coal sales or thermal power revenue, it's difficult to quantify the direct impact on overall revenue.</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>The performance of coal sales directly impacts overall thermal power revenue, as coal is a primary fuel for thermal power generation. By optimizing coal supply and enhancing operational efficiency, the company can increase power generation and maintain competitive pricing, thus boosting revenue. The report indicates efforts to improve the management of coal power plants, contributing to higher reliability and capacity. Furthermore, initiatives to promote ultra-low emissions and energy-saving measures can enhance the company's market position, potentially leading to increased sales. Overall, effective coal management is crucial for maximizing the revenue from thermal power operations.</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2662,6 +3277,11 @@
           <t>The increase in the company's depreciation and amortization expenses is primarily attributed to the conversion of newly-operated projects into fixed assets. As the company expands its wind power segment, the addition of new projects necessitates higher depreciation costs associated with the increased asset base. Additionally, the overall operational growth leads to escalated amortization expenses as more assets are put into service. This reflects the company's strategic investment in renewable energy infrastructure, which impacts its financial statements. Overall, the transition to fixed assets from operational projects significantly influences these expense categories.</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>The company experienced a significant increase in depreciation and amortization expenses primarily due to the conversion of new projects into fixed assets. Specifically, there was a rise of RMB 257 million, or 157.7%, in the photovoltaic power segment compared to the previous year. Additionally, the wind power segment saw a smaller increase of RMB 22 million, or 0.4%. These changes reflect the company's expansion and investment in renewable energy projects, which typically require substantial upfront capital and subsequent depreciation. Overall, the increase in expenses indicates a strategic focus on enhancing the company's asset base in the energy sector.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2674,6 +3294,11 @@
           <t>The retrieved context does not provide specific information regarding employee costs or their evolution in relation to the company's growth. However, it mentions that residents' incomes continued to increase, which may suggest a positive economic environment for employment costs. Additionally, the overall stability and growth in China's economy, with a GDP increase of 5.0% year on year, could imply a favorable situation for companies to manage employee costs effectively. The focus on high-quality development and new growth drivers indicates potential investments in human capital. Without direct data on employee costs, a definitive relationship cannot be established.</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific information about employee costs or their evolution in relation to the company's growth. However, it indicates that the company's Gross Domestic Product (GDP) increased by 5.0% year-on-year, suggesting a positive economic environment. As employment and residents' incomes continued to increase, it can be inferred that employee costs may have also risen to reflect this growth. The focus on high-quality development and new growth drivers implies a potential investment in human resources to support expansion, though no specific statistics or figures are mentioned. Overall, while employee costs likely evolved in a positive manner, detailed data is not available to quantify this relationship.</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2686,6 +3311,11 @@
           <t>The main drivers behind the increase in operational costs for the Group include higher personnel expenses, which amounted to RMB 2,358 million in the first half of 2024, reflecting an 8.1% increase compared to the previous year. Additionally, the costs associated with repairs and maintenance also contributed, although specific figures for these expenses were not detailed in the context. The overall increase in operational costs can be attributed to the need to support the expansion of new energy projects and the rising scale of grid connections during the "14th Five Year Plan" period. The decrease in power generation efficiency in coal power segments potentially led to increased reliance on alternative energy sources, further driving up operational expenditures. Furthermore, the introduction of new policies related to electricity pricing may create additional financial pressures, impacting cost structures.</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>The main drivers behind the increase in operational costs for the first half of 2024 included a significant rise in repair and maintenance expenses, which increased by 17.6% to RMB368 million from RMB313 million in the same period of 2023. This increase was attributed to the heightened frequency and scale of maintenance activities in the coal power segment. Additionally, administrative expenses rose by 15.4% to RMB383 million, up from RMB332 million, likely due to the addition of new projects in the wind power and photovoltaic segments. The overall operational costs were further influenced by the Group's extensive project layout across 31 provincial-level regions, necessitating more resources for management and coordination. These factors collectively contributed to the rising operational expenditures in a competitive energy market.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2698,6 +3328,11 @@
           <t>During the reporting period, the company managed its capital expenditures by incorporating the assets and liabilities of newly acquired subsidiaries, such as Chicheng Nanjun New Energy and Hefei Senyong New Energy, at their carrying amounts. This restructuring was treated as a business combination under common control, ensuring that valuation results were not recognized and that these assets were accounted for under the historical cost convention. The management actively calculated and withdrew safety production expenditures since December 2022, aligning with regulatory measures to enhance financial governance. Additionally, the consolidation of financial statements allowed for a clearer representation of the company's overall financial health and performance. This strategic approach facilitated effective management of depreciation and amortization expenses, ultimately impacting the net profit and reserves positively.</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>The company managed its capital expenditures by adhering to historical cost conventions for asset valuation under IFRS, which influenced subsequent depreciation and amortisation expenses. During the restructuring in 2009, a valuation was conducted for certain assets in accordance with PRC GAAP, but these results were not recognized under IFRS. This approach likely allowed for more stable financial reporting during the reporting period. In the first half of 2024, China's economy showed stable growth, with GDP increasing by 5.0% year-on-year, which may have positively impacted the company's capital expenditures. However, challenges such as insufficient domestic demand and a complex external environment may have constrained more aggressive investment strategies.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2710,6 +3345,11 @@
           <t>The cost structure significantly impacts net profit margins by determining the expense allocation among various segments, such as wind power, coal power, and photovoltaic (PV) power. Higher operational costs in any segment can reduce overall profitability, affecting net profit margins negatively. For example, if depreciation and amortization expenses rise in the renewable segments, it can lead to lower margins despite potential revenue growth. Conversely, efficient cost management and resource allocation can preserve or even enhance net profit margins by ensuring that revenue growth translates effectively into profit. Therefore, the strategic focus on enhancing implementation capabilities and optimizing costs is crucial for maintaining healthy net profit margins.</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific statistics regarding the cost structure or its direct impact on net profit margins. However, it mentions a focus on enhancing the ability to implement strategies and value creation, which suggests that a streamlined cost structure may positively influence net profit margins. By concentrating on efficient new energy development and asset management, the Company aims to improve overall profitability. Additionally, the disposal of a subsidiary could lead to a more favorable cost structure, potentially enhancing net profit margins in the long run. Overall, while direct statistics are lacking, the strategic initiatives imply an intention to positively affect net profit margins.</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2722,6 +3362,11 @@
           <t>The company's subsidy recoveries are primarily related to tariff premium receivables, which are settled according to prevailing government policies and payment trends from the Ministry of Finance. The Board has assessed the probability of default for these trade receivables as remote, largely due to funding from the PRC government and favorable past payment histories of local grid companies. Furthermore, the company has adopted the simplified approach under IFRS 9 for measuring expected credit losses, indicating a proactive stance on credit risk management. Overall, the company appears confident in its ability to recover these subsidies, reflecting a limited credit risk profile associated with these receivables.</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>As of June 30, 2024, the company is optimistic about recovering subsidies related to its projects, as most have received approval for the tariff premium of renewable energy. Some projects are still in the process of applying for these approvals, but the Board believes they will be obtained in due course. The tariff premium receivables are expected to be settled in alignment with government policies and payment trends from the Ministry of Finance. This suggests a proactive approach to securing necessary funds from renewable energy initiatives. Overall, the company appears to be in a favorable position regarding its subsidy recoveries.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2734,6 +3379,11 @@
           <t>Subsidy receivables can significantly impact a company's financial health by improving its liquidity and cash flow. When these receivables are recognized, they enhance current assets on the balance sheet, potentially increasing the company's working capital. However, reliance on subsidies may introduce risks if the anticipated funds are delayed or not received, which could lead to cash flow shortages. Additionally, the ability to collect these receivables may indicate the company's effectiveness in managing relationships with regulators or government entities, affecting overall financial stability. Overall, while subsidy receivables can provide short-term financial relief, they also pose risks that must be carefully managed.</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Subsidy receivables can significantly impact a company's financial health by providing additional liquidity and enhancing cash flow stability. They represent expected future cash inflows, which can be used to fund operations or reduce debt, ultimately improving the company's balance sheet. However, reliance on subsidies can also pose risks; if the expected subsidies are delayed or reduced, financial projections may be adversely affected, leading to cash flow issues. Moreover, a high level of receivables relative to revenue may indicate potential inefficiencies or reliance on government support, raising concerns among investors. Overall, while subsidy receivables can bolster financial health if managed well, they also introduce vulnerability if the company becomes overly dependent on them.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2746,6 +3396,11 @@
           <t>The retrieved context does not provide specific information regarding trends in subsidy collection over the years. However, it indicates that the overall performance of China's economy is stable with a 5.0% year-on-year increase in GDP for the first half of 2024, which may suggest a positive environment for subsidy collection. Additionally, the Group's focus on optimizing project layouts in response to varying climate conditions could imply a strategic approach to managing subsidies related to energy projects. To understand specific trends in subsidy collection, further detailed financial reports or data would be necessary.</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific information regarding subsidy collection trends over the years. Instead, it focuses on the Group's project developments, regional climate impacts on energy generation, and safety management measures during the "14th Five Year Plan" period. It mentions an increase in the grid-connection scale of new energy and highlights challenges in electricity demand and grid capacity rather than subsidy trends. Therefore, without additional data or context, no definitive trends in subsidy collection can be identified. Further information is needed to accurately assess subsidy collection trends.</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2758,6 +3413,11 @@
           <t>The timing of subsidy payments significantly influences cash flow, particularly for entities reliant on government funding, such as those in the renewable energy sector. As noted, the tariff premium receivables from local state grid companies have no fixed due date and are contingent on government fund allocation, which can delay cash inflows. This uncertainty can lead to fluctuations in liquidity, affecting the Group's ability to meet short-term obligations. The Board has assessed the probability of default for these receivables as remote, yet reliance on timely government payments remains critical for maintaining stable cash flows. Overall, while the credit risk is perceived to be low, delays in subsidy disbursements can still create short-term cash flow challenges.</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>The timing of subsidy payments directly affects cash flow by influencing when cash inflows are realized, which can impact liquidity and financial planning. If subsidy payments are delayed or take longer to approve, organizations might face cash flow shortages, impacting their ability to meet operational expenses. Conversely, timely subsidy payments can enhance cash flow, allowing for better investment in projects and operational stability. Additionally, the expectation of receiving these payments can affect management decisions regarding capital allocation and risk management. Overall, the reliability and timing of subsidy payments are critical for maintaining a healthy cash flow position.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2770,6 +3430,11 @@
           <t>The expectations for future subsidy recoveries, particularly regarding tariff premium receivables, appear to be positive. The Board assesses the probability of default as remote, given that these subsidies are funded by the PRC government and past payment histories are favorable. As of June 30, 2024, the majority of trade and bills receivables, amounting to RMB 40,967,972, are expected to be collected within one year. The collection process for tariff premiums is influenced by government fund allocations, but overall credit risk is deemed limited. Thus, the outlook for recovering these subsidies remains strong, supported by government backing and historical collection trends.</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>The expectations for future subsidy recoveries appear optimistic, as most of the Group's related projects have received approval for the tariff premium of renewable energy as of June 30, 2024. The Board believes that the remaining projects currently applying for approval will also receive the necessary endorsements in due course. Moreover, the probability of default on trade receivables from the tariff premium is considered remote, primarily due to funding from the PRC government and favorable past payment histories of local grid companies. Current economic conditions in the new energy industry have been factored into this assessment, suggesting a stable environment for subsidy recoveries. Overall, the outlook for future subsidy recoveries is positive, contingent on ongoing government support and regulatory compliance.</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2783,6 +3448,15 @@
 As of June 30, 2024, the total liabilities amount to RMB 80,011 million, while the total equity attributable to equity holders is RMB 72,658 million. Thus, the debt-to-equity ratio is approximately 1.10 (80,011 / 72,658). This indicates that the company has about 1.10 units of debt for every unit of equity, reflecting a relatively leveraged position.</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>To calculate the debt-to-equity ratio, we use the formula: Debt-to-Equity Ratio = Total Liabilities / Total Equity. 
+From the retrieved context, total liabilities are RMB 148,422,231 and total equity is RMB 82,221,994. 
+Thus, the debt-to-equity ratio is approximately 1.81 (148,422,231 / 82,221,994). 
+This indicates that for every RMB 1 of equity, the company has about RMB 1.81 in debt. 
+This ratio suggests a relatively high level of leverage.</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2795,6 +3469,11 @@
           <t>The retrieved context does not provide specific details regarding the company's financial leverage changes over the reporting period. However, it mentions that safety production expenditures have been calculated and withdrawn, which may affect retained earnings and the overall capital structure. The stability in China's economic performance and energy consumption could suggest a relatively stable operating environment, potentially impacting financial leverage positively. Additionally, the amendments to financial reporting standards mentioned do not materially impact the company's financial statements, indicating that the financial position may remain unchanged. For a precise assessment of financial leverage, more detailed financial metrics such as debt-to-equity ratio or total liabilities would be necessary.</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide explicit details about the company's financial leverage or specific changes over the reporting period. However, it indicates that the Group has engaged in significant transactions, such as selling a 27% equity interest in Jiangyin Sulong Thermal Power Co., Ltd. for RMB 1,319,150,070, which could impact its leverage by reducing debt or adjusting equity levels. The context notes an overall recovery in the economy, with GDP growth at 5.0%, which may influence the company's ability to manage leverage effectively. Additionally, the mention of liquidity risk suggests that while the company is progressing in its strategic objectives, it remains cautious about financial stability. For a precise analysis of financial leverage, further specific financial metrics would be required.</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2807,6 +3486,11 @@
           <t>The changes in free cash flow were primarily influenced by a decrease in operating revenue and an increase in investments in wind power and photovoltaic power projects. As of June 30, 2024, the company's cash holdings decreased by RMB1,535 million compared to the end of 2023, largely due to these investments. Additionally, the net cash inflow from operating activities fell to RMB6,950 million in the first half of 2024, down from RMB8,042 million in the previous period, indicating a decline in operational performance. The introduction of the time-of-use electricity fee policy may have also contributed to increased financial risks, potentially affecting cash flow projections. Overall, these factors combined led to a tightening of free cash flow for the company.</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>The changes in free cash flow were primarily influenced by a decrease in operating revenue, which led to a net cash inflow from operating activities declining to RMB6,950 million in the first half of 2024, down from RMB8,042 million in the same period of 2023. Additionally, credit impairment losses increased by RMB27 million, which may have further strained cash flow. The company also faced challenges related to the balance in project development across various regions, which could impact future cash generation. Furthermore, investment activities and the operational performance of their energy projects, particularly in new energy sectors, play a key role in free cash flow dynamics. Overall, these factors indicate a need for strategic adjustments to enhance cash flow resilience.</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2819,6 +3503,11 @@
           <t>The retrieved context does not provide specific figures for cash flow from operations or capital expenditures for the company. However, it mentions that the financial statements have been restated to include additional subsidiaries, which could impact cash flow metrics. To assess the comparison accurately, one would need detailed financial data, including cash flows and capital expenditures from the consolidated financial statements. The overall economic environment suggests stable growth, which may positively influence operational cash flows. Without explicit statistics, a definitive comparison cannot be made.</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific figures for the company's cash flow from operations or capital expenditures, making a direct comparison impossible. However, it indicates that the company is actively engaging in share repurchases and asset disposals, which could affect cash flow dynamics. Additionally, the company is facing a complex external environment and insufficient domestic demand, which may impact operational cash flow. Without exact numbers, it's essential to analyze the upcoming financial statements for clearer insights into cash flow versus capital expenditures. Overall, monitoring these metrics will be crucial for assessing the company's financial health and investment capacity.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2831,6 +3520,11 @@
           <t>Increased capital expenditures (CapEx) can significantly impact financial stability, as they often lead to higher asset bases and potential growth in revenue-generating capabilities. However, if financed through debt, they may increase leverage ratios, heightening financial risk and exposure to liquidity issues. Furthermore, higher CapEx can lead to increased depreciation and amortization expenses, affecting net profits and reserves over time. If the investments do not yield expected returns, this could further strain financial stability through asset impairments. Ultimately, the implications depend on the balance between the benefits of growth and the risks associated with financing and maintaining those expenditures.</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Increased capital expenditures can lead to short-term financial strain, as they typically require significant cash outflows, impacting liquidity ratios. However, if managed well, these expenditures can enhance the company's asset base and revenue-generating capacity in the long term. Over time, the depreciation and amortization of these assets can affect net profits and reserves, particularly during asset disposals or impairments. Additionally, increased capital spending may necessitate higher financing, which can introduce interest rate risks if not strategically managed. Overall, while capital expenditures can boost growth potential, they must be balanced against financial stability considerations to avoid excessive leverage or liquidity constraints.</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2843,6 +3537,11 @@
           <t>The company aims to continue expanding its installed capacity, building on the success of the first half of 2024, where it added 2,286.73 MW across 47 new projects. As of June 30, 2024, the total consolidated installed capacity reached 37,880.40 MW, with a significant portion from wind (28,349.39 MW) and photovoltaic sources. While specific numerical targets for the upcoming year are not explicitly stated, the focus on securing annual quotas for coal and enhancing renewable energy projects suggests a strategic aim to further increase capacity. The company’s historical performance indicates a commitment to maintaining or exceeding this growth trajectory in the renewable sector. Overall, the emphasis on new project initiation implies a proactive approach to capacity expansion in the next year.</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>The retrieved context does not specify the exact targets for new installed capacity in the upcoming year. However, it mentions a focus on enhancing green and low-carbon development, indicating a strategic shift towards increasing renewable energy sources. The company appears to be reacting to the rapid growth of new energy installed capacity in the Jiangsu region, implying an adaptive strategy to maintain competitiveness in this area. Additionally, there is a commitment to expand green power trading, which suggests an emphasis on increasing renewable energy contributions. For precise targets, further details from the company's strategic plan or financial forecasts would be necessary.</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2855,6 +3554,11 @@
           <t>The company plans to adapt to changing market conditions by actively reviewing foreign exchange risk exposure during the start-up stage of new projects through fund plans and financial statements from overseas subsidiaries. They will implement risk hedging plans immediately upon identifying any foreign exchange risks caused by currency mismatches. Additionally, the company aims to mitigate risks associated with fluctuating coal prices by enhancing safety management and production systems at their power plants. They also emphasize the acceleration of development and construction projects, focusing on acquiring land resources and promoting overseas projects. Overall, their strategy includes continuous monitoring and proactive measures to ensure operational resilience amidst market changes.</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>The company plans to adapt to changing market conditions by enhancing its safety management capabilities for distributed projects and exploring innovative safety management methods. It aims to accelerate development and construction by promoting expansion and establishing a comprehensive institutional framework for managing overseas projects throughout their lifecycle. Additionally, the company will focus on acquiring offshore project indicators and land resources while strengthening regional resource integration. To ensure ongoing growth, it will also emphasize innovation and the development of new business areas, as well as optimizing project designs. Overall, the company’s strategy includes a commitment to safety, proactive growth, and digital transformation in response to a complex external environment.</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2867,6 +3571,11 @@
           <t>The Company focuses on enhancing operational efficiency through several key strategies. Firstly, it emphasizes the concept of "common construction, sharing and governance" to improve collaboration and resource allocation among its subsidiaries. Secondly, it aims to optimize maintenance plans and raise equipment reliability and power generation capacity through fine management. Additionally, the introduction of a technical service system covering multiple aspects, such as station design and data analysis, supports informed decision-making. Lastly, the integration of new energy projects, such as agriculture-photovoltaic power, is designed to expand resource capabilities and maintain a competitive edge in resource acquisition.</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>The Group is implementing several strategies to enhance operational efficiency. These include regional maintenance with centralized monitoring and digital empowerment, which ensures full coverage and improved efficiency in operations. The division of labor allows professionals to focus on their areas of expertise, significantly boosting productivity. Additionally, the integration of management, technology, and resources is aimed at improving work quality and staff satisfaction. The use of a production digitalization platform further aids in addressing equipment defects and optimizing power generation potential.</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2879,6 +3588,11 @@
           <t>The company is proactively addressing market fluctuations by establishing a financial market information sharing mechanism with various financial institutions, which helps them stay informed about macroeconomic conditions and market risks. They focus on selecting favorable issuance windows to mitigate interest rate risks associated with market volatility, while also diversifying their financing types and managing product terms effectively. In the face of foreign exchange risks, the company conducts thorough reviews of potential exposures through fund plans and financial statements from overseas subsidiaries, implementing risk hedging strategies as needed. Additionally, by successfully issuing over RMB 8 billion in green loans and 12 ultra short-term debentures in the first half of 2024, the company is maintaining a competitive edge in capital costs. Overall, their strategy emphasizes careful coordination of development and security, especially in overseas new energy markets.</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>The company is addressing market fluctuations by establishing a financial market information sharing mechanism with various financial institutions, which helps in monitoring macroeconomic factors and interest rate risks. They are actively increasing the types of financing available and strategically selecting favorable issuance windows to mitigate risks associated with acute market volatility. The Group is also adapting to the evolving electricity market by enhancing their operational strategies in response to policy changes and market reforms. Additionally, they are exploring new ways for distributed energy to engage in market transactions, ensuring a fair and orderly process. Overall, these measures aim to reduce liquidity risk and stabilize the company's financial performance amidst fluctuating economic conditions.</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2891,6 +3605,11 @@
           <t>The retrieved context primarily discusses risk management strategies, particularly regarding foreign exchange and fuel price fluctuations, rather than directly identifying opportunities for growth. However, the emphasis on consulting with financial institutions and assessing local economic conditions suggests an opportunity for strategic expansion in overseas projects. Additionally, the Group's established coal power plants with a significant capacity of 1,875 MW indicate potential for leveraging existing assets to enhance operational efficiency or explore renewable energy alternatives. The focus on risk aversion and financial stability can also create a foundation for sustainable growth. Overall, future growth may hinge on careful project selection and risk management in international markets.</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>The key opportunities for future growth identified include the development of large bases and the acquisition of offshore project indicators. The Company aims to strengthen the integration of regional resources to enhance operational efficiency. Additionally, there is a focus on promoting new business initiatives and optimizing project design schemes. The emphasis on overseas projects in key areas also presents significant growth potential. Overall, these strategies are aimed at expanding the Company's footprint and mitigating risks associated with foreign exchange and liquidity.</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2903,6 +3622,11 @@
           <t>The retrieved context does not provide specific comparative performance data regarding the company and its competitors. However, it highlights that China's GDP grew 5.0% year-on-year in the first half of 2024, indicating a stable economic environment that could benefit all players in the industry. The company's focus on building a world-class new energy platform suggests a strategic alignment with trends in energy consumption and green development, potentially positioning it favorably against competitors. Without direct statistics or data on competitors’ performance, it's challenging to draw precise comparisons. Overall, the company appears to be pursuing a proactive approach to enhance its competitive edge in the evolving market.</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>The company reported a net profit of RMB4,692 million in the first half of 2024, down 19.6% from RMB5,837 million in the same period of 2023, indicating a decline in performance. While the overall economic environment showed a GDP growth of 5.0%, the company faced challenges such as insufficient domestic demand and a complex external environment. Comparatively, its competitors may be experiencing varying levels of profitability, particularly those engaged in new energy sectors, which are currently expanding rapidly. However, without specific financial metrics from competitors, a direct comparison is difficult. Overall, the company's performance reflects a need for strategic adjustments to enhance competitiveness amid economic recovery challenges.</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2915,6 +3639,11 @@
           <t>The company is likely to be impacted by several market trends, including the increasing demand for green energy solutions and sustainable financing options, as evidenced by its successful issuance of over RMB 8 billion in green loans. The ongoing international cooperation initiatives, particularly under the Belt and Road Initiative, indicate a trend towards expanding into overseas new energy markets, which may enhance global influence. Additionally, the focus on digitalization and integration will likely shape competitive advantages in the new energy sector. The emphasis on low-carbon transitions reflects a broader market shift towards sustainability and regulatory compliance. Overall, these trends suggest that adapting to evolving energy policies and international collaborations will be crucial for the company's future operations.</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>The company is likely to be impacted by the ongoing electricity market-oriented reforms, which are accelerating the restructuring of the market value system. The rapid expansion of the new energy market, particularly with the construction of a spot market, will influence pricing and competition dynamics. Additionally, the implementation of coal-fired power capacity tariffs may affect profitability and operational strategies. As the company aims to enhance its global influence, trends in international market coordination will also play a critical role. Overall, the focus on innovation and efficiency in new energy development will be vital for maintaining a competitive edge in a rapidly evolving market landscape.</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2927,6 +3656,11 @@
           <t>The company’s strategic direction emphasizes innovation and adaptation to the evolving new energy sector, aligning well with industry trends focused on sustainability and efficiency. By prioritizing the "two-high-one-low" approach—high quality, high speed, and low cost—the company reflects the industry's demand for cost-effective and efficient energy solutions. Furthermore, the focus on integrating digitalization and internationalization aligns with global trends towards modernization and global market reach. The dedication to environmental protection and resource conservation demonstrates a commitment to sustainable practices, which is increasingly vital in the energy sector. Overall, the company positions itself as a leader in the transition to low-carbon energy, enhancing its competitive advantage in the global market.</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>The company's strategic direction aligns with industry developments by focusing on new energy technology and digital transformation, which are critical trends in the energy sector. With the launch of 47 new projects in the first half of 2024, the company demonstrates its commitment to scaling operations and innovation, reflecting the industry's shift towards more sustainable energy solutions. Additionally, the emphasis on regional collaboration and industrial synergy supports market-oriented reforms, enhancing competitiveness in the evolving electricity market. The integration of environmental protections in construction projects aligns with growing regulatory demands for sustainability. Overall, the company's proactive growth strategy positions it well within the expanding new energy market landscape.</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2939,6 +3673,11 @@
           <t>The regulatory environment significantly influences the company's financial planning and reporting practices. For instance, compliance with the “Interpretation of Enterprise Accounting Standards No.3” dictates how safety production expenditures are recognized, impacting the company's cost structures and retained earnings. Additionally, adherence to International Financial Reporting Standards (IFRS) affects how financial assets, such as equity investments, are classified and measured, thereby influencing profit and loss reporting. The amendments to IAS 7 and IFRS 7 highlight the importance of transparency in supplier finance arrangements, which can affect liquidity risk management. Overall, regulatory requirements shape the company's financial strategies and operational decisions to ensure compliance and optimal financial performance.</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>The regulatory environment plays a significant role in the company's planning by influencing its financial strategies and risk management practices. Compliance with regulations impacts decisions regarding funding, operational practices, and investment in projects, particularly in terms of foreign exchange risk management. The company consults with professional financial institutions to assess regulatory implications on new projects, ensuring alignment with legal requirements. Additionally, the regulatory landscape affects the company's ability to secure necessary banking facilities and credit lines to fund operations and capital expenditures. Overall, adherence to regulations is critical for maintaining operational stability and financial health.</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2949,6 +3688,11 @@
       <c r="B46" t="inlineStr">
         <is>
           <t>The company communicates its value proposition to stakeholders through a clear development strategy focused on "One Goal, Three Roles, and Six Commitments," which emphasizes its commitment to new energy and sustainable growth. It highlights its role as a "Main Force" in various areas such as low-carbon transition, digitalization, and coordinated development, showcasing its dedication to innovative practices. Additionally, the company outlines its objectives to enhance capabilities in strategy implementation and asset management, positioning itself as a world-class new energy enterprise. By focusing on large-scale development and innovation, it conveys a strong message of quality and efficiency improvement. Overall, the communication strategy combines a robust vision with specific actions aimed at creating long-term value for stakeholders.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>The company communicates its value proposition to stakeholders through a clear articulation of its strategic objectives and commitments to innovation in new energy technology. By emphasizing principles such as "inherent safety," "digital transformation," and "proactive growth," it showcases its dedication to sustainable and efficient development. The launch of 47 new projects in the first half of 2024 illustrates its ambitious growth strategy and commitment to expanding its operational footprint. Furthermore, the establishment of robust risk management and compliance systems signals a responsible approach to project execution, enhancing stakeholder confidence. Overall, the company positions itself as a leader in the new energy sector, aiming for large-scale, innovative solutions that meet both market demands and social responsibility.</t>
         </is>
       </c>
     </row>
@@ -2968,6 +3712,11 @@
 5. **Policy Implementation Risks**: The relaxation of utilization rate targets for new energy in favorable resource regions may lead to irrational planning and development risks if not managed properly.</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>The main risks identified in the company's operations relate to the power grids and the challenges associated with the significant increase in the grid-connection scale of new energy during the "14th Five Year Plan" period. This growth presents potential operational difficulties, necessitating careful management and rearrangements in the workforce. Additionally, the company faces risks tied to climate variability impacting project development ratios across different regions. The Board is aware of these factors and is expected to implement countermeasures to mitigate these risks. Overall, the company's strategy includes optimizing project layouts to address these challenges effectively.</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2980,6 +3729,11 @@
           <t>The company mitigates potential risks by implementing a robust safety management system that includes continuous education and skills training to enhance safety culture. It focuses on identifying and preventing new risks, particularly in overseas projects, by conducting thorough risk assessments and establishing early warning systems. Additionally, the company employs proactive measures to manage foreign exchange risks through careful planning and monitoring of financial statements from overseas subsidiaries. It also addresses fuel price volatility by consolidating the operational responsibilities of its coal power plants and adhering to a three-year action plan targeting safety and environmental protection. Overall, the company emphasizes a process-oriented approach to risk management, integrating digital supervision for better control and compliance.</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>The company mitigates potential risks affecting its performance through several strategic approaches. It enhances safety management by implementing new methods and rigorous safety assessments, particularly for overseas operations. Additionally, the company accelerates project development while adhering to a framework focused on safety, digital transformation, and innovation. To address fuel price volatility, it actively monitors coal market dynamics and manages foreign exchange risks to maintain operational stability. Furthermore, the normalization of safety education and skills training is emphasized to reinforce adherence to safety regulations and measures.</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2992,6 +3746,11 @@
           <t>External factors that could disrupt the company's growth strategy include fluctuations in fuel prices, particularly coal, which directly impacts their coal power plants with a combined capacity of 1,875 MW. Additionally, foreign exchange risks may arise during the construction of overseas projects, affecting financial stability and investment returns. Changes in regulatory environments regarding green development and carbon emissions could also pose challenges to their low-carbon transition initiatives. Economic conditions in local markets where they operate can influence overall social and economic dynamics, impacting project viability. Lastly, competition in the energy sector and technological advancements could also threaten the company's strategic positioning and innovation efforts.</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>External factors that could disrupt the company's growth strategy include regulatory changes in energy policies, geopolitical risks affecting overseas investments, and fluctuations in global energy prices. Additionally, supply chain disruptions could hinder the timely execution of new projects, especially as the company focuses on large-scale development. Competition from other companies in the renewable energy sector may also impact market share and profitability. Furthermore, advancements in alternative energy technologies could potentially render existing projects less viable. Lastly, environmental regulations and societal expectations regarding sustainability could impose additional operational constraints.</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3004,6 +3763,11 @@
           <t>The company assesses technological changes in the industry by closely monitoring climate conditions and adapting its project layouts accordingly, which helps mitigate investment risks. It has established a comprehensive performance evaluation system to ensure that employee contributions align with technological advancements and overall economic benefits. Additionally, the company emphasizes safety and environmental protection, implementing a three-year action plan that incorporates digital supervision to enhance process control. By continuously promoting employee growth and leveraging talent, the company ensures that its workforce is capable of adapting to new technologies. Overall, the focus is on optimizing project development and enhancing grid-connection capacity to meet evolving energy demands.</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>The company assesses and responds to technological changes by emphasizing innovation and digital transformation as core principles in its development strategy. It actively explores new safety management methods, such as energy storage and hydrogen ammonia alcohol, highlighting its adaptability to emerging technologies. The focus on "high-level science and technology and self-reliance" positions it as a leader in reform and innovation within the industry. Additionally, the company reinforces its commitment to green development and low-carbon transitions, aligning its operations with current technological trends. By enhancing management to create efficiency and promoting coordinated development, the company ensures it remains competitive and responsive to industry changes.</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3014,6 +3778,11 @@
       <c r="B51" t="inlineStr">
         <is>
           <t>The Group has established contingency plans to address unexpected market conditions, particularly focusing on foreign exchange risk and fluctuations in fuel prices. They conduct thorough reviews of foreign exchange risk through financial data from overseas subsidiaries, allowing for immediate verification of potential risks and formulation of hedging strategies. In terms of fuel price volatility, the Group aims to enhance grid dispatching and actively seek favorable policies to mitigate risk. Additionally, they have created regulations on investment management and risk control for overseas projects to cope with international market uncertainties. Overall, these measures aim to ensure financial stability and operational efficiency amidst changing market dynamics.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>The Group has implemented several contingency plans to address unexpected market conditions, particularly focusing on risk management for overseas projects. These include formulating regulations on investment management, construction operations, and compliance to ensure adherence to safety protocols. In Ukraine, emergency drills and revised emergency response procedures are in place to enhance readiness for unforeseen events. Additionally, a monitoring mechanism for tracking risks in key countries has been established to quickly identify and address potential issues. The Group also conducts thorough reviews of foreign exchange risks related to overseas subsidiaries and develops hedging plans to mitigate these risks.</t>
         </is>
       </c>
     </row>
@@ -3378,7 +4147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3397,6 +4166,11 @@
           <t>ver2</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ver3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3409,6 +4183,11 @@
           <t>JNBY is an influential designer brand fashion house based in China, specializing in contemporary apparel, footwear, and accessories, as well as household products. The company operates a diverse brand portfolio, which includes mature, younger, and emerging brands, each targeting distinct customer segments. As of June 30, 2024, JNBY Group has been in operation for nearly 30 years, emphasizing unique design and aesthetic values. The company is adapting to consumer shifts towards digital consumption and e-commerce, highlighting a trend towards trusted brands that offer quality experiences. Overall, JNBY embodies a commitment to playful, contemporary, and textured design philosophies that resonate with its target demographics.</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>JNBY is a designer brand fashion house based in China that specializes in contemporary apparel, footwear, accessories, and household products. As of June 30, 2024, its brand portfolio includes a mature brand (JNBY), three younger brands (CROQUIS, jnby by JNBY, and LESS), and various emerging brands like POMME DE TERRE and onmygame. The company targets distinct customer segments with each brand having a unique design identity. JNBY emphasizes a philosophy of diversity in its designs, and in 2024, it expanded its offerings by introducing a children's apparel brand, onmygame. Overall, JNBY aims to cater to a broad consumer base across different age groups with its diversified product mix.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3421,6 +4200,11 @@
           <t>JNBY primarily engages in the design, production, and distribution of fashion apparel, focusing on meeting quality and compliance standards through a rigorous supplier review process. The company maintains a network of 666 suppliers, predominantly based in China, with a small number overseas. JNBY emphasizes legal compliance, including organizational certification and intellectual property rights, in its supplier contracts. Additionally, the company is governed by a Board that oversees corporate governance, risk management, and financial matters. Overall, JNBY's activities are centered around ensuring high standards in its supply chain and corporate governance practices.</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific details about the primary business activities of JNBY. However, it highlights the importance of managing financial information, risks, and internal controls, which are relevant for any business, including JNBY. To determine JNBY's core business activities, one would typically refer to its annual report or financial disclosures. Generally, JNBY is known for its involvement in the fashion industry, particularly in designing and retailing clothing. For precise details on their primary business activities, reviewing the "Discussion and Analysis" and "Financial Summary" sections of their annual report would be essential.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3433,6 +4217,11 @@
           <t>The retrieved context does not explicitly mention the target customer demographic for JNBY products. However, given the focus on fashion aesthetics, product knowledge, and customer retention strategies, it can be inferred that the target demographic likely includes fashion-conscious consumers who value quality and service. The emphasis on high customer satisfaction and service quality suggests that JNBY aims to attract and retain customers who appreciate attentive service and a satisfying shopping experience. Additionally, the training initiatives for sales staff imply a focus on engaging customers who seek personalized and knowledgeable assistance in their shopping journey. Overall, while specific demographic data is not provided, the context suggests a target market of discerning fashion consumers.</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>The target customer demographic for JNBY products primarily includes fashion-conscious individuals who appreciate innovative design and quality craftsmanship in clothing and household items. This demographic likely values personalization, as indicated by the company's launch of a micro-customization service. Additionally, the focus on enhancing customer service through trained sales staff suggests a target audience that expects a high level of shopping experience. The expansion into furniture and household products indicates an effort to attract customers interested in lifestyle and home aesthetics. Overall, JNBY aims to appeal to modern consumers who prioritize both style and functionality in their purchases.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3445,6 +4234,11 @@
           <t>JNBY currently outsources the production of all its products to selected domestic OEM suppliers, which allows the company to focus on brand development and marketing strategies. The company has historically generated a significant portion of its revenue from women's apparel but is diversifying its portfolio to include men's apparel, children's apparel, furniture, and household products. To support this expansion, JNBY plans to recruit personnel with expertise in managing different brands and enhance its operational and financial systems. Despite these efforts, there are inherent risks in launching new brands or product categories that may not meet sales expectations. Overall, JNBY's approach requires substantial financial and managerial resources, highlighting the complexities of its manufacturing and product management strategy.</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>JNBY manages its product manufacturing by engaging suitable outsourced OEM suppliers to produce new brands and products. This approach allows the company to leverage external expertise while focusing on its core competencies. Additionally, JNBY is committed to enhancing its operational and financial systems to support the manufacturing process and ensure quality control. The company also emphasizes the importance of substantial planning and skillful execution in its manufacturing strategy. Overall, JNBY's strategy involves significant financial and managerial resources dedicated to developing new products while maintaining a competitive edge in the market.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3457,6 +4251,11 @@
           <t>JNBY's brand portfolio includes several categories targeting distinct customer segments. The main categories are: the mature brand, JNBY; three younger brands, CROQUIS, jnby by JNBY, and LESS; and various emerging brands, such as POMME DE TERRE, JNBYHOME, and the recently acquired children’s apparel brand, onmygame. Each brand is designed to cater to different age groups and consumer preferences, enhancing the diversity of the product offerings. Additionally, JNBY develops new consumption scenarios, such as the "Box Project" and "JIANGNANBUYI+" multi-brand collection stores, to provide more value to consumers. This diversified approach helps JNBY maintain a loyal customer base across various demographics.</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>JNBY's brand portfolio includes several categories, featuring brands such as CROQUIS, jnby by JNBY, and LESS, which were incorporated between 2005 and 2011. From 2016 to 2019, they launched Emerging brands like POMME DE TERRE and JNBYHOME. In 2024, they expanded their offerings by acquiring the children's apparel brand onmygame. This diversification aims to cover a wide range of consumer age groups. Overall, the portfolio encompasses adult fashion, children's apparel, and home-related products.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3469,6 +4268,11 @@
           <t>JNBY differentiates between established, growing, and emerging brands primarily based on their market presence, consumer trust, and the quality of experiences they offer. Established brands typically have a long history and a loyal customer base, while growing brands are gaining traction and expanding their market share through innovative practices and strong branding. Emerging brands are often characterized by their unique designs and potential for rapid growth in niche markets. JNBY emphasizes its commitment to sustainability and social responsibility, which attracts consumers who prioritize ethical consumption. Additionally, the company's focus on coordinated industry development and collaboration with partners enhances its competitive edge among these brand categories.</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>JNBY differentiates its brand portfolio by categorizing brands into established, growing, and emerging segments based on their market presence and consumer appeal. Established brands, like CROQUIS and jnby by JNBY, have a significant history and consumer trust, generating a stable revenue stream primarily from women's apparel. Growing brands, such as LESS, are newer but have shown potential for increased market share and consumer interest, often appealing to specific demographics. Emerging brands, including POMME DE TERRE and onmygame, focus on innovative products and target niche markets, allowing JNBY to diversify its offerings and appeal to a broader age range. This strategic segmentation helps JNBY navigate competitive pressures while addressing varying consumer preferences and market trends.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3481,6 +4285,11 @@
           <t>Established brands within JNBY are characterized by their strong brand power, which resonates particularly with younger consumers who prioritize quality and sustainability. These brands effectively adapt to market changes, emphasizing personalized and sustainable products to meet rising consumer demand. JNBY's focus on originality in design further enhances its competitive edge, ensuring that products not only meet consumer expectations but also provide unique value. Additionally, the integration of online and offline channels has allowed these brands to thrive in a diversified consumption scenario, fostering trust and loyalty among consumers. Overall, JNBY's established brands leverage both innovation and consumer engagement to solidify their market position.</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Established brands within JNBY are characterized by their strong emphasis on consumer trust and quality experiences, which are crucial in a competitive market. They leverage a diversified retail approach, integrating both online and offline channels to enhance consumer engagement. Additionally, JNBY values compliance in design through rigorous label management processes, ensuring products meet legal and company standards. The brands also focus on board diversity, incorporating varied skills and perspectives to drive strategic objectives. Furthermore, competitive remuneration and incentive programs are in place to attract and retain top talent, reinforcing the brand's commitment to excellence.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3493,6 +4302,11 @@
           <t>The emerging brands are employing several growth strategies, including enhancing employee competencies through targeted training programs that focus on leadership, brand marketing, and innovative content creation. The company has implemented a comprehensive employee development scheme, which not only aims to improve professional skills but also enriches knowledge across various sectors. Additionally, the brands are expanding their retail network by engaging third-party distributors who adopt a consistent brand management model, ensuring a uniform brand image. This distribution strategy is designed to efficiently leverage resources, thereby contributing to increased revenue, market share, and brand awareness. Overall, these strategies are aimed at building a solid foundation for future growth and market presence.</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Emerging brands are adopting several growth strategies to thrive in the evolving market landscape. They are shifting focus towards digital consumption and e-commerce platforms, which play a critical role in reaching consumers. Additionally, brands are enhancing customer trust and experience through comprehensive employee training programs, including leadership and brand marketing. The integration of online and offline channels is emphasized to promote a new retail model that caters to consumers' preferences for personalized and sustainable products. Lastly, the emphasis on a "fan economy" strategy aims to foster brand loyalty among younger consumers, maximizing the potential in segmented markets.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3505,6 +4319,11 @@
           <t>The retrieved context does not provide specific revenue figures or performance metrics for JNBY Design Limited over the fiscal year 2024. However, it indicates that China's economy is experiencing steady growth, which may positively impact consumer demand and, consequently, JNBY's revenue. The report highlights a rising trend for local brands in the apparel market and increasing consumer interest in personalized and sustainable products. While consumer confidence is noted to fluctuate, the overall market dynamics suggest potential for revenue growth. For detailed revenue performance, one would need to refer to the consolidated financial statements mentioned in the report.</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific revenue figures or performance metrics for JNBY over the fiscal year. However, it indicates that the Group's performance has made a "huge breakthrough," suggesting positive revenue growth. The text mentions a focus on sustainable development and optimization of a global retail network, which typically correlates with improved sales performance. Additionally, the economic environment in China is described as maintaining an upward trend, potentially benefiting JNBY's business. For detailed revenue statistics, one would need to refer to the specific financial statements in the Annual Report.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3517,6 +4336,11 @@
           <t>The revenue growth of JNBY Design Limited can be attributed to the stabilization and improvement of China's economy, which showed a steady increase in economic growth. The implementation of policies aimed at expanding domestic demand has reactivated the vitality of the domestic market, contributing positively to sales. Additionally, there has been an observed increase in consumer confidence and desire for consumption, which likely boosted revenue. The company's ability to adapt to these economic changes has also played a role in its financial performance. Overall, these factors have laid a foundation for high-quality development and revenue enhancement for the company.</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>The revenue growth of JNBY can be attributed to several key factors. Firstly, the stabilization and improvement of China's economy, alongside policies aimed at expanding domestic demand, have revitalized the consumer market. Secondly, there has been a notable recovery in consumer demand and confidence, despite some fluctuations. Additionally, the increasing influence of local brands in China’s apparel market has contributed to a diversified consumption trend. Finally, JNBY's focus on high-quality development and shareholder returns has also played a significant role in its financial performance, with revenue reaching RMB 5,238 million, marking a 17.3% increase.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3529,6 +4353,11 @@
           <t>For the fiscal year ending June 30, 2024, JNBY reported a total revenue of RMB 5,238,149, representing an increase from RMB 4,465,124 in the previous year, indicating a revenue growth of approximately 17.3%. During the same period, the segment gross profit increased to RMB 3,470,485 from RMB 2,916,992, which is a growth of about 19%. This indicates that JNBY's gross profit growth outpaced its revenue growth, showcasing improved operational efficiency or cost management. The gross profit margin also reflects a positive trend, suggesting that JNBY has effectively leveraged its increased sales to enhance profitability. Overall, the company appears to be capitalizing on revenue growth more effectively in terms of gross profit generation.</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>JNBY reported a revenue of RMB 5,238 million for Fiscal Year 2024, representing a growth rate of 17.3%. In contrast, the net profit for the same period was RMB 848 million, which increased by 36.5%. Although the revenue shows solid growth, there are indications of challenges affecting profit margins, as suggested by the mention of declines in profit and gross profit margins. This suggests that while revenue is increasing, the rate of growth in gross profit may not be keeping pace due to competitive pressures and fluctuating consumer confidence. Therefore, the overall profitability and margin stability may be under pressure despite the positive revenue trend.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3541,6 +4370,11 @@
           <t>The retrieved context does not provide specific numerical data or trends related to JNBY's gross margin over recent years. However, it does indicate that JNBY has adapted its strategies to market changes, which may positively influence its gross margin. The company's focus on “design-driven” initiatives and investment in brand strength suggests an emphasis on enhancing profitability. Additionally, the recovery of the economy and increasing consumer demand may also contribute to improved margins. For detailed financial performance indicators, one would need to refer to the specific sections of the annual report mentioned.</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific details about JNBY's gross margin trends over recent years. However, it does indicate a general recovery in the economy and a steady increase in consumer demand, which could positively influence gross margins. The ongoing diversification in China's apparel market and the growing influence of local brands may also impact JNBY's pricing strategies and cost management. To assess precise trends in gross margin, access to JNBY's financial statements or additional data would be necessary. Therefore, a direct analysis of gross margin trends cannot be concluded based on the provided information.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3553,6 +4387,11 @@
           <t>The retrieved context does not provide specific details regarding JNBY's selling, general, and administrative (SG&amp;A) expenses or their relationship to revenue. Therefore, we cannot ascertain how these expenses have changed in relation to revenue based on the available information. For a comprehensive analysis, financial statements that include SG&amp;A figures and revenue data would be necessary. If you have additional context or financial data, please share it for a more detailed analysis.</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific information about JNBY's Selling, General &amp; Administrative (SG&amp;A) expenses in relation to revenue changes. Therefore, I cannot directly assess how SG&amp;A expenses have changed relative to revenue. For a comprehensive analysis, one would typically look for data on SG&amp;A expenses as a percentage of revenue over time, trends in revenue growth, and any specific strategic initiatives impacting these costs. If such data were available, it could indicate whether SG&amp;A expenses are increasing or decreasing in proportion to revenue, reflecting operational efficiency or changes in business strategy. Further financial statements or reports would be necessary for a detailed assessment.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3565,6 +4404,11 @@
           <t>The retrieved context does not provide specific financial statistics or details on JNBY's profitability directly attributable to financial costs. However, it indicates that the company has implemented a multi-dimensional assessment of suppliers, which could help mitigate risks and potentially reduce costs related to defective products and delivery issues. Furthermore, the focus on green practices may lead to cost savings in operational expenses over time. The report also highlights a positive economic environment in China, which could enhance overall profitability through increased consumer demand. Lastly, the fluctuating consumer confidence may impact sales, thus affecting profitability indirectly.</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>JNBY reported challenges related to financial costs that contributed to declines in profit and gross profit margin. The rising expenses may have strained profitability, suggesting that the company is facing competitive pressures that could further impact financial performance. Despite the overall upward trend in China's economy, these costs pose a risk to achieving sustainable growth and high-quality development. Additionally, the company's reliance on women's apparel sales means that any adverse effects on this segment could significantly influence overall profitability. Without specific financial statistics, it's clear that managing these costs is crucial for JNBY's future success.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3577,6 +4421,11 @@
           <t>For the year ended June 30, 2024, JNBY reported a total operating profit of RMB 1,194,266, a significant increase from RMB 857,898 in the previous year, indicating a growth of approximately 39.5%. In contrast, the segment gross profit for the same period rose to RMB 3,470,485 from RMB 2,916,992, representing a growth of around 19.0%. This suggests that while both net profit and gross profit grew, net profit growth outpaced gross profit growth by a considerable margin. The increase in operating profit could be attributed to improved operational efficiencies or cost management strategies. Overall, JNBY's performance indicates a stronger improvement in profitability compared to gross revenue generation.</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>In Fiscal Year 2024, JNBY reported a net profit of RMB 848 million, reflecting a substantial growth of 36.5%. In contrast, the gross profit for the same period was RMB 3,470.5 million, which indicates an increase of approximately 49.4%. This suggests that while both net and gross profits experienced significant growth, gross profit growth outpaced net profit growth. The discrepancy may indicate higher operating expenses or other costs impacting net profit relative to gross profit. Overall, JNBY's financial performance demonstrates strong profitability, albeit with a larger increase in gross profit compared to net profit.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3589,6 +4438,11 @@
           <t>JNBY utilizes multiple sales channels to distribute its products, primarily through its own retail outlets and third-party online platforms, such as Tmall.com. Revenue from offline retail sales is recognized when customers accept the product at the store, while online sales revenue is recognized upon the transfer of control to customers. Additionally, JNBY has a loyalty program that allows customers to accumulate points for discounts on future purchases, further enhancing customer engagement. This multi-channel approach allows JNBY to reach a broader customer base and adapt to changing consumer preferences. Overall, combining brick-and-mortar retail with e-commerce positions JNBY to optimize its sales and revenue potential.</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>JNBY employs a multi-channel sales strategy that includes both offline and online retail outlets. Products are sold through the Group's own retail outlets and third-party online platforms like Tmall.com. The company is transitioning towards a more integrated model that combines traditional retail with e-commerce, emphasizing the importance of digital consumption. Additionally, JNBY has launched initiatives such as the “Box Project” and “JIANGNANBUYI+” multi-brand collection stores to enhance customer engagement. This omni-channel approach aims to optimize customer experience and adapt to changing purchasing patterns.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3601,6 +4455,11 @@
           <t>Revenue distribution for the Group varies significantly between retail and online sales channels. For offline retail sales, revenue is recognized at the point of customer acceptance, while for online sales, it is recognized when control of the products is transferred to the customer. The Group also adjusts revenue for expected returns, which can impact overall earnings. Additionally, the introduction of a loyalty program and new consumption scenarios aims to enhance customer engagement and potentially increase revenue from repeat purchases. Overall, the shift towards online retail and diversified consumption scenarios indicates a trend towards greater online revenue generation.</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Revenue distribution varies across sales channels, with significant contributions from both offline and online platforms. The integration of these channels allows for a more comprehensive approach to sales, as consumer preferences increasingly lean towards trusted brands offering quality experiences. The traditional retail stores contribute to revenue at the point of sale, while e-commerce platforms like Tmall.com provide additional revenue streams through online transactions. The omnichannel strategy enhances customer engagement and can lead to increased sales across all platforms. However, specific statistics detailing the exact revenue proportions from each channel were not provided in the retrieved context.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3613,6 +4472,11 @@
           <t>The growth in offline and online sales was primarily driven by an increase in same store sales of offline shops and an expansion in online channel sales. The total revenue for Fiscal Year 2024 rose to RMB5,238.1 million, reflecting a 17.3% increase from the previous year. Additionally, the number of standalone retail stores grew from 1,990 to 2,024, enhancing the brand's market presence. The recovery of the economy and rising consumer demand for personalized and sustainable products also played significant roles. Furthermore, the integration of online and offline channels facilitated a more diversified shopping experience for consumers.</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>The growth in offline and online sales can be attributed to several key factors. Firstly, the increase in same-store sales of offline shops indicates stronger consumer demand in physical retail spaces. Additionally, the growth in online sales channels reflects a shift in consumer shopping behavior towards digital platforms. The expansion of the retail network, with standalone stores rising from 1,990 to 2,024, has also enhanced accessibility for customers. Furthermore, improved macroeconomic conditions, such as the recovery of the economy and heightened consumer confidence, have contributed positively to sales growth.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3625,6 +4489,11 @@
           <t>JNBY measures the performance of its retail stores primarily through revenue recognition at the point of sale, which occurs when customer acceptance is reasonably estimated. This involves tracking sales made directly to end customers through the company's retail outlets and online platforms like Tmall.com. The company also adjusts revenue for expected returns, ensuring accurate financial reporting. Additionally, the performance may be influenced by customer loyalty programs that incentivize repeat purchases. As of June 2023, trade receivables indicate a slight decline from RMB 144,721,000 to RMB 143,116,000, suggesting stable performance in sales collection from department stores.</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>JNBY measures the performance of its retail stores primarily through same-store sales growth, which reflects the increase in sales from established locations. Additionally, the company evaluates revenue generated from both offline and online sales channels, ensuring that the total revenue is net of rebates, returns, and taxes. For Fiscal Year 2024, JNBY reported a total revenue of RMB5,238.1 million, up 17.3% from the previous year, largely attributed to the performance of offline shops and online channels. The effectiveness of their customer loyalty programs may also play a role in assessing store performance. Ultimately, JNBY's revenue recognition policy, which acknowledges sales upon customer acceptance, indicates a focus on actual sales transactions to measure performance.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3637,6 +4506,11 @@
           <t>The retrieved context does not explicitly mention membership programs or their role in JNBY's sales strategy. Therefore, based on general industry practices, membership programs typically enhance customer loyalty and retention, encouraging repeat purchases through exclusive benefits. Such programs can also provide valuable customer data for personalized marketing, improving overall sales effectiveness. Additionally, they may facilitate community engagement and brand advocacy among members. For specific details on JNBY's approach to membership programs, further information would be required.</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Membership programs at JNBY are central to their sales strategy, facilitating the transition of potential customers into loyal fans through targeted engagement. By utilizing an omni-channel interactive platform, JNBY enhances customer experience across physical stores and online channels, including social media. The "JNBY Fans Economy" strategy emphasizes lifestyle alignment, fostering a community that encourages repeat purchases. Additionally, membership operations are part of a broader brand marketing strategy, which includes maintaining store image and public relations. Overall, these programs drive customer loyalty and contribute to sustainable revenue growth.</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3649,6 +4523,11 @@
           <t>The retrieved context does not provide specific statistics or details regarding the contribution of members to JNBY's total retail sales. It primarily discusses overall revenue figures, growth in same-store sales, and the expansion of retail outlets. However, it highlights a significant increase in total revenue for Fiscal Year 2024 by 17.3%, driven by offline and online sales growth. To assess the specific contribution of members, additional data regarding member sales versus total retail sales would be necessary. Without that information, the significance of members' contributions cannot be quantified.</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific statistics regarding the contribution of members to JNBY's total retail sales. However, it mentions that the Group adjusts revenue based on estimated returns from sales, indicating that sales performance is closely monitored. The right of return offered to distributors and end customers also suggests that members play a significant role in sales dynamics. Without explicit numerical data, it is difficult to quantify their exact contribution. Overall, the context implies that members are an important factor in the sales process, though specific contributions remain unspecified.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3661,6 +4540,11 @@
           <t>The retrieved context does not provide any information regarding the trends in the number of active member accounts. It primarily focuses on goodwill allocation, impairment testing, and accounting policies for property, plant, and equipment. For insights on active member accounts, additional data or context would be required. Please provide relevant information or specify another area of interest.</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific information regarding trends in the number of active member accounts. It focuses primarily on asset management, depreciation, and lease accounting. Therefore, without additional data or context related to member accounts, I cannot identify any trends. Further information would be necessary to analyze membership dynamics effectively.</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3673,6 +4557,11 @@
           <t>JNBY encourages customer loyalty through its membership program by offering a rewards system where members accumulate points with each purchase, which can be redeemed for discounts on future purchases. The program is structured into different tiers, such as Silver and Gold Members, providing exclusive benefits like customized styling services and various privileges. Additionally, the company enhances member engagement through events like Members' Festivals, which feature shopping rushes and lotteries for points. Regular upgrades to membership benefits, including interactive activities and special discounts, further incentivize continued participation. This multi-faceted approach fosters a stronger connection between the brand and its customers, enhancing loyalty and retention.</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>JNBY encourages customer loyalty through its membership-based program by allowing customers to accumulate reward points for their purchases, which can be redeemed for discounts on future purchases. This incentivizes repeat buying and enhances customer engagement. Additionally, the company conducts regular follow-up visits to gather customer feedback, ensuring that their demands are met. JNBY also invests in the professional development of its customer service staff, improving their ability to address customer needs effectively. Overall, these strategies are designed to foster a sense of belonging and appreciation among customers, driving loyalty and satisfaction.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3685,6 +4574,11 @@
           <t>The retrieved context does not provide specific information regarding the current cash position of JNBY. It mentions a subscription for short-term financial products of RMB 50,000,000 and capital contributions to a venture capital fund totaling RMB 10,500,000, but lacks details on cash reserves or balances. Additionally, information on cash flow or liquidity ratios is not included. Therefore, without direct financial statements or cash position data, an accurate assessment of JNBY's current cash position cannot be determined. For precise figures, consulting the latest financial statements would be necessary.</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific information regarding the current cash position of JNBY, such as cash balances or liquidity ratios. However, it does mention that the Group paid a cash consideration of RMB80,720,281 in Fiscal Year 2024. Additionally, the context highlights exposure to fluctuations in exchange rates and the nature of operations primarily in RMB. Without explicit figures on cash reserves or other relevant financial metrics, it's challenging to provide a precise assessment of JNBY's current cash position. Further financial statements or reports would be necessary for a conclusive analysis.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3697,6 +4591,11 @@
           <t>The retrieved context does not provide specific statistics or detailed figures regarding JNBY's cash flow from operating activities over recent years. However, it highlights the company's significant performance breakthroughs and adaptations to market changes, suggesting a positive trend in financial health. The emphasis on strategies like "design-driven" and "multi-brand large-scale development" indicates a focus on sustainable growth, which could positively impact cash flow. Additionally, the note about consumer demand and market conditions suggests that JNBY is well-positioned to enhance its cash flow moving forward. For precise figures, it would be necessary to consult the financial statements in the annual report.</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific statistics or figures regarding JNBY's cash flow from operating activities over recent years. However, it mentions that the company's performance has made a significant breakthrough, indicating potential improvement in financial health. The upward trend of China's economy and the effective implementation of policies to expand domestic demand may have positively impacted JNBY's cash flows. For a detailed analysis, one would need to refer to the financial statements in the Annual Report, particularly the Management Discussion and Analysis section. Overall, while specific cash flow data is lacking, the context suggests a favorable trend.</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3709,6 +4608,11 @@
           <t>JNBY manages its financial assets by classifying them into measurement categories, specifically focusing on fair value and amortised cost. Debt investments are reclassified only when there is a change in the business model for managing those assets. The Group recognizes financial assets on the trade date and derecognizes them when the rights to cash flows have expired or been transferred, ensuring that risks and rewards of ownership are also transferred. Initial measurement of assets is at fair value, with transaction costs included for non-FVPL assets. Overall, JNBY's approach emphasizes careful classification, recognition, and measurement to effectively manage its financial liabilities.</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>JNBY Design Limited manages its debt and financial liabilities primarily by ensuring that it has a legally enforceable right to offset current tax assets and liabilities, which allows for net settlement. The company maintains a structured approach to capital management, aiming to safeguard its ability to operate as a going concern while delivering returns to shareholders. As of June 30, 2023, the borrowings amounted to 100,000, and lease liabilities were reported at 230,975. The Group also utilizes a build-up approach to evaluate leases, incorporating adjustments for risk factors and financing conditions. Furthermore, they recognize financial assets on the trade date, reflecting a proactive stance in managing their financial obligations.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3721,6 +4625,11 @@
           <t>The retrieved context does not provide specific information regarding JNBY's dividend distribution strategy. It focuses primarily on employee training, organizational growth, and consumer market trends rather than financial policies. To assess JNBY's dividend distribution strategy, one would typically look for information on profit retention, payout ratios, and historical dividend payments, none of which are mentioned in the provided text. Therefore, further financial reports or official communications from JNBY would be necessary to answer this question accurately.</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>The retrieved context does not explicitly mention JNBY's dividend distribution strategy. However, it emphasizes the company's commitment to sustainable growth, employee development, and a people-oriented approach, suggesting that any potential dividends would likely align with long-term value creation rather than short-term payouts. JNBY focuses on building a strong brand and customer loyalty through various training and engagement strategies, which may impact its financial decisions. Additionally, by prioritizing sustainability and community engagement, JNBY may reinvest profits into these areas rather than distributing them as dividends. Therefore, any dividend strategy may be contingent on maintaining these commitments while ensuring profitability.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3733,6 +4642,11 @@
           <t>For the fiscal year ended June 30, 2024, the total dividend per ordinary share is HK$1.71, which includes a final dividend of HK$0.86, an interim dividend of HK$0.46, and a special interim dividend of HK$0.39. This represents an increase compared to the previous fiscal year, where the dividends were RMB5,238 million and RMB848 million, showing growth rates of 17.3% and 36.5%, respectively. The overall trend indicates a positive shift in shareholder returns, aligning with the Group's focus on high-quality development. The increase in dividends reflects the Group's confidence in sustained consumption growth and improved economic conditions. Thus, the current payout is notably higher than in previous years.</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>The current dividend payout has seen adjustments due to the unexpected falling interest rates in the PRC and the Group's cash flow situation, leading to the remittance of additional PRC dividends and special interim dividends. The directors have indicated that these adjustments are one-off events, suggesting the Group will return to its general annual dividend policy moving forward. Although the specific payout figures for previous years are not detailed in the retrieved context, the emphasis on cash management and shareholder expectations indicates a responsive approach to changing financial conditions. Overall, the current dividend strategy reflects a balance between immediate cash needs and long-term policy adherence. Further historical data would be needed to quantitatively compare current payouts to previous years.</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3745,6 +4659,11 @@
           <t>JNBY's decision on dividend payout ratios is influenced by several key factors, including its profitability, cash flow, and overall financial health. The company assesses its earnings and operational performance to determine sustainable dividends. Additionally, the need to retain earnings for future growth and investment opportunities plays a crucial role. Management also considers the credit risk associated with receivables and the need for liquidity to manage potential defaults. Finally, market conditions and shareholder expectations may also influence the final decision on the payout ratio.</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>JNBY's decision on dividend payout ratios is influenced by several factors, including financial performance indicators, the overall economic environment, and potential risks and uncertainties related to their business operations. The Group's ability to maintain a going concern is critical, as any material uncertainty may affect how much profit can be distributed as dividends. Additionally, the effectiveness of policies aimed at expanding domestic demand can impact revenue and profitability, thereby influencing dividend decisions. The management also considers the reasonableness of accounting estimates and the financial health of the company when determining payout ratios. Overall, a combination of internal financial metrics and external market conditions shapes their dividend policies.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3757,6 +4676,11 @@
           <t>Management expects revenue growth in the coming fiscal year to be positively influenced by the stabilization and improvement of China's economy. The implementation of policies aimed at expanding domestic demand is anticipated to rejuvenate the market, contributing to high-quality development for enterprises. Furthermore, an increase in consumer confidence and desire for consumption is expected to drive demand. While specific revenue growth targets are not mentioned, the overall economic conditions suggest a favorable outlook for revenue growth.</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific information regarding management's expectations for revenue growth in the coming fiscal year. It primarily discusses operational details related to property, plant, equipment, and sustainability initiatives, such as water consumption reduction targets. There are mentions of revenue recognition based on sales contracts and volume rebates, but no explicit growth targets or projections are outlined. For accurate revenue growth expectations, further details from the consolidated financial statements or management commentary would be required.</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3769,6 +4693,11 @@
           <t>JNBY plans to adapt to changes in consumer behavior by actively seizing market opportunities and remaining responsive to market changes. The company emphasizes a "design-driven" approach and multi-brand large-scale development to cater to diverse consumer preferences. Additionally, JNBY is focused on enhancing brand strength and investing in sustainable, large-scale multi-brand development. They are also optimizing their retail network to be more fan-focused, which aligns with the increasing consumer desire and confidence observed in the recovering economy. Overall, JNBY's strategy combines innovation, diversity, and a customer-centric approach to meet evolving consumer demands.</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>The retrieved context does not explicitly detail JNBY's strategies for adapting to changes in consumer behavior. However, it emphasizes a commitment to social responsibility and community engagement, which may reflect an understanding of evolving consumer values towards sustainability and philanthropy. By participating in charitable activities and mobilizing employee volunteers, JNBY could enhance its brand image and resonate with socially conscious consumers. Additionally, the company's focus on "business for the good" suggests a potential shift towards incorporating consumer preferences for ethical and responsible practices. Overall, JNBY appears to be aligning its operations with broader societal expectations, which may help it adapt to changing consumer behaviors.</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3781,6 +4710,11 @@
           <t>The retrieved context does not specify any particular targets for Gross Merchandise Value (GMV) that JNBY has set for the upcoming years. It mentions their strategies for sustainable and large-scale development, including a focus on brand strength and a fan-focused retail network. For detailed financial performance indicators and future projections, one would need to refer to the "Management Discussion and Analysis" section of the annual report. Therefore, without specific figures or targets for GMV available in the context, it's not possible to provide a concrete answer.</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific targets for Gross Merchandise Value (GMV) for JNBY in the next few years. However, it mentions the group's commitment to adapt to market changes and seize opportunities, indicating a focus on growth and high-quality development. The context also highlights their long-term strategic goals and initiatives aimed at enhancing sustainability and community engagement. For detailed GMV targets, one would typically refer to the company's official financial reports or press releases. Further information may be required to ascertain specific numerical goals related to GMV.</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3793,6 +4727,11 @@
           <t>JNBY plans to sustain growth in its existing brands by enhancing organizational capabilities and strategically managing human resources to meet talent needs. They aim to motivate employees to improve their expertise through updated job grade systems that offer broader development channels. By focusing on personalized and sustainable products, the company seeks to capitalize on the increasing demand from consumers, particularly younger demographics drawn to strong brand awareness. Additionally, JNBY recognizes the shift towards digital consumption and the importance of e-commerce platforms, integrating online and offline channels to boost sales. This approach aligns with the broader trend of diversified consumption and the growing influence of local brands in China’s apparel market.</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>JNBY plans to sustain growth in its existing brands by focusing on personalized and sustainable products to meet rising consumer demand, particularly among younger demographics who prefer brands with strong awareness. The company aims to enhance its organizational capabilities and motivate employees, aligning talent development with strategic goals. Additionally, JNBY is adapting to a diversified consumption landscape by integrating digital and e-commerce platforms, which are increasingly important as consumers shift from traditional retail. This approach allows JNBY to deepen its market presence and connect with consumers who value quality experiences from trusted brands. Overall, the combination of strategic internal development and responsiveness to market trends positions JNBY for continued growth.</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3805,6 +4744,11 @@
           <t>JNBY's strategic priorities moving forward include enhancing corporate governance and ensuring effective financial reporting through a robust Audit Committee. The company emphasizes the importance of gender diversity in management, achieving a notable 57% representation of female management by the end of the fiscal year, which reflects its commitment to gender equality and inclusion. Additionally, JNBY is integrating Environmental, Social, and Governance (ESG) factors into its business strategy to promote sustainable development. The focus on business ethics and information security underscores their commitment to long-term growth and operational integrity. These priorities aim to strengthen stakeholder engagement and foster a culture of excellence.</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>JNBY's strategic priorities moving forward include enhancing financial reporting transparency and ensuring the integrity of its consolidated financial statements. The company aims to continuously upgrade its information technology systems to support growth and operational efficiency. Additionally, JNBY emphasizes the importance of strong relationships with suppliers, requiring them to meet specific standards regarding organizational certification and confidentiality. Another priority is maintaining a focus on the brand philosophy, targeting both end consumers and potential customers to strengthen market presence. Overall, these strategies aim to support sustainable growth and mitigate risks associated with business operations.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3817,6 +4761,11 @@
           <t>JNBY views the potential of newly acquired brands as a significant opportunity for growth within the competitive fashion market. The Group emphasizes "multi-brand large-scale development," indicating a strategic focus on expanding its brand portfolio. By strengthening brand equity and enhancing its retail network, JNBY aims to optimize the performance of these brands. Furthermore, the Group's commitment to a “design-driven” approach suggests that they believe in the potential to innovate and elevate the newly acquired brands. Overall, JNBY appears to actively seek to leverage these acquisitions to enhance its market position and drive sustainable growth.</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>JNBY views the potential of newly acquired brands positively, considering the equity investment as beneficial for diversifying its designer brand portfolio. The acquisition aligns with the company's strategy to enhance its offerings in contemporary apparel, footwear, and accessories. By integrating brands like Huiju, which operates on the mygame platform, JNBY aims to broaden its market presence and appeal to a wider customer base. This strategic move is expected to contribute to the company's growth in the competitive retail landscape. Overall, the investment reflects JNBY's commitment to expanding its brand portfolio and driving future performance.</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3829,6 +4778,11 @@
           <t>External market factors that could impact JNBY's performance include economic fluctuations, regulatory changes, and shifts in consumer preferences. Economic downturns can lead to reduced consumer spending, affecting sales revenue. Changes in regulations, such as stricter labor laws or environmental policies, may increase operational costs or necessitate adjustments in business practices. Additionally, competition in the fashion retail industry can influence market share and pricing strategies. Lastly, global supply chain disruptions, such as those caused by geopolitical tensions or pandemics, could adversely affect inventory and production capabilities.</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>External market factors that could impact JNBY's performance include technological advancements and the potential for breakdowns in information technology systems, which could disrupt operations. Additionally, the ability to successfully implement new software and advanced IT systems is crucial; failures in this area could lead to increased capital expenditures and operational inefficiencies. Economic conditions, such as changes in consumer spending and the overall retail environment, may also affect sales performance. Moreover, compliance with evolving regulations related to environmental, social, and governance (ESG) practices can impose additional operational challenges. Lastly, competition within the retail sector could influence market share and profitability.</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3841,6 +4795,11 @@
           <t>JNBY plans to address macroeconomic challenges by focusing on employee welfare and sustainability, thereby enhancing workforce stability and productivity. The company offers a variety of benefits to employees, including additional leave types and financial assistance for housing, which helps attract and retain talent. Furthermore, JNBY actively engages in industry exchanges to stay informed on sustainable development trends and challenges, positioning itself as a leader in the sector. Through charitable contributions, amounting to approximately RMB1.67 million in the fiscal year, JNBY also supports social progress, which can foster a positive brand image amidst economic fluctuations. Overall, their strategy emphasizes a balance between employee satisfaction and environmental sustainability to navigate macroeconomic uncertainties.</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>JNBY plans to address macroeconomic challenges by focusing on team cohesion, innovation, and social responsibility, which are emphasized in employee engagement initiatives. The company is committed to maintaining robust supplier relationships by conducting thorough reviews to mitigate risks that could affect cooperation. Additionally, JNBY invests in safety training and emergency preparedness to enhance employee resilience in challenging economic conditions. The organization actively participates in industry exchanges and discussions at significant forums to stay informed on future trends and strategies. This proactive approach aims to foster coordinated development within the industrial chain, ensuring the company's adaptability in a fluctuating macroeconomic environment.</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3853,6 +4812,11 @@
           <t>JNBY has several competitive advantages in the fashion industry, particularly through its commitment to sustainability and innovative materials. The use of eco-friendly materials, such as mycelium and waste paper, not only enhances product appeal but also aligns with growing consumer demand for environmentally responsible products. Additionally, JNBY prioritizes suppliers who adhere to green energy and low-pollution practices, ensuring a sustainable supply chain. Their transparent practices in supplier management and a strong focus on employee rights further bolster their brand reputation. Overall, JNBY's blend of artistic design, sustainability, and ethical practices positions it favorably in a competitive market.</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>JNBY possesses several competitive advantages in the fashion industry, primarily through its commitment to sustainability and innovative use of materials. The brand effectively utilizes leftover materials from production processes, such as down flakes and yak wool, which not only enhances raw material utilization but also promotes eco-friendly practices. Additionally, JNBY's collaboration on projects like the Yak Wool Industry Revitalisation Project positions it as a pioneer in sustainable fashion in China. Their long-term focus on uniqueness and diversity allows them to adapt to market changes and create a strong brand identity. Overall, JNBY's blend of sustainability, innovation, and market adaptability strengthens its competitive edge.</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3865,6 +4829,11 @@
           <t>JNBY emphasizes product design as a core element of its strategy by focusing on unique aesthetic views that cater to diverse consumer preferences. The company maintains a brand philosophy of "Just Naturally Be Yourself," allowing each brand under its portfolio to have distinct designs that target different customer segments. This approach not only enhances brand differentiation but also fosters a strong emotional connection with consumers seeking individuality through fashion. JNBY's commitment to high product quality and timely fulfillment of orders is crucial for maintaining its brand image amidst evolving fashion trends. Overall, the design-driven strategy is essential for building a loyal customer base in the competitive designer fashion market.</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>JNBY emphasizes product design by offering a diverse range of brands, each with unique designs and features tailored to different consumer groups. This strategy allows JNBY to appeal to a broad market segment, enhancing brand loyalty among consumers seeking quality and trustworthy products. Additionally, the integration of online and offline channels in their new retail model promotes an immersive shopping experience, further highlighting the importance of thoughtful design. The focus on quality experience through well-designed products aligns with consumer trends favoring established and reliable designer brands. Overall, JNBY's strategy underscores the critical role of innovative and appealing product design in capturing market opportunities.</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3877,6 +4846,11 @@
           <t>JNBY evaluates its overall business performance through a comprehensive assessment system encompassing multiple dimensions. The evaluation team conducts annual assessments focusing on contract performance, manual evaluations of suppliers, and objective data from third-party platforms and factory audits. Specific metrics include contract performance rate and defective product rate, alongside qualitative measures such as supplier cooperation and innovation capabilities. The Board regularly reviews the company's ESG strategy and progress to ensure alignment with sustainable development goals. This multi-faceted approach ensures that JNBY maintains high-quality standards and meets stakeholder expectations effectively.</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>JNBY evaluates its overall business performance through a comprehensive supplier assessment conducted annually, focusing on three main dimensions: contract performance, manual evaluations, and objective data from third-party sources. Key metrics include contract performance rates and defective product rates to ensure quality standards. Additionally, the company emphasizes supplier development capabilities and long-term partnership potential. The organization also invests in employee training, having conducted nearly 100 training sessions in the last fiscal year to enhance employee skills and operational effectiveness. This multifaceted approach aims to align supplier performance and employee capabilities with JNBY's business objectives.</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3889,6 +4863,11 @@
           <t>To assess JNBY's financial health, several key metrics are important. Firstly, revenue growth and profit margins provide insight into sales performance and operational efficiency. Secondly, cash flow from operations indicates the company's ability to generate cash to fund its activities and investments. Thirdly, debt-to-equity ratio is critical for understanding the company's leverage and financial stability. Lastly, inventory turnover rates can highlight how effectively JNBY manages its inventory, impacting overall profitability.</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>To assess JNBY's financial health, key metrics include the quality of its financial reporting and the effectiveness of its internal controls, as overseen by the Audit Committee. The company emphasizes adherence to relevant laws and regulations, ensuring "zero" mistakes throughout the product lifecycle, which can impact operational efficiency and cost management. Certifications like ISO 9001 indicate strong quality management systems, contributing to customer satisfaction and potential revenue stability. Additionally, employee training and health measures are crucial for talent retention and productivity, influencing overall financial performance. Monitoring lost days due to work injuries can also provide insight into operational disruptions and associated costs.</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3901,6 +4880,11 @@
           <t>JNBY benchmarks its performance against industry standards by actively participating in key industry exchange events, such as the UN Civil Society Conference and the Boao Forum for Entrepreneurs. By engaging with industry leaders, JNBY discusses sustainable development trends and cutting-edge topics, which helps it align its practices with the broader market expectations. Additionally, the company emphasizes its commitment to environmental, social, and governance (ESG) principles, integrating sustainability into its business model. JNBY also focuses on stakeholder needs and expectations, ensuring that its performance metrics reflect both profitability and social responsibility. Lastly, the accumulation of approximately RMB1.67 million in charitable contributions indicates its commitment to social progress, which can be a benchmark for evaluating corporate social responsibility against industry standards.</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>JNBY benchmarks its performance against industry standards through a commitment to sustainability and adherence to various environmental protection certifications such as GOTS, OEKO-TEX®, and Bluesign. The company emphasizes transparency and integrity in its supply chain, which aligns with best practices in corporate governance. Additionally, JNBY focuses on maintaining talent sustainability by promoting equal opportunities and diversity within its workforce. By integrating online and offline channels, they adapt to emerging consumption patterns, further refining their competitive edge. Overall, their approach combines environmental responsibility with a people-oriented business model to enhance long-term success and stakeholder value.</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3913,6 +4897,11 @@
           <t>JNBY faces several financial risks in its business operations, including market risk, which encompasses foreign exchange risk, cash flow and fair value interest rate risk, and price risk. Additionally, the company is exposed to credit risk and liquidity risk, which can affect its ability to meet financial obligations. To manage these risks, JNBY has implemented an overall risk management program that aims to minimize potential adverse effects on its financial performance. Furthermore, the company is also addressing transformational risks associated with climate change and the impact of extreme weather events on operations. The proactive approach includes optimizing climate risk management mechanisms and improving risk assessment processes.</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>JNBY faces several financial risks in its operations, including market risk, which encompasses foreign exchange risk, interest rate risk, and price risk. Additionally, the company is exposed to credit risk and liquidity risk, which could impact its financial stability. Competitive pressures may lead to declines in profit and gross profit margins, affecting overall business performance. The challenges of managing these risks are crucial for maintaining operational success and achieving growth. Furthermore, the expansion of its brand and product portfolio also presents risks that could negatively impact revenue generation.</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3925,6 +4914,11 @@
           <t>JNBY manages operational and financial risks through a comprehensive supplier grading access process that includes strict standards for supplier admission, assessing legal disputes and potential risks. The company emphasizes safety culture development by conducting regular safety training and drills to enhance employees' capabilities in handling emergencies, which mitigates operational risks. Financially, JNBY implements anti-corruption measures, including training for directors and staff, and has established whistle-blowing procedures to ensure compliance with laws and regulations. Monitoring and compliance with these policies are integral to their corporate governance framework, aiming to prevent fraud and enhance transparency. Overall, these strategies collectively contribute to a robust risk management system within the organization.</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>JNBY manages operational and financial risks through multiple strategies, emphasizing safety culture and compliance. They conduct regular safety training and drills to enhance employees' abilities to handle emergencies, thereby minimizing operational risks. Additionally, JNBY meticulously reviews suppliers for potential risks related to legal disputes and business conditions, ensuring that contracts require adherence to organizational standards. They also prioritize information security and privacy, complying with legal obligations to build trust with stakeholders. Furthermore, the company promotes anti-corruption measures and conducts regular training on business ethics to mitigate financial risks associated with unethical practices.</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3937,6 +4931,11 @@
           <t>To mitigate potential downturns in sales, companies like JNBY are focusing on diversifying their product offerings to cater to the rising demand for personalized and sustainable products, particularly among younger consumers. They are also enhancing their online and offline integration to tap into the growing trend of digital consumption and e-commerce platforms. Additionally, JNBY is prioritizing climate risk management, which includes formulating response plans for extreme weather events that could disrupt operations. This comprehensive approach not only addresses potential external challenges but also aligns with consumer preferences for brands that demonstrate strong awareness and responsiveness. Overall, these strategies aim to ensure resilience and adaptability in a fluctuating market environment.</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>To mitigate potential downturns in sales, the Group has implemented several strategies focused on sustainability and risk management. They emphasize a "people-oriented and nature-first" sustainability concept, which aligns with the rising consumer demand for personalized and sustainable products. The management prioritizes the ability to respond to extreme weather events by formulating emergency plans and conducting regular drills to ensure operational resilience. Additionally, the Group is adapting to consumer shifts towards digital and e-commerce platforms, which are increasingly vital for reaching younger consumers. This multi-faceted approach positions the Company to better navigate market fluctuations and maintain sales stability.</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3949,6 +4948,11 @@
           <t>JNBY ensures transparency in its financial reporting through several key mechanisms. The Board conducts annual reviews of corporate governance practices and the effectiveness of shareholders' communication policies, ensuring compliance with regulatory requirements. Additionally, the Audit Committee, comprised of independent non-executive directors, oversees financial reporting and auditing processes. JNBY also engages in regular investor and analyst briefings, allowing for open communication regarding strategic initiatives and operational updates. Finally, the company monitors and implements policies related to anti-corruption and business ethics, contributing to overall transparency and accountability in financial reporting.</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>JNBY ensures transparency in its financial reporting through strict adherence to business ethics and corporate governance practices. The company emphasizes the importance of integrity and compliance, conducting regular training for employees and management to uphold these standards. An Independent Auditor's Report is included in the annual report, reinforcing accountability in financial statements. Additionally, the Board annually reviews the effectiveness of the shareholders’ communication policy to keep it aligned with regulatory requirements and best practices. This comprehensive approach helps build trust with investors and stakeholders.</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3961,6 +4965,11 @@
           <t>Management at JNBY plays a crucial role in shaping the company's strategic direction through systematic oversight and rigorous review processes. Key management personnel, including the CEO, COO, CMO, and CFO, are integral to the Group Creative Design Review Management Group, which ensures that design decisions align with corporate strategy and legal compliance. Additionally, management is responsible for aligning employee training programs with the company's strategic goals, fostering a learning organization. They also emphasize integrity and compliance by implementing strict review systems during talent selection and promotion, thereby influencing the overall corporate culture. Collectively, these efforts contribute to enhancing JNBY's competitiveness and integrity in the market.</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Management at JNBY plays a crucial role in aligning employee training programs with the company's corporate strategy, ensuring that training is systematic, institutionalized, and efficient. The core management team, which includes the CEO, COO, CMO, and CFO, is responsible for reviewing product design and marketing strategies, incorporating legal and professional insights into the decision-making process. Additionally, management emphasizes the importance of anti-corruption and integrity, facilitating regular compliance training for employees to foster an ethical corporate culture. By promoting continuous learning and development, management enhances employee competencies, which supports the company's growth objectives. Overall, management's strategic oversight is vital in creating a cohesive and compliant organizational framework that drives JNBY's success.</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3973,6 +4982,11 @@
           <t>JNBY engages with its stakeholders through active participation and dialogue, listening to their suggestions to build a collaborative blueprint for the company. They maintain close interactions with business partners and participate in important industry exchange events, such as the UN Civil Society Conference and the Boao Forum for Entrepreneurs, discussing sustainable development trends. The company emphasizes transparency and integrity in its operations, fostering trust among stakeholders. Additionally, JNBY promotes gender diversity in management, with 57% of management roles held by women, reflecting its commitment to inclusion. Overall, JNBY's stakeholder engagement is rooted in collaboration, communication, and a focus on social responsibility.</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>JNBY engages with its stakeholders through a structured corporate governance framework that emphasizes transparency, responsibility, and active participation. The company values stakeholder opinions and actively seeks suggestions to improve its operations and governance practices. Additionally, JNBY maintains close interactions with business partners, promoting collaboration through industry exchanges and empowerment initiatives. To foster a diverse and inclusive environment, JNBY has implemented a Recruitment Management System that ensures fair treatment among employees and applicants. Furthermore, the company demonstrates its commitment to social responsibility by making charitable contributions totaling approximately RMB1.67 million in the fiscal year.</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3985,6 +4999,11 @@
           <t>JNBY has implemented several initiatives aimed at promoting sustainability and addressing climate-related issues. The company prioritizes sourcing sustainable raw materials, favoring suppliers that utilize green energy and environmentally friendly production processes. Additionally, JNBY is actively engaged in industry exchanges, participating in significant forums such as the UN Civil Society Conference to discuss sustainable development trends. The organization also emphasizes employee rights and welfare, ensuring a safe workplace while promoting diversity and equal opportunities. In the fiscal year, JNBY has contributed approximately RMB 1.67 million to charitable donations, reflecting its commitment to social progress and well-being.</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>JNBY is committed to maintaining a sustainable supply chain by adhering to fair procurement practices and emphasizing ethical cooperation with suppliers. The company focuses on both product quality and the environmental and social impacts of its production processes. It actively promotes sustainability concepts among its suppliers to encourage responsible practices. Additionally, JNBY recognizes the importance of team cohesion, innovation, and social responsibility among its employees, fostering a culture that values individual contributions and growth. Overall, JNBY aims for long-term healthy growth while fulfilling its social responsibilities and creating value for its stakeholders.</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3995,6 +5014,11 @@
       <c r="B51" t="inlineStr">
         <is>
           <t>JNBY addresses social responsibility through its established ESG strategy, which emphasizes sustainable development and stakeholder engagement. The company actively incorporates stakeholder expectations into its operations, ensuring that concerns related to product quality, safety, and compliance are prioritized. Regular reviews by the Board help to monitor and improve the ESG goals and practices, reinforcing the company's commitment to social responsibility. Additionally, JNBY promotes diversity and inclusion as part of its corporate values, fostering an environment where various perspectives are respected. Overall, JNBY's approach reflects a dedication to ethical practices and community engagement.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>JNBY addresses social responsibility by actively engaging in various social welfare activities, such as investing in education, rural revitalization, and children's healthy growth. The company has established a comprehensive ESG strategy that integrates sustainable development into its operations, reflecting its commitment to environmental, social, and governance responsibilities. Furthermore, JNBY promotes ethical business practices by upholding integrity and responsibility within its corporate culture. The Board regularly reviews the company's progress in achieving ESG goals, ensuring accountability and transparency. Overall, JNBY demonstrates its dedication to being a responsible corporate citizen while fostering social progress.</t>
         </is>
       </c>
     </row>
@@ -4359,7 +5383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4378,6 +5402,11 @@
           <t>ver2</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ver3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4390,6 +5419,11 @@
           <t>The retrieved context does not provide specific details about the ownership structure of China Tobacco International (HK) Company Limited. However, it mentions transactions involving China Tobacco International and its parent company, China Tobacco International Group (CTIG), indicating a corporate relationship. The context also references an acquisition of quotas from CTIG, suggesting that CTIG may have significant control or ownership over China Tobacco International. To gain precise insights into the ownership structure, one would need to refer to additional financial disclosures or corporate governance documents.</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide explicit details about the ownership structure of China Tobacco International. However, it mentions connections to various entities under CNTC, including Shanghai Tobacco Group Co., Ltd. and China Tobacco Zhejiang Industrial Co., Ltd. These references suggest that China Tobacco International may be a subsidiary or affiliated entity within a larger corporate structure. Generally, companies in this industry are often state-owned or have significant government involvement, particularly in China. For precise ownership details, further information or company filings would be necessary.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4402,6 +5436,11 @@
           <t>China Tobacco International (HK) Company Limited operates as a subsidiary of the China National Tobacco Corporation (CNTC), focusing on the export and import of tobacco leaf products. Within CNTC's broader framework, CTIHK is responsible for managing international trade aspects, facilitating the procurement and distribution of tobacco products across various regions, including Southeast Asia and Europe. In 2024, CTIHK reported a transaction amount of HK$1,461.3 million under its tobacco purchase agreements, indicating its significant role in resource allocation and supply chain management. The company enhances CNTC's competitiveness by improving operational strategies and expanding its market presence, particularly in Brazil. Overall, CTIHK contributes to CNTC's strategic goals by optimizing global operations and ensuring a steady supply of high-quality tobacco products.</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>China Tobacco International operates as a subsidiary under the umbrella of the China National Tobacco Corporation (CNTC), which is the world's largest tobacco company. Its primary role involves the export and import of tobacco leaf products, facilitating the global distribution of tobacco to various markets, including Southeast Asia and Europe. The company engages in strategic partnerships, such as the Framework Tobacco Sales Agreement with Alliance One International, to enhance its supply chain and customer reach. Additionally, China Tobacco International contributes to the overall performance assessment of CNTC by reporting its revenue across different segments, including export and import businesses. This alignment supports CNTC's objective of optimizing resource allocation and maximizing profitability in the tobacco industry.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4414,6 +5453,11 @@
           <t>The China Tobacco Industrial Corporation primarily engages in the procurement, export, and import of tobacco products. It facilitates connected transactions under various frameworks, such as the Tobacco and Services Purchase Agreement, which resulted in transactions amounting to HK$122.0 million during the reporting period. The company has established non-exclusive agreements to expand its market reach, particularly in Europe. Additionally, it maintains internal pricing policies and procurement procedures to ensure compliance with regulatory requirements. Overall, its functions encompass both operational management and strategic market expansion within the tobacco industry.</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>The China Tobacco Industrial Corporation primarily engages in the procurement, processing, and sale of tobacco leaves. It operates under various agreements, including the Tobacco Leaf Products Export Framework Agreement, which allows for non-exclusive operations in regions outside the Chinese Mainland. The corporation also focuses on agricultural materials inherent to tobacco production, particularly in Brazil, where it sources and processes these materials for global distribution. Additionally, it monitors segment performance and ensures compliance with internal control measures related to connected transactions. Overall, the corporation plays a significant role in the international tobacco supply chain while adhering to established policies and procedures.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4426,6 +5470,11 @@
           <t>China Tobacco International (HK) Company Limited is strategically positioned as a significant player in the tobacco industry through its comprehensive procurement and export operations. In the year ending December 31, 2024, it reported a substantial transaction amount of HK$1,461.3 million for tobacco purchases, indicating robust dealings under its connected transactions framework. The company engages in both exporting tobacco leaf products to various regions, including Southeast Asia and Europe, and importing products to the Chinese Mainland, which diversifies its market reach. Partnerships, particularly with Alliance One Brazil, allow CBT to secure high-quality agricultural materials and processing services, crucial for meeting customer demands. This integrated supply chain approach enhances its competitive edge in the global tobacco market.</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>China Tobacco International is strategically positioned in the tobacco industry through its dual role in both the export and import of tobacco leaf products. The company collaborates with suppliers like Alliance One Brazil to secure high-quality tobacco, thereby enhancing its supply chain efficiency and mitigating risks associated with extreme weather and shipping fluctuations. It operates under the 2021-2024 Tobacco Leaf Products Export Agency Agreements, which allows it to maintain strong relationships within the market. Additionally, by focusing on specific regions such as Southeast Asia and Europe for exports, while importing into the Chinese Mainland, it effectively taps into diverse regional markets. This multifaceted approach not only strengthens its market presence but also allows for better resource allocation and performance assessment across its reportable segments.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4438,6 +5487,11 @@
           <t>China Tobacco International (HK) Company Limited plays a significant role in the international tobacco market by engaging in various export and import businesses. It exports tobacco leaf products to regions such as Southeast Asia, Hong Kong, Macau, Taiwan, and Europe, while also importing tobacco leaf products to the Chinese Mainland from various countries, excluding those under sanctions. Additionally, the company is involved in procuring and processing tobacco in Brazil, distributing both tobacco leaves and agricultural materials globally, excluding the Chinese Mainland. This diversified business model allows China Tobacco International to effectively manage resources and assess performance across its segments. Overall, the company's operations highlight its strategic position within the global tobacco supply chain.</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>The retrieved context does not specifically mention China Tobacco International's role in the international market. However, it highlights the activities of Alliance One International, which engages in the procurement and sale of tobacco leaves to various regions, excluding the Chinese Mainland. This suggests that while China may have a significant domestic market for tobacco, international exports from China are not indicated in this context. Therefore, it can be inferred that China Tobacco International likely plays a limited role in the international tobacco export market, focusing primarily on domestic operations. For a detailed analysis of its specific role, further information would be necessary.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4450,6 +5504,11 @@
           <t>China Tobacco International primarily imports agricultural materials, tobacco leaves, and processing services related to tobacco leaf products. Specifically, the company procures items such as seeds and fertilizers for tobacco production, high-quality tobacco leaf products, and processing services to manufacture these leaves into finished products. These transactions are facilitated under the CBT Framework Tobacco and Services Purchase Agreement with suppliers like Alliance One Brazil. The total transaction amount for these purchases during the reporting period was HK$1,461.3 million. Overall, their operations focus on securing high-quality inputs to meet market demands.</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>China Tobacco International (CTI) primarily imports tobacco leaf products from various origin countries or regions around the world. These products are sourced under the Tobacco Leaf Products Import Business segment, which focuses on bringing in high-quality tobacco leaves for domestic processing and distribution. The procurement process involves negotiations with independent third-party suppliers as well as connected persons, ensuring competitive pricing based on market conditions. The imported tobacco leaf products are crucial to meet the demand within the Chinese Mainland market.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4462,6 +5521,11 @@
           <t>China Tobacco International exports tobacco products to several key markets, including Southeast Asia, Hong Kong, Macau, Taiwan, and the European region. Additionally, it exports cigarettes to Exclusive Operating Regions and New Designated Regions via the CNTC Group. The company also markets new tobacco products globally, excluding the Chinese Mainland. Overall, these regions represent a diverse portfolio for the company's export operations.</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>China Tobacco International exports tobacco leaf products primarily to Southeast Asia, Hong Kong, Macau, Taiwan, and the European region. The export activities are structured under a framework agreement that allows for non-exclusive operations in these markets. The company's engagements include procurement from various suppliers, ensuring a steady supply of high-quality tobacco products. The focus on these regions highlights the company's strategic approach to resource allocation and market penetration. No specific revenue figures were provided in the retrieved context.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4474,6 +5538,11 @@
           <t>The cigarette export business is distinguished by its specific margin requirements, which vary from 1% to 4% based on factors such as product type, crop year, and customer relationships. Additionally, it faces unique challenges such as fluctuations in exchange rates and local taxation at export destinations, which directly impact pricing strategies. Unlike other segments, the export business must navigate import tariffs borne by third-party customers. There is also a noticeable shift in product structure, with an increase in finished tobacco strips that have higher unit prices but lower gross profit margins, compared to tobacco leaf by-products that traditionally yield higher profits. Overall, these factors contribute to a more complex operational landscape for the cigarette export business.</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>The cigarette export business is distinguished by its specific margin structure, which varies based on factors such as product type, crop year, and pricing negotiations, with margins typically ranging from 1% to 4%. Unlike other segments, it faces unique challenges related to export taxes imposed by certain countries, which can affect profitability. Additionally, the cigarette export business utilizes a consistent pricing policy in negotiations with both independent third-party suppliers and connected partners, ensuring stable procurement prices. Furthermore, it is not subject to any export tariffs, providing a competitive advantage in market presence. The segment's performance is monitored separately, allowing for targeted resource allocation and strategic decision-making.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4486,6 +5555,11 @@
           <t>The company engages in the new tobacco products market primarily through its Tobacco Leaf Products Import Business, which includes procuring tobacco leaf products from overseas suppliers and selling these products to CTI for distribution to cigarette manufacturers in China. The company applies a pricing formula that incorporates a margin of 6% on the procurement price when selling to CTI, ensuring competitive pricing based on market conditions and product quality. By obtaining indicative sales terms from potential independent customers, the company effectively aligns its procurement strategy with market demand. Additionally, it actively solicits offers from suppliers and compares terms to select the most favorable options, allowing it to remain agile in responding to market needs. The company also considers unsolicited offers from suppliers, expanding its sourcing flexibility to meet customer demands.</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>The company engages in the new tobacco products market by establishing competitive pricing strategies to expand its market presence while considering prevailing supply and demand conditions. They maintain a margin of at least 1% in their New Tobacco Products Export Business, which accounts for operating costs and early-stage marketing expenses. The company negotiates with international customers and manufacturers to ensure fair pricing, as domestic sales of heat-not-burn tobacco products are prohibited in China, resulting in no reference prices. Additionally, they apply consistent pricing policies when dealing with both independent suppliers and connected persons. Overall, their procurement and pricing strategies are responsive to changes in international market conditions.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4498,6 +5572,11 @@
           <t>China Tobacco International's operations are primarily focused on several key geographical areas. These include Southeast Asia, Hong Kong, Macau, Taiwan, and the European region for its tobacco leaf products export business. For the import business, the company sources tobacco leaf products from various countries worldwide, specifically excluding sanctioned countries and regions. Additionally, there is a notable operation in Brazil, which involves the procurement and sale of tobacco leaves. Overall, the company has a significant presence both in the Asian markets and globally.</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>China Tobacco International operates primarily in several key geographical areas. These include Southeast Asia, Hong Kong, Macau, Taiwan, and the European region for their Tobacco Leaf Products Export Business. Additionally, they conduct their Tobacco Leaf Products Import Business specifically to the Chinese Mainland from various countries worldwide. Furthermore, they have a significant presence in Brazil, focusing on the procurement, processing, and sale of tobacco leaves. This diverse geographical footprint supports their operational strategy and revenue generation.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4510,6 +5589,11 @@
           <t>The primary business model for tobacco leaf imports involves selling imported tobacco leaf products to China Tobacco International (CTI) under a long-term supply agreement. For the period ending June 30, 2024, the Tobacco Leaf Products Import Business generated total revenue of HK$6,802.2 million, representing 100% of its revenue. This model is facilitated by the Tobacco Leaf Products Import Framework Agreement, which outlines the exclusive operational terms for sales. Additionally, the business may involve agency transactions where the company acts as an agent to earn commissions, although these agreements have evolved over time. Overall, the model hinges on structured agreements with key entities within the tobacco industry.</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>The primary business model for tobacco leaf imports revolves around the Tobacco Leaf Products Import Framework Agreement between the Company and China Tobacco International (CTI). This agreement allows the Company to sell imported tobacco leaf products to CTI indefinitely, subject to termination conditions. The pricing policies related to this business are outlined in an approval document that governs adjustments in pricing. Additionally, the Company engages in procurement transactions under long-term supply agreements, ensuring a steady supply of tobacco leaf products. This framework supports the Company's broader activities in tobacco exports and agency sales, enhancing its operational efficiency in the tobacco market.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4522,6 +5606,11 @@
           <t>China Tobacco International manages its supply chain for exports through a structured division of its operations, focusing on specific geographical regions and product categories. The company engages in the export of tobacco leaf products and cigarettes primarily to Southeast Asia, Hong Kong, Macau, Taiwan, and Europe. It also exports new tobacco products to global markets, except for the Chinese Mainland, ensuring compliance with regional regulations. The procurement operations in Brazil further enhance its supply chain by allowing the processing and sale of tobacco leaves sourced locally. Senior management monitors the results, assets, and liabilities across these segments to effectively allocate resources and assess performance.</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>China Tobacco International manages its supply chain for exports by strategically procuring various grades of tobacco leaves to meet the diverse demands of its customers, particularly in Southeast Asia and other regions. The company has established partnerships, such as the Framework Tobacco Sales Agreement with Alliance One International, to broaden its customer base and enhance profit growth. Operational management focuses on strategic planning, budget management, and optimizing resource allocation to improve efficiency. The company also monitors market conditions, including supply and demand for new tobacco products, which currently have a minimum margin of 1% for exports. Overall, the management emphasizes maintaining strong relationships with counterparties while continuously improving its Environmental, Social, and Governance (ESG) performance.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4534,6 +5623,11 @@
           <t>The pricing strategy for tobacco leaf imports is influenced by several key factors. Primarily, it is determined by the pricing document issued by the China National Tobacco Corporation (CNTC), which outlines a formula where the sale price is based on the procurement price plus a commission rate. Additionally, the overall supply chain dynamics, including demand from buyers like China Tobacco International (CTI), play a crucial role in setting prices. Market conditions, including competition and regulatory changes, can also affect pricing strategies. Lastly, the terms of the long-term supply agreements can provide stability or flexibility in pricing based on market fluctuations.</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The pricing strategy for tobacco leaf imports is influenced by several key factors. These include the suppliers' costs associated with processing, which encompass raw materials, utilities, rent, storage, and staff expenses. Additionally, prices are determined through arm's length negotiations, reflecting market conditions such as supply and demand dynamics for new tobacco products. The relationship with counterparties also plays a crucial role in shaping pricing. Lastly, the company considers competitive pricing to enhance its market presence, with current margins in the New Tobacco Products Export Business set at a minimum of 1%.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4546,6 +5640,11 @@
           <t>The company ensures profitability in its export operations by implementing strategic actions to align supply and demand, enhancing customer satisfaction, and optimizing pricing strategies, particularly within the Tobacco Leaf Products Export Business. In the Cigarettes Export Business, it focuses on brand cultivation and product portfolio optimization while expanding distribution channels from duty-free to duty-paid markets, which contributes to overall growth. For New Tobacco Products, the company leverages its resource advantages to optimize product structures and expand market channels, increasing revenue and brand impact. Additionally, it strengthens supply chain management and addresses market risks to sustain operations. These strategies collectively drive operating revenue and improve gross profit margins, leading to year-on-year growth.</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>The company ensures profitability in its export operations by employing a comprehensive pricing strategy that includes arm's length negotiations with customers, considering factors like retail prices in target markets and expected profit margins. Currently, the margins for the New Tobacco Products Export Business are at least 1%, reflecting careful assessment of operating costs and early-stage marketing expenses. The company also focuses on optimizing its product structure and business model in key markets, enhancing brand influence to expand market presence. Additionally, it capitalizes on resource advantages and strengthens strategic planning to improve operational management and budget allocation. This multifaceted approach not only enhances profitability but also supports sustainable growth in emerging markets.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4558,6 +5657,11 @@
           <t>The retrieved context does not explicitly mention specific payment terms typically required from customers. However, it indicates that the company engages in arm's length negotiations for sales prices, suggesting that payment terms may vary based on these negotiations. Generally, companies in this sector may require payment upfront, upon delivery, or on credit terms, depending on the relationship with the customer and the specifics of the transaction. Additional context regarding the company's standard practices would be necessary to provide a precise answer. Hence, without further information, specific payment terms remain unspecified.</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>The retrieved context does not provide specific details regarding the payment terms required from customers. However, it mentions that the company determines sales prices through arm's length negotiations, considering factors like retail prices and expected profit margins. The absence of a reference price for domestic sales of new tobacco products suggests that terms may vary based on negotiation outcomes. Additionally, the company does not mention any export tariffs or taxes on its cigarette export business, which could imply more favorable payment terms. Overall, more detailed information on payment terms would be needed for a comprehensive understanding.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4570,6 +5674,11 @@
           <t>The primary source of revenue for China Tobacco International (HK) Company Limited comes from its Tobacco Leaf Products Export Business, which involves exporting tobacco leaf products to regions including Southeast Asia, Hong Kong, Macau, Taiwan, and Europe. Additionally, the company engages in a Tobacco Leaf Products Import Business, where it imports tobacco leaf products to the Chinese Mainland from various origin countries. During the reporting period, the company recorded significant connected transactions, with tobacco purchases amounting to HK$1,461.3 million. The business model relies on securing high-quality tobacco through agreements with suppliers, such as Alliance One Brazil. This diversified approach to both export and import activities supports the company's financial performance and revenue generation.</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>The primary source of revenue for China Tobacco International comes from various segments related to the tobacco industry, including the Tobacco Leaf Products Export Business, Tobacco Leaf Products Import Business, Cigarettes Export Business, New Tobacco Products Export Business, and operations in Brazil. These segments reflect a diversified approach to revenue generation within the tobacco sector. The company focuses on factors such as operating costs and profit margins when determining pricing and procurement strategies. Additionally, revenue is influenced by market conditions and relationships with suppliers. Overall, the group’s activities are centered on the production and export of tobacco-related products.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4582,6 +5691,11 @@
           <t>The company generates gross profit primarily through the sale of tobacco leaves and related products, specifically under the Framework Tobacco Sales Agreement. During the reporting period, the total sale transactions amounted to HK$184.0 million. However, the company experienced a decline in gross profit due to changes in product structure, where higher sales volumes of finished tobacco strips with lower profit margins replaced sales of more profitable tobacco leaf by-products. Revenue reported is based on the sales generated by different segments, and gross profit is calculated as the difference between this revenue and the associated cost of sales. Overall, the strategic focus on both organic and inorganic growth aims to enhance future gross profit generation.</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>The company generates gross profit primarily through the sale of tobacco products, which include finished tobacco strips and tobacco leaf by-products. However, a significant shift in product structure has been noted, where the sales volume of finished tobacco strips, despite having a higher unit sale price, has lower gross profit margins. Conversely, the sales volume of tobacco leaf by-products, which typically have higher gross profit levels but lower unit prices, has decreased. This change in product mix has contributed to an increase in revenue while simultaneously leading to a decrease in overall gross profit. Thus, the company's gross profit generation is heavily influenced by both the sales volume and profit margins of the products sold.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4594,6 +5708,11 @@
           <t>In the first half of 2024, revenue trends indicate a shift in product structure, with a notable increase in sales of finished tobacco strips that have a higher unit sale price but lower gross profit margins. Conversely, the sales proportion of tobacco leaf by-products, which typically yield higher gross profits, has decreased. This change suggests a strategic pivot towards products with higher sales volumes but reduced profitability. Overall, the group's revenue has grown year-on-year, highlighting successful adaptation to market conditions despite the decline in gross profit from higher-margin products. The focus remains on enhancing operational efficiency and exploring growth opportunities in both domestic and international markets.</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>The observed trends in revenue contributions from different business segments indicate a shift in product structure. Specifically, there has been a significant increase in the sales volume of finished tobacco strips, which have a higher unit sale price but lower gross profit margins. Conversely, the sales volume of tobacco leaf by-products, which typically yield higher gross profit levels, has decreased. This change has resulted in an overall increase in revenue despite a decline in gross profit. The Group's strategic efforts, including strengthening brand cultivation and optimizing pricing strategies, are likely driving this trend.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4606,6 +5725,11 @@
           <t>The company manages its gross profit margins by analyzing the sales generated from each reportable segment and the associated costs of sales. Gross profit is calculated as the difference between segment revenue and cost of sales, allowing management to assess profitability at a granular level. They recognize significant shifts in product structure that impact margins, as seen with the increase in sales of higher-priced, lower-margin finished tobacco strips compared to higher-margin tobacco leaf by-products. To address these challenges, the company is focusing on optimizing its brand portfolio and improving supply chain operations. Additionally, they plan to enhance international market capabilities and explore new product innovations to bolster overall business profitability.</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>The company manages its gross profit margins across various products by focusing on strategic pricing and cost optimization. For new tobacco products, it maintains margins of at least 1%, taking into account operating costs and early-stage marketing expenses. In the Cigarettes Export Business, the company enhances profitability through brand cultivation and optimizing its product portfolio. Additionally, by exploring expansion opportunities in existing channels and promoting new products, it aims to boost sales and improve margins. Continuous technological innovation and collaboration with key customers further support its efforts to enhance market competitiveness.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4618,6 +5742,11 @@
           <t>The overall profitability of the organization is influenced by several key factors. Firstly, there has been a significant increase in profit for the period, with a 33% rise to HK$679,702, indicating effective management and operational efficiency. Secondly, the organization has deepened cooperation within the supply chain, enhancing synergies and securing imported tobacco leaves, which improves cost management and reduces supply chain disruptions. Additionally, the strategic shift in product sales, focusing more on higher-priced finished tobacco strips, despite lower gross profit margins, has helped maintain revenue growth. Finally, the Board's decision to distribute dividends signals confidence in sustained profitability, further incentivizing stakeholder support.</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>The overall profitability of the organization is influenced by several key factors. Firstly, the strategic cooperation with Chinese cigar enterprises and the expansion of the cigar business scope enhance revenue streams. Secondly, the focus on improving market awareness of new tobacco products and strengthening production-sales cooperation boosts sales performance. Thirdly, the shift towards higher gross profit leaf by-products, despite lower unit sale prices, indicates a strategic alignment with profitability goals. Lastly, the distribution of an interim dividend reflects a commitment to shareholder value, which can enhance investor confidence and support long-term financial health.</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4630,6 +5759,11 @@
           <t>China Tobacco International assesses its performance over time primarily through segment reporting, which organizes its businesses by product lines and geographical regions. This allows the company to evaluate revenue generation from different segments, such as the export and import of tobacco leaf products. During the reporting period, the company reported a transaction amount of HK$184.0 million under the Framework Tobacco Sales Agreement, indicating a significant level of sales activity. Additionally, the management reviews internal reports to allocate resources effectively and assess performance relative to its strategic objectives. Overall, the focus on segmented revenue and connected transactions provides a structured approach to performance assessment.</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>China Tobacco International assesses its performance over time primarily through its financial reporting practices, notably through interim financial reports prepared in accordance with Hong Kong Accounting Standard 34. These reports allow the company to evaluate its operations by providing insights into its profit or loss and other comprehensive income over specific periods, such as the six months ended 30 June 2024. Additionally, the company relies on agreements with partners like Alliance One International to gauge sales performance and market reach in various regions, including Southeast Asia and Hong Kong. The approval status of tobacco merchants by end customers further influences performance metrics, as it dictates sales channels and customer relationships. Overall, the combination of financial metrics and market positioning serves as a comprehensive performance assessment framework for the company.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4642,6 +5776,11 @@
           <t>Key performance indicators (KPIs) essential for evaluating the company's success include revenue growth, particularly in specific product lines such as tobacco leaf products, cigarettes, and new tobacco products. For the six months ended June 30, 2024, revenue from tobacco leaf products reached HK$8,112,880, a significant increase from HK$7,469,818 in 2023. Additionally, monitoring operational efficiency through budget management and resource allocation optimization is critical. ESG performance metrics are also vital, reflecting the company's commitment to sustainable practices and community involvement. Lastly, customer base expansion and market risk management will serve as indicators of competitive strength and long-term viability.</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Key performance indicators (KPIs) essential for evaluating the company's success include operational revenue growth, ESG performance, and market share of proprietary business. The company’s ability to expand target market channels and enhance global impact through brand management is also crucial. Additionally, effective budget management and resource allocation capabilities are vital for operational efficiency. Monitoring supplier finance arrangements and financing cost control can provide insights into financial stability. Finally, talent optimization and internal control measures are important for risk management and governance efficiency.</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4654,6 +5793,11 @@
           <t>The company tracks growth in its business segments by analyzing key operating accomplishments and financial metrics, such as revenue, gross profit, and profit for the period. In the first half of 2024, it reported a 33% increase in profit for the period, rising to HK$679,702, indicating overall business growth. The company also focuses on product mix changes, noting a significant increase in sales volume of finished tobacco strips despite lower gross profit margins. Additionally, strategic initiatives like deepening cooperation in the supply chain and enhancing synergies with subsidiaries help monitor performance across different segments. Overall, the combination of financial performance and strategic alignment informs the company's growth tracking efforts.</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>The company tracks growth in its business segments by assessing year-on-year performance improvements and operational accomplishments. It deepens cooperation with supply chain partners and strengthens synergies with subsidiaries, which enhance overall business efficiency and results. Key metrics include sales volume and profitability of various tobacco leaf grades, as well as the performance of new tobacco products. Additionally, the company monitors the margins in its New Tobacco Products Export Business, which currently stand at a minimum of 1%. This strategic focus allows the company to evaluate market conditions and adjust its approach accordingly to foster growth.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4666,6 +5810,11 @@
           <t>Market conditions significantly influence the company's performance metrics by affecting pricing strategies, procurement, and sales volumes. During the reporting period, the company sold tobacco transactions amounting to HK$184.0 million, indicating reliance on favorable market conditions to achieve sales targets. The ability to negotiate price quotes based on market conditions and supplier price floors demonstrates that fluctuations can directly impact profitability. Additionally, the expansion of raw tobacco procurement areas in Brazil suggests a response to market demands and potential risks. Overall, the company's strategic adjustments and operational optimizations are critical in navigating changing market dynamics and enhancing competitiveness.</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Market conditions significantly influence the company's performance metrics, particularly in terms of revenue growth and customer base expansion. The focus on new tobacco products and the strategic enhancements in product structure and business models have led to increased operational revenue and a rise in proprietary business share. However, restrictions on the domestic sale of heat-not-burn products in China limit market potential, necessitating reliance on international markets for sales negotiations. The company's emphasis on budget management and resource optimization helps mitigate risks associated with fluctuating market conditions. Overall, market dynamics drive the need for adaptive strategies to maintain profitability and enhance brand influence globally.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4678,6 +5827,11 @@
           <t>The company is adjusting its product strategy in response to shifts in consumer demand, particularly by increasing the sales volume of finished tobacco strips, which have a higher unit sale price but lower gross profit. This change indicates a pivot towards products that are more popular in the market, despite their lower profitability. The company aims to enhance its high-quality development goals by focusing on both organic and inorganic growth strategies. Additionally, it is committed to respecting market dynamics and investor interests while expanding its capital operations and international business. The overall approach reflects a balancing act between meeting consumer preferences and maintaining profitability.</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>The company responds to changes in consumer demand by adjusting its product structure and sales strategies. For instance, there has been a notable shift towards finished tobacco strips, which have a higher unit sale price but lower gross profit, indicating a strategic pivot to meet market preferences. Additionally, the company monitors international market conditions and operating costs, allowing for flexible pricing and margin adjustments. This responsiveness is also reflected in their procurement and pricing policies for tobacco products, ensuring they align with current consumer trends. Overall, the company aims to balance profitability with consumer demand through dynamic operational strategies.</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4690,6 +5844,11 @@
           <t>Current trends shaping the tobacco industry include the increasing differentiation of tobacco leaf products based on quality, particularly in regions like Yunnan Province, which are noted for higher-grade products. Additionally, changes in export margins, effective from January 2024, introduce minimum margins of 1%, 2%, and 4% based on various factors, indicating a shift towards more strategic pricing structures. The fluctuation of exchange rates between local currencies and the Hong Kong dollar also significantly affects market dynamics, impacting profitability for exporters. Furthermore, the relationship between buyers and suppliers is crucial, as certain end customers only trade with approved merchants, influencing sales channels. Overall, supply and demand patterns, along with operational costs and local taxation, are pivotal in shaping the industry's future.</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Current trends shaping the tobacco industry include a shift towards high-quality tobacco leaf procurement, as companies like CBT seek to meet increasing demand from consumers. The emphasis on competitive pricing and favorable margins—ranging from 1% to 4% depending on various factors—highlights the industry's focus on profitability and market presence. Additionally, the absence of export tariffs on new tobacco products is encouraging expansion into international markets. Companies are also increasingly considering operating costs and market conditions when setting profit margins, indicating a more responsive approach to market dynamics. Overall, these trends reflect a competitive landscape driven by quality, cost management, and strategic supplier relationships.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4702,6 +5861,11 @@
           <t>China Tobacco International adapts to changes in market conditions by diversifying its business operations across various segments, including tobacco leaf products import and export, and new tobacco products. The company monitors segment performance and allocates resources accordingly, ensuring responsiveness to regional demands, particularly in Asia and Europe. Additionally, it engages in strategic agreements, like the CBT Framework Tobacco Sales Agreement, to facilitate transactions and maintain supply chains. By focusing on procurement and processing in Brazil, the company mitigates risks associated with reliance on a single market. Overall, these strategies enable China Tobacco International to remain competitive and responsive to evolving market dynamics.</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>China Tobacco International adapts to changes in market conditions by entering strategic agreements, such as the Framework Tobacco Sales Agreement with Alliance One International, which enhances its market presence in Southeast Asia and surrounding regions. The company focuses on managing relationships with upstream and downstream partners to strengthen its supply chain and address challenges posed by extreme weather and shipping fluctuations. Additionally, it offers competitive pricing to expand its market reach and adjusts margins based on operating costs and market dynamics. The company is also proactive in exploring new tobacco products, which are not subject to export tariffs, allowing for greater flexibility in pricing strategies. Currently, the margins for the New Tobacco Products Export Business are at least 1%, reflecting a calculated approach to maintaining profitability amidst market changes.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4714,6 +5878,11 @@
           <t>The company has implemented several strategies to enhance its market position, including optimizing supply and demand alignment to improve customer satisfaction and service capabilities. For the Cigarettes Export Business, it focused on brand cultivation and expanded its product portfolio while transitioning sales from duty-free to duty-paid markets to boost profitability. In the New Tobacco Products segment, it capitalized on resource advantages, optimized product structures, and enhanced global trademark management to increase market competitiveness. Additionally, the company upgraded its ERP system to improve operational efficiency and reduce operating costs. Lastly, it has integrated ESG concepts into its operations to build a positive corporate image and strengthen its market presence.</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>The company has implemented several strategies to enhance its market position, focusing on both organic and inorganic growth through capital operations and international expansion. They have optimized pricing strategies and aligned supply and demand to improve customer satisfaction and operational efficiency. Additionally, the company has intensified cooperation between production and sales, promoting technological innovation and product upgrading to enhance competitiveness in emerging markets. They have also worked on brand cultivation and expanded their product portfolio to improve profitability in the Cigarettes Export Business. Finally, the emphasis on ESG system construction indicates a commitment to sustainable practices, which may enhance brand reputation and market influence.</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4726,6 +5895,11 @@
           <t>The company anticipates growth in its New Tobacco Products Export Business, as indicated by a revenue increase from HK$33,895,000 in 2023 to HK$43,517,000 in 2024. Currently, the margins for these products are at least 1%, which suggests a modest profitability that may improve as the market evolves. The company's pricing strategy includes competitive pricing to enhance market presence, which indicates a proactive approach to capturing market share. Additionally, the absence of export tariffs for new tobacco products may further enhance their competitiveness internationally. Overall, the company appears optimistic about expanding its footprint in the new tobacco segment while being responsive to market dynamics.</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>The company anticipates growth in its New Tobacco Products Export Business, leveraging competitive pricing to expand market presence. Current margins are around 1%, reflecting operating costs and early-stage marketing expenses, which may be adjusted based on international market conditions. The absence of export tariffs for new tobacco products further supports potential profitability. Additionally, strategic relationships with key customers, such as Alliance One Group, are expected to enhance distribution and sales. Overall, the company seems optimistic about meeting increasing demand for high-quality tobacco products.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4738,6 +5912,11 @@
           <t>China Tobacco International (CTI) holds several competitive advantages, primarily through its strategic partnerships and agreements with key suppliers like Alliance One Group and Alliance One Brazil. These relationships ensure a reliable supply of high-quality tobacco leaves and agricultural materials, critical for meeting customer demands. Additionally, CTI's ability to engage in connected transactions, such as the HK$1,461.3 million in purchases and HK$184.0 million in sales during the reporting period, demonstrates its strong operational capacity and market presence. The Framework Tobacco Sales Agreement allows CTI to navigate the complex regulatory environment by leveraging approved merchants for sales. Lastly, its comprehensive approach to procurement and processing services further enhances its operational efficiency and product quality.</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>China Tobacco International (CTI) benefits from several competitive advantages in the tobacco industry. Firstly, it has established relationships with approved tobacco merchants, allowing it to secure reliable sources of high-quality tobacco leaves and agricultural materials. Secondly, CTI's ability to operate processing facilities enhances its efficiency and control over product quality. Additionally, the company's strategic agreements, such as the Framework Tobacco Sales Agreement with Alliance One International, enable it to access diverse markets in Southeast Asia and beyond. Lastly, the indefinite term of these agreements provides stability and long-term partnerships, which are crucial in the highly regulated tobacco industry.</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4750,6 +5929,11 @@
           <t>The company manages its cash flow by focusing on sound profitability and ensuring sufficient cash reserves, which allows for consistent dividend distributions to shareholders. In the first half of 2024, the profit for the period increased by 33% to HK$679,702, indicating strong operational performance that supports cash flow stability. Additionally, the strategic emphasis on organic and inorganic growth helps to reinforce financial health and operational efficiency. The company also leverages its strong market position and negotiating power to optimize pricing and manage costs effectively. Overall, these strategies contribute to a robust cash flow management framework.</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>The company manages its cash flow by strategically adjusting its product structure to optimize revenue streams, focusing on higher unit sale prices despite lower gross profit margins. By increasing the sales proportion of finished tobacco strips, the company aims to enhance overall revenue. Additionally, the declaration of an interim dividend of HK$0.15 per share indicates a commitment to returning value to shareholders while maintaining cash flow. The company also secures quality tobacco leaves through arm's length negotiations, ensuring a steady supply to meet demand. Overall, these strategies help stabilize cash flow amid changing market dynamics.</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4762,6 +5946,11 @@
           <t>The company's net margin, which reflects its profitability after all expenses, is a critical indicator of its financial health. With a profit for the period of HK$679,702 million, representing a 33% increase from the previous year, the company demonstrates robust profitability. However, the decrease in gross profit amidst rising revenues indicates potential challenges in cost management or product pricing strategies. The significant shift in product sales, favoring lower-margin finished tobacco strips, could impact long-term sustainability if not addressed. Overall, while the net margin shows positive growth, the underlying changes in revenue composition warrant careful monitoring to ensure continued financial stability.</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>The company's net margin, particularly the 1% margin in the New Tobacco Products Export Business, indicates a cautious approach to profitability, as it reflects the operating costs and early-stage marketing expenses. This slim margin suggests that while the company is maintaining a foothold in a potentially lucrative market, its profitability is currently limited, which could affect overall financial health if costs rise or sales do not increase. The absence of inter-segment revenue highlights reliance on individual segment performance, making it crucial for each to be financially viable. Additionally, the decision to distribute an interim dividend of HK$0.15 per share demonstrates a commitment to shareholder value, but could strain cash flow if margins do not improve. Overall, the current margin levels necessitate careful monitoring to ensure sustainable growth and financial stability.</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4774,6 +5963,11 @@
           <t>The company has resolved to distribute an interim dividend starting from 2024, reflecting its commitment to return value to shareholders. For the reporting period, it declared an interim dividend of HK$0.15 per share. This decision is based on the Group’s strong profitability and sufficient cash flow, indicating a focus on maintaining shareholder returns. The Board aims to create higher returns through strategic business development and operational gains. Overall, the approach emphasizes balancing profitability with reward distribution to shareholders.</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>The company approaches dividend distribution by prioritizing shareholder value and ensuring sound profitability and sufficient cash flow. For the Reporting Period, it declared an interim dividend of HK$0.15 per share, signaling a commitment to return profits to shareholders. The profit for the period attributable to equity shareholders increased by 41%, from HK$456,952 to HK$643,341, reflecting strong financial performance. This move aligns with the Group's strategy to create higher returns for shareholders while maintaining a robust financial position. Overall, the Board's decision to distribute dividends indicates a positive outlook on the company's financial health and future growth.</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4786,6 +5980,11 @@
           <t>The company's outlook for the coming years appears positive, driven by a focus on both organic and inorganic growth strategies. In the first half of 2024, the company reported a 33% increase in profit for the period, rising from HK$510,540 to HK$679,702, alongside a 41% growth in profit attributable to equity shareholders. The interim dividend of HK$0.15 per share indicates a commitment to returning value to shareholders, reflecting sound profitability and cash flow. Additionally, the company aims to enhance its business strengths and drive innovation, which should bolster future performance. Overall, the strategic emphasis on international market expansion and capital operations positions the company for high-quality development ahead.</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>The company's financial performance outlook for the coming years appears cautiously optimistic, as it plans to focus on high-quality development goals while respecting market and investor interests. Despite a decrease in gross profit due to a shift in product sales towards lower-margin finished tobacco strips, the overall revenue has increased. The Group aims to enhance synergies within its supply chain and deepen partnerships, which could stabilize and potentially improve profitability. Strategic initiatives in capital market operations and international business expansion are expected to drive growth. Overall, while challenges remain, the company's strategic focus may lead to improved financial results in the future.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4798,6 +5997,11 @@
           <t>The retrieved context does not provide specific valuation metrics or comparison figures between the company and industry standards. It primarily focuses on compliance with corporate governance and procurement processes for tobacco leaf products. To evaluate the company's valuation against industry standards, one would typically examine metrics such as price-to-earnings (P/E) ratio, price-to-sales (P/S) ratio, or enterprise value-to-EBITDA (EV/EBITDA) ratios. These metrics would need to be sourced from industry reports or financial statements. Thus, without additional financial data, a direct comparison cannot be made.</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>The company's valuation cannot be directly compared to industry standards due to the absence of a domestic reference price for heat-not-burn tobacco products in China. Instead, the company determines its sales prices through arm's length negotiations with third-party customers, incorporating various costs such as raw materials and operational expenses. This method suggests that the company's pricing strategy is aligned with market dynamics rather than fixed industry benchmarks. Additionally, the company relies on suppliers' costs and prevailing market prices, indicating a flexible approach that may affect its competitive positioning. Without specific statistical data or comparable metrics, a precise valuation comparison remains challenging.</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4810,6 +6014,11 @@
           <t>China Tobacco International (CTI) faces several potential risks in its operations. Firstly, fluctuations in global tobacco leaf supply and prices can impact procurement costs, especially given its reliance on suppliers like Alliance One Brazil. Additionally, regulatory changes in key markets could affect export opportunities and compliance costs. The company also faces geopolitical risks, particularly in regions where it imports tobacco products, which could disrupt supply chains. Lastly, shifting consumer preferences towards alternative products may impact the demand for traditional tobacco goods.</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>China Tobacco International faces several potential risks in its operations. Firstly, fluctuations in international market conditions can affect procurement prices, impacting profit margins. Secondly, reliance on specific markets, such as Southeast Asia and the Chinese Mainland, may expose the company to regional economic downturns or regulatory changes. Additionally, competition from influential cigarette brands could pressure pricing strategies and market share. Lastly, maintaining strong relationships with suppliers is crucial; any disruption could jeopardize the supply chain and product quality.</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4822,6 +6031,11 @@
           <t>The company mitigates risks associated with international trade through several strategies. Firstly, it engages in arm's length negotiations with customers to determine sales prices, which helps ensure fair pricing and reduces the risk of losses. Additionally, the company has established long-term relationships with approved tobacco merchants, such as Alliance One Group, to facilitate smoother transactions and maintain a stable customer base. The use of Framework Tobacco Sales Agreements allows for structured terms in international transactions, providing clarity and security. Finally, the exemption from tax payments in the export business enhances profitability and reduces financial risk in international operations.</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>The company mitigates risks associated with international trade by negotiating Procurement Prices on an arm's length basis, factoring in current market conditions and supplier relationships. Additionally, they monitor supply and demand dynamics in the new tobacco products market to maintain competitive pricing. The margins for the New Tobacco Products Export Business are set at a minimum of 1%, which considers operating costs and early-stage marketing expenses. The indefinite nature of the Export Framework Agreement allows the company flexibility to adapt to changing conditions. Overall, these strategies aim to minimize financial exposure while maximizing market presence.</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4834,6 +6048,11 @@
           <t>The company faces regulatory challenges primarily related to compliance with the Hong Kong Financial Reporting Standards (HKFRSs) and the Companies Ordinance. Changes in accounting policies, such as the amendments to HKAS 1 and HKFRS 16, require careful monitoring and adaptation, which can strain resources. Additionally, the need for ongoing assessments and judgments in preparing financial reports under HKAS 34 may lead to inconsistencies or errors if not managed properly. The review of interim financial information by independent auditors, like KPMG, adds another layer of scrutiny that the company must navigate. Overall, these regulatory requirements can affect operational efficiency and financial reporting accuracy.</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>The company faces regulatory challenges primarily related to compliance with amendments to Hong Kong accounting standards (HKAS and HKFRS), particularly concerning lease liabilities and supplier finance arrangements. Although recent amendments have not materially affected the Group's financial results, the ongoing need to adapt to new standards could pose operational hurdles. Additionally, the tobacco industry is heavily regulated, which may impact pricing strategies and operational flexibility. The requirement for independent financial advisement, as seen with Somerley Capital Limited's engagement, indicates a need for thorough compliance oversight. Overall, the evolving regulatory landscape presents continuous challenges that the company must navigate to maintain compliance and competitiveness.</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4846,6 +6065,11 @@
           <t>The company manages fluctuations in market prices by incorporating various factors into their pricing strategy, including operating costs, market demand, and competition. They set applicable margins for exported tobacco leaf products, which range from a minimum of 1% to 4% depending on specific criteria such as product type and customer. Additionally, the company negotiates procurement prices with suppliers considering raw material costs, product quality, and exchange rates. They also adjust margins in response to changing market conditions, ensuring flexibility in their pricing policies. This approach helps maintain profitability while adapting to external market dynamics.</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>The company manages fluctuations in market prices by applying consistent pricing policies when negotiating Procurement Prices with both independent third-party suppliers and connected persons. Factors influencing these prices include exchange rate fluctuations, local taxation at export destinations, and relationships with trading counterparties. The company also sets minimum applicable margins for exported tobacco leaf products, starting from 1% up to 4%, which provides a buffer against price volatility. Additionally, for new tobacco products, margins are determined based on operating costs and early-stage marketing expenses, ensuring competitiveness. This structured approach allows the company to maintain stability and profitability despite market fluctuations.</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4858,6 +6082,11 @@
           <t>The company ensures compliance with industry regulations by adhering to the requirements outlined in Chapter 14A of the Listing Rules, which pertain to connected transactions. It conducts transactions under a Framework Tobacco Sales Agreement, ensuring that all sales align with regulatory standards. The company also obtains indicative sales terms from independent third-party customers and solicits offers from various suppliers, maintaining transparency in pricing and negotiations. Additionally, it seeks independent financial advice and shareholders’ approval when necessary, particularly for transactions that are not exempt from these requirements. Regular announcements and confirmations of compliance are made to maintain accountability and transparency in its operations.</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>The company ensures compliance with industry regulations by adhering to the specific requirements outlined in the Listing Rules, particularly Rule 14A.76, which mandates reporting and announcement for certain transactions while exempting them from circulars, independent financial advice, and shareholder approvals. They also maintain fair dealings by engaging potential third-party customers in international markets to gauge sales terms, including pricing, and negotiate at arm’s length with manufacturing entities under CNTC. Additionally, the company evaluates the quality of samples from suppliers and incorporates unsolicited product offerings into their sales strategy, ensuring alignment with customer demand. Regular announcements concerning their transactions and agreements, such as those dated 25 August 2023 and 20 December 2023, further demonstrate their commitment to transparency and regulatory compliance. Overall, these steps help the company navigate the regulatory landscape effectively while optimizing their procurement and sales processes.</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4870,6 +6099,11 @@
           <t>The retrieved context does not explicitly outline the company's long-term goals. However, it suggests a focus on maintaining substantial control and influence within the industry, as evidenced by CNTC's significant ownership stake of 72.29% in CTIG. Additionally, the company aims to ensure compliance with regulatory frameworks, such as adhering to price floors set by STMA for procurement of cigarettes. The absence of hedging arrangements indicates a strategy of closely monitoring foreign exchange risks, suggesting a cautious approach to financial management. Overall, the company appears to prioritize stability and regulatory compliance while managing its operational costs effectively.</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>The retrieved context does not explicitly outline the company's long-term goals. However, it hints at a focus on compliance with financial reporting standards and maintaining fair dealings in international markets, particularly regarding new tobacco products. The mention of CNTC's control over voting rights suggests a strategy of consolidation and influence within the industry. Additionally, the company's engagement with international markets indicates a potential goal of expanding its customer base and market reach. For a precise understanding of long-term goals, further specific documentation from the company would be necessary.</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4882,6 +6116,11 @@
           <t>China Tobacco International (CNTC) plans to expand its market share by focusing on several key strategies. Firstly, it will enhance its tobacco leaf products import business by sourcing from various countries, excluding sanctioned regions, to meet the demand in the Chinese Mainland. Secondly, CNTC aims to increase cigarette exports to Exclusive Operating Regions and New Designated Regions, leveraging its distribution networks. Additionally, the company is targeting the global market for new tobacco products, excluding the Chinese Mainland, to diversify its offerings. Lastly, its operations in Brazil will support procurement and processing, positioning CNTC to capitalize on international markets.</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>China Tobacco International aims to expand its market share by enhancing its strategic design and solidifying its business operations in the first half of 2024. They plan to improve relationships with approved tobacco merchants, particularly through collaboration with Alliance One International, which allows them to access end customers in Southeast Asia and other regions. The company is also focusing on competitive pricing and expanding its presence in the new tobacco products market, where margins are currently at least 1%. Furthermore, they are working on improving their ESG performance to appeal to multinational tobacco companies, which could open up additional market opportunities. Overall, these strategies are aimed at creating new sources of profit growth and establishing a broader customer base.</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4894,6 +6133,11 @@
           <t>The company is fostering the development of innovative businesses within the tobacco sector, particularly through the Tobacco Leaf Products Import and Export businesses. In the import sector, they are enhancing synergies with subsidiaries and improving supply chain management to mitigate risks from extreme weather and shipping fluctuations. Additionally, they are addressing market constraints and optimizing pricing strategies for their cigarette brands, which include premium offerings. The introduction of new tobacco products is also highlighted, with revenue from this segment growing from HK$33,895,000 in 2023 to HK$43,517,000 in 2024. Overall, the company is focused on integrating innovation into its operational strategies and product offerings to sustain growth and adapt to market demands.</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>The company is focusing on expanding its New Tobacco Products Export Business, which is characterized by competitive pricing to enhance market presence. They are also considering adjusting margins in response to changes in international market conditions and operating costs, indicating a flexible approach to pricing strategy. Furthermore, the company aims to strengthen its supply chain by enhancing synergies with subsidiaries and securing imported tobacco leaves. Additionally, they are addressing challenges such as extreme weather and fluctuations in shipping markets, which suggests an emphasis on operational resilience. Overall, these initiatives reflect a commitment to innovation in product offerings and supply chain management within the tobacco sector.</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4906,6 +6150,11 @@
           <t>The company envisions itself as a significant player in the global tobacco market by focusing on high-quality development and strategic international expansion. It aims to enhance market competitiveness through organic and inorganic growth, technological innovation, and the promotion of new tobacco products. The Group plans to deepen cooperation with key partners in the supply chain and optimize pricing strategies to better meet customer needs. Furthermore, it emphasizes the importance of integrating Environmental, Social, and Governance (ESG) principles into its operations to establish a positive corporate image. Overall, the company is committed to adapting to market changes and strengthening its global presence while maintaining operational efficiency.</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>The company aims to enhance its competitiveness in the global tobacco market by promoting technological innovation and product upgrades, especially in new tobacco products. It plans to optimize cooperation and pricing strategies with key customers while cultivating brand influence in emerging markets. The firm is focused on securing a stable supply chain, addressing challenges such as extreme weather and international shipping fluctuations. Furthermore, it seeks to expand its market presence through effective pricing and by leveraging strong partnerships across the supply chain. Overall, the company envisions a proactive role in navigating market changes and fostering growth through strategic collaborations and innovation.</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4918,6 +6167,11 @@
           <t>The company faces several anticipated challenges in the coming years. A significant issue is the shift in product structure, with increased sales of finished tobacco strips that have a higher unit price but lower gross profit, which may impact overall profitability. Additionally, the decline in sales proportion of higher-margin tobacco leaf by-products poses a risk to financial performance. The company must also navigate market competition and regulatory changes while striving for organic and inorganic growth strategies. Furthermore, ensuring alignment with capital markets operations and expanding internationally may prove challenging amidst these dynamics.</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>The company may face several anticipated challenges in the coming years, primarily related to changes in product structure and pricing dynamics. The significant increase in sales of finished tobacco strips, which have a higher unit sale price but lower gross profit, could pressure overall profitability. Additionally, reliance on local currency transactions while selling in U.S. dollars exposes the company to currency exchange risks. The burden of applicable taxes, such as export taxes, may further impact net revenue. Lastly, maintaining competitive margins amidst fluctuating market conditions and changing consumer preferences could present ongoing difficulties.</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4930,6 +6184,11 @@
           <t>The company experienced an increase in revenue but a decrease in gross profit, primarily due to a shift in product structure. Finished tobacco strips, which have a higher sale price but lower gross profit, gained a significant market share, while higher-margin tobacco leaf by-products saw a decline in sales. As of June 30, 2024, the company had 691,680,000 shares issued, with China Tobacco International (HK) Company holding a 72.29% stake. The company remains compliant with corporate governance codes and regulations, ensuring transparency in director transactions. Looking ahead, the company aims to prioritize organic and inorganic growth strategies to enhance its market position in the second half of 2024.</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>The company's recent performance indicates an increase in revenue but a decrease in gross profit due to significant changes in product structure. Specifically, the sales volume of finished tobacco strips, which have a higher unit sale price but lower gross profit, has risen, while sales of higher gross profit tobacco leaf by-products have declined. This shift has negatively impacted overall profitability. No significant connected transactions were reported during the first half of 2024, aligning with compliance requirements. The company aims to focus on high-quality development and international business expansion in the latter half of 2024.</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4942,6 +6201,11 @@
           <t>China Tobacco International (HK) Company Limited plans to sustain its growth through strategic procurement and sales agreements, particularly with established suppliers like Alliance One Brazil. By securing high-quality tobacco leaf products, the company aims to meet the increasing demands of its customers across various regions, including Southeast Asia and Europe. The group also focuses on segmenting its operations into export and import business lines, which allows for targeted resource allocation and performance assessment. Additionally, the significant transaction amounts reported, such as HK$1,461.3 million in purchases and HK$184.0 million in sales during the reporting period, indicate robust operational activity that supports growth. Overall, these strategies ensure a steady supply chain and customer base, crucial for sustaining long-term growth.</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>China Tobacco International plans to sustain its growth by entering strategic agreements, such as the Framework Tobacco Sales and Purchase Agreements with Alliance One International. These agreements enable the Group to efficiently sell and procure various grades of tobacco leaves, targeting specific markets in Southeast Asia, Hong Kong, Macau, and Taiwan. The focus on improving operational management, including strategic planning, budget management, and resource allocation, is also key to enhancing profitability. Furthermore, the Group aims to expand its customer base and improve its ESG performance to attract multinational tobacco companies. Overall, these strategies are designed to secure high-quality tobacco leaf products and meet the growing demands of its end customers.</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4954,6 +6218,11 @@
           <t>Corporate governance plays a crucial role in the company's strategy by ensuring transparency, accountability, and efficient decision-making, particularly given its state-controlled status under the PRC government. The governance structure allows for oversight of related party transactions, such as the HK$184.0 million in tobacco sales under the Framework Tobacco Sales Agreement with Alliance One International, which helps mitigate risks associated with conflicts of interest. Additionally, adherence to regulatory frameworks, such as the Listing Rules, fosters trust among stakeholders while maintaining compliance with legal requirements. The governance model also supports strategic partnerships and alliances, enhancing the company's market position and operational efficiency. Overall, effective corporate governance aligns the company’s strategic objectives with stakeholder interests and regulatory expectations.</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Corporate governance plays a crucial role in shaping the company's strategy by ensuring transparency, accountability, and ethical behavior within the organization. It establishes a framework for decision-making that aligns with stakeholder interests, thereby enhancing trust and credibility. Effective governance practices can mitigate risks and promote sustainable growth, particularly in industries like tobacco where regulatory scrutiny is high. Moreover, good corporate governance can influence the company's ability to attract investment and maintain relationships with key partners, such as approved tobacco merchants. Overall, strong governance contributes to long-term value creation and stability in the company's operations.</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4966,6 +6235,11 @@
           <t>The company prioritizes sustainability by continuously implementing and enhancing its Environmental, Social, and Governance (ESG) system, ensuring that ESG principles are integrated into all aspects of its operations. This includes refining ESG-related policies and establishing a positive corporate social image. Additionally, the company focuses on optimizing its supply chain management to address environmental challenges, such as extreme weather and international shipping fluctuations. The upgrade of its ERP system also aims to reduce operational costs and enhance data security, which contributes to more efficient governance. Overall, these efforts reflect a commitment to sustainable development and the long-term viability of the business.</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>The company prioritizes sustainability through the continuous implementation of its Environmental, Social, and Governance (ESG) system, enhancing its performance in this area. It aims to optimize resource allocation and improve operational efficiency, which contributes to sustainable practices in its production and supply chain management. The focus on technological innovation and product upgrading also aligns with sustainable development goals. Additionally, the company has established a broader customer base to create new profit sources, which may further enhance its sustainability initiatives. Overall, these efforts reflect a commitment to integrating sustainability into its core business strategies.</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4978,6 +6252,11 @@
           <t>The company communicates its commitment to maintaining compliance with reporting and announcement requirements while leveraging exemptions from certain regulatory approvals under Rule 14A.101 of the Listing Rules. By entering into the Framework Tobacco Sales Agreement with Alliance One International, the company indicates a focus on expanding its sales channels, particularly in Southeast Asia, Hong Kong, Macau, and Taiwan. The reported transaction amount of HK$184.0 million during the reporting period suggests robust business activity and potential for growth. Additionally, the emphasis on arm’s length negotiations and pricing strategies reflects a proactive approach in managing relationships with customers and adapting to market dynamics. Overall, these messages convey confidence in the company's operational strategies and its ability to navigate the tobacco market effectively.</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>The company communicates a commitment to high-quality development and strategic expansion in international markets as key future developments. It emphasizes respect for market dynamics and investor interests while strengthening its operational management through better resource allocation and budget management. The establishment of a broader customer base is highlighted as a means to create new profit sources. Additionally, the company has resolved to distribute interim dividends, starting at HK$0.15 per share, signaling financial stability and a focus on shareholder value. Overall, these messages reflect a proactive approach to growth and sustainability in the business landscape.</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4986,6 +6265,7 @@
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4994,6 +6274,7 @@
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5002,6 +6283,7 @@
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5010,6 +6292,7 @@
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5018,6 +6301,7 @@
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5026,6 +6310,7 @@
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5034,6 +6319,7 @@
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5042,6 +6328,7 @@
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5050,6 +6337,7 @@
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5058,6 +6346,7 @@
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5066,6 +6355,7 @@
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5074,6 +6364,7 @@
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5082,6 +6373,7 @@
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5090,6 +6382,7 @@
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5098,6 +6391,7 @@
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5106,6 +6400,7 @@
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5114,6 +6409,7 @@
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5122,6 +6418,7 @@
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5130,6 +6427,7 @@
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5138,6 +6436,7 @@
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5146,6 +6445,7 @@
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5154,6 +6454,7 @@
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5162,6 +6463,7 @@
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5170,6 +6472,7 @@
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5178,6 +6481,7 @@
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5186,6 +6490,7 @@
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5194,6 +6499,7 @@
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5202,6 +6508,7 @@
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5210,6 +6517,7 @@
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5218,6 +6526,7 @@
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5226,6 +6535,7 @@
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5234,6 +6544,7 @@
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5242,6 +6553,7 @@
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5250,6 +6562,7 @@
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5258,6 +6571,7 @@
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5266,6 +6580,7 @@
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5274,6 +6589,7 @@
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5282,6 +6598,7 @@
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5290,6 +6607,7 @@
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5298,6 +6616,7 @@
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5306,6 +6625,7 @@
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5314,6 +6634,7 @@
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5322,6 +6643,7 @@
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5330,6 +6652,7 @@
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5338,6 +6661,7 @@
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5346,6 +6670,7 @@
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5354,6 +6679,7 @@
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5362,6 +6688,7 @@
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5370,6 +6697,7 @@
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5378,6 +6706,7 @@
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
